--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{846A57EA-F2AC-447B-82E9-922AFCCFDA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (3)\laborpro\resources\test-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC64FAE-EBF4-4188-852A-E66EC1551324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
@@ -15,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -230,13 +233,61 @@
   </si>
   <si>
     <t>verify_add_new_attribute_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_030</t>
+  </si>
+  <si>
+    <t>Department.feature</t>
+  </si>
+  <si>
+    <t>TC_031</t>
+  </si>
+  <si>
+    <t>TC_032</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_033</t>
+  </si>
+  <si>
+    <t>UnitOfMeasure.feature</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_name_empty_tag</t>
+  </si>
+  <si>
+    <t>TC_034</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_By_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_035</t>
+  </si>
+  <si>
+    <t>verify_add_units_of_measure_By_selecting_the_respective_Department</t>
+  </si>
+  <si>
+    <t>TC_036</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_name_already_exists</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_correct_details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,11 +358,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,22 +678,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="100.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="100.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -675,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -685,12 +737,14 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -707,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -717,12 +771,14 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -739,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -749,12 +805,14 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -764,12 +822,14 @@
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -779,12 +839,14 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -794,12 +856,14 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -816,7 +880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -826,12 +890,14 @@
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -846,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -861,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -871,14 +937,12 @@
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -895,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -912,7 +976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -929,7 +993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -946,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -963,7 +1027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -980,7 +1044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -997,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1014,7 +1078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
@@ -1031,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1048,7 +1112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1065,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -1082,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -1099,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -1116,7 +1180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -1130,6 +1194,125 @@
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (6)\laborpro\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (8)\laberpro\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A4B9BB-D7CF-48B0-A403-4F66D21D326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B7F58D-51CE-4D5D-AA7D-A8E88F52F047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>verify_add_Department_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -683,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,11 +720,11 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>84</v>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -740,11 +737,11 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>84</v>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -757,11 +754,11 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>84</v>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -774,11 +771,11 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>84</v>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -791,11 +788,11 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>84</v>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -808,11 +805,11 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>84</v>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -825,11 +822,11 @@
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>84</v>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -842,11 +839,11 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>84</v>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -859,11 +856,11 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>84</v>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -876,11 +873,11 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>84</v>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -893,11 +890,11 @@
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>84</v>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -911,8 +908,8 @@
         <v>31</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>84</v>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -926,8 +923,8 @@
         <v>33</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>84</v>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -941,8 +938,8 @@
         <v>35</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>84</v>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -955,11 +952,11 @@
       <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>84</v>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -972,11 +969,11 @@
       <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>84</v>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -989,11 +986,11 @@
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>84</v>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1006,11 +1003,11 @@
       <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>84</v>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1023,11 +1020,11 @@
       <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>84</v>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1040,11 +1037,11 @@
       <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>84</v>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1057,11 +1054,11 @@
       <c r="C22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>84</v>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1074,11 +1071,11 @@
       <c r="C23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>84</v>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1091,11 +1088,11 @@
       <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>84</v>
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1108,11 +1105,11 @@
       <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>84</v>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1125,11 +1122,11 @@
       <c r="C26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>84</v>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1142,11 +1139,11 @@
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>84</v>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1159,11 +1156,11 @@
       <c r="C28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>84</v>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1176,11 +1173,11 @@
       <c r="C29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>84</v>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1193,11 +1190,11 @@
       <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>84</v>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (3)\laborpro\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\rht\laborpro\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC64FAE-EBF4-4188-852A-E66EC1551324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D218DD9-A838-40B2-96DA-126903205CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -281,13 +281,64 @@
   </si>
   <si>
     <t>verify_add_Department_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_037</t>
+  </si>
+  <si>
+    <t>TC_038</t>
+  </si>
+  <si>
+    <t>TC_039</t>
+  </si>
+  <si>
+    <t>TC_040</t>
+  </si>
+  <si>
+    <t>TC_041</t>
+  </si>
+  <si>
+    <t>TC_042</t>
+  </si>
+  <si>
+    <t>TC_043</t>
+  </si>
+  <si>
+    <t>TC_044</t>
+  </si>
+  <si>
+    <t>Characteristic.feature</t>
+  </si>
+  <si>
+    <t>verify_that_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +366,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -678,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1316,7 +1373,144 @@
         <v>8</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\rht\laborpro\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\hchgjklh\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D218DD9-A838-40B2-96DA-126903205CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3478607F-AD85-4FE2-9231-DD351D903E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -332,6 +332,93 @@
   </si>
   <si>
     <t>verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
+  </si>
+  <si>
+    <t>TC_045</t>
+  </si>
+  <si>
+    <t>TC_046</t>
+  </si>
+  <si>
+    <t>TC_047</t>
+  </si>
+  <si>
+    <t>TC_048</t>
+  </si>
+  <si>
+    <t>VolumeDriver.feature</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_if_Department_is_empty</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_if_Name_already_exist_for_respective_department</t>
+  </si>
+  <si>
+    <t>TC_049</t>
+  </si>
+  <si>
+    <t>TC_050</t>
+  </si>
+  <si>
+    <t>TC_051</t>
+  </si>
+  <si>
+    <t>TC_052</t>
+  </si>
+  <si>
+    <t>VolumeDriverMapping.feature</t>
+  </si>
+  <si>
+    <t>verify_that_new_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>Verify_that_if_Name_is_empty</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>Verify_that_respective_'VolumeDriver'_&amp; _UOM""_available_in_dropdown</t>
+  </si>
+  <si>
+    <t>TC_053</t>
+  </si>
+  <si>
+    <t>Verify_that_respective_'VolumeDriver'_&amp; _UOM""_available_in_dropdown_is_deleted</t>
+  </si>
+  <si>
+    <t>TC_054</t>
+  </si>
+  <si>
+    <t>TC_055</t>
+  </si>
+  <si>
+    <t>TC_056</t>
+  </si>
+  <si>
+    <t>TC_057</t>
+  </si>
+  <si>
+    <t>LocationMapping.feature</t>
+  </si>
+  <si>
+    <t>verify_that_create_Department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_Location_record_shows_Mapping.</t>
+  </si>
+  <si>
+    <t>Verify_that_Respective_'Volume Driver Mapping Set'_&amp;_'Characteristic Set'_are_available_in_dropdown.</t>
+  </si>
+  <si>
+    <t>Verify_that_Respective_records_is_deleted.</t>
   </si>
 </sst>
 </file>
@@ -735,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1509,6 +1596,227 @@
         <v>8</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\hchgjklh\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3478607F-AD85-4FE2-9231-DD351D903E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A60703-8FDF-48D4-AB28-56974299936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,15 +385,9 @@
     <t>verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
   </si>
   <si>
-    <t>Verify_that_respective_'VolumeDriver'_&amp; _UOM""_available_in_dropdown</t>
-  </si>
-  <si>
     <t>TC_053</t>
   </si>
   <si>
-    <t>Verify_that_respective_'VolumeDriver'_&amp; _UOM""_available_in_dropdown_is_deleted</t>
-  </si>
-  <si>
     <t>TC_054</t>
   </si>
   <si>
@@ -415,10 +409,16 @@
     <t>Verify_that_Click_on_Location_record_shows_Mapping.</t>
   </si>
   <si>
-    <t>Verify_that_Respective_'Volume Driver Mapping Set'_&amp;_'Characteristic Set'_are_available_in_dropdown.</t>
-  </si>
-  <si>
     <t>Verify_that_Respective_records_is_deleted.</t>
+  </si>
+  <si>
+    <t>Verify_that_Respective_Volume_Driver_Mapping_Set_&amp;_Characteristic_Set_are_available_in_dropdown</t>
+  </si>
+  <si>
+    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown</t>
+  </si>
+  <si>
+    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1723,7 +1723,7 @@
         <v>114</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>8</v>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>8</v>
@@ -1751,13 +1751,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>8</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>8</v>
@@ -1785,13 +1785,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>8</v>
@@ -1802,13 +1802,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>8</v>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\hchgjklh\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (10)\laberpro\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A60703-8FDF-48D4-AB28-56974299936D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683AACC7-FEDA-43D5-B392-38DBC67FDF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -824,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -865,10 +868,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -882,10 +885,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -899,10 +902,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -916,10 +919,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -933,10 +936,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -950,10 +953,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -967,10 +970,10 @@
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -984,10 +987,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1001,10 +1004,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1018,10 +1021,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1035,10 +1038,10 @@
         <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1051,9 +1054,11 @@
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1066,9 +1071,11 @@
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1081,9 +1088,11 @@
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1097,10 +1106,10 @@
         <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1114,10 +1123,10 @@
         <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1131,10 +1140,10 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1148,10 +1157,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1165,10 +1174,10 @@
         <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1182,10 +1191,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1199,10 +1208,10 @@
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1216,10 +1225,10 @@
         <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1233,10 +1242,10 @@
         <v>54</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1250,10 +1259,10 @@
         <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1267,10 +1276,10 @@
         <v>58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1284,10 +1293,10 @@
         <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1301,10 +1310,10 @@
         <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1318,10 +1327,10 @@
         <v>65</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1335,10 +1344,10 @@
         <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1351,11 +1360,11 @@
       <c r="C31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>8</v>
+      <c r="D31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1368,11 +1377,11 @@
       <c r="C32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>8</v>
+      <c r="D32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1385,11 +1394,11 @@
       <c r="C33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>8</v>
+      <c r="D33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1402,11 +1411,11 @@
       <c r="C34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>8</v>
+      <c r="D34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1419,11 +1428,11 @@
       <c r="C35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>8</v>
+      <c r="D35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1436,11 +1445,11 @@
       <c r="C36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>8</v>
+      <c r="D36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1453,11 +1462,11 @@
       <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>8</v>
+      <c r="D37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1470,11 +1479,11 @@
       <c r="C38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>8</v>
+      <c r="D38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1487,11 +1496,11 @@
       <c r="C39" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>8</v>
+      <c r="D39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1504,11 +1513,11 @@
       <c r="C40" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>8</v>
+      <c r="D40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1521,11 +1530,11 @@
       <c r="C41" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>8</v>
+      <c r="D41" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1538,11 +1547,11 @@
       <c r="C42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>8</v>
+      <c r="D42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1555,11 +1564,11 @@
       <c r="C43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>8</v>
+      <c r="D43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1572,11 +1581,11 @@
       <c r="C44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>8</v>
+      <c r="D44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1589,11 +1598,11 @@
       <c r="C45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>8</v>
+      <c r="D45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (8)\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (2)\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E332F87-95CC-445D-B3B0-1AA53B581A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC5EFFA-9D81-4245-86A7-854270125113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="208">
   <si>
     <t>ID</t>
   </si>
@@ -559,6 +559,96 @@
   </si>
   <si>
     <t>LaborPeriods.feature</t>
+  </si>
+  <si>
+    <t>Verify_that_user_should_not_have_access_for_Add_button</t>
+  </si>
+  <si>
+    <t>UnitOfMeasure_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>TC_079</t>
+  </si>
+  <si>
+    <t>TC_080</t>
+  </si>
+  <si>
+    <t>TC_081</t>
+  </si>
+  <si>
+    <t>Verify_that_export_options_are_not_available_for_the_user</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_UOM_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>VolumeDriver_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>TC_082</t>
+  </si>
+  <si>
+    <t>TC_083</t>
+  </si>
+  <si>
+    <t>TC_084</t>
+  </si>
+  <si>
+    <t>Verify_that_user_should_not_have_access_for_add_button</t>
+  </si>
+  <si>
+    <t>Verify_that_export_options_are_not_available_for_the_User</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_VolumeDriver_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>Department_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>TC_085</t>
+  </si>
+  <si>
+    <t>TC_086</t>
+  </si>
+  <si>
+    <t>TC_087</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button</t>
+  </si>
+  <si>
+    <t>Verify_that_Export_options_are_not_available_for_the_User</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Department_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>Characteristic_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>TC_088</t>
+  </si>
+  <si>
+    <t>TC_089</t>
+  </si>
+  <si>
+    <t>TC_090</t>
+  </si>
+  <si>
+    <t>TC_091</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Characteristic</t>
+  </si>
+  <si>
+    <t>Verify_that_Export_options_are_available_for_the_User_in_Characteristic</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Characteristic_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>Verify_edit_option_is_not_available_when_clicked_on_the_Hamburger_icon_in_the_Characteritics_page</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2389,6 +2479,232 @@
         <v>8</v>
       </c>
     </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (2)\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\v\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC5EFFA-9D81-4245-86A7-854270125113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B6B16E-2219-4950-8251-34042765B27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -649,6 +649,21 @@
   </si>
   <si>
     <t>Verify_edit_option_is_not_available_when_clicked_on_the_Hamburger_icon_in_the_Characteritics_page</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Classifications_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Classifications</t>
+  </si>
+  <si>
+    <t>Classifications_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>TC_092</t>
+  </si>
+  <si>
+    <t>TC_093</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="A92" sqref="A92:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2701,8 +2716,37 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
-        <v>32</v>
+      <c r="A93" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\v\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (2)\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B6B16E-2219-4950-8251-34042765B27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC5EFFA-9D81-4245-86A7-854270125113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="208">
   <si>
     <t>ID</t>
   </si>
@@ -649,21 +649,6 @@
   </si>
   <si>
     <t>Verify_edit_option_is_not_available_when_clicked_on_the_Hamburger_icon_in_the_Characteritics_page</t>
-  </si>
-  <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Classifications_details_must_not_be_editable</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Classifications</t>
-  </si>
-  <si>
-    <t>Classifications_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>TC_092</t>
-  </si>
-  <si>
-    <t>TC_093</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:E94"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2716,37 +2701,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>8</v>
+      <c r="B93" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (2)\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (2)\LaborPro.Automation\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC5EFFA-9D81-4245-86A7-854270125113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084866F-6FB1-4DF7-A194-F596202BD64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="257">
   <si>
     <t>ID</t>
   </si>
@@ -492,163 +492,310 @@
     <t>TC_068</t>
   </si>
   <si>
+    <t>Tasks.feature</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
+  </si>
+  <si>
     <t>TC_069</t>
   </si>
   <si>
+    <t>verify_add_Tasks_when_enter_blank_details</t>
+  </si>
+  <si>
     <t>TC_070</t>
   </si>
   <si>
+    <t>verify_add_Tasks_when_enter_correct_details</t>
+  </si>
+  <si>
     <t>TC_071</t>
   </si>
   <si>
+    <t>verify_add_Tasks_when_enter_existing_details</t>
+  </si>
+  <si>
     <t>TC_072</t>
   </si>
   <si>
-    <t>Tasks.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t>verify_add_Tasks_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>verify_add_Tasks_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>verify_add_Tasks_when_enter_existing_details</t>
-  </si>
-  <si>
     <t>Verify_that_Respective_TaskGroup_is_available_in_Task</t>
   </si>
   <si>
+    <t>TC_073</t>
+  </si>
+  <si>
+    <t>LaborPeriods.feature</t>
+  </si>
+  <si>
     <t>Verify_that_click_on_New_Labor_Period</t>
   </si>
   <si>
+    <t>TC_074</t>
+  </si>
+  <si>
     <t>Verify_that_Name_Labor_Period_Type_Traffic_Pattern_Labor_Destribution_are_empty_and_click_on_Save_button</t>
   </si>
   <si>
+    <t>TC_075</t>
+  </si>
+  <si>
     <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation</t>
   </si>
   <si>
+    <t>TC_076</t>
+  </si>
+  <si>
     <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation_and_without_selection_any_value_for_Day_click_on_Save_Button</t>
   </si>
   <si>
+    <t>TC_077</t>
+  </si>
+  <si>
     <t>Verify_that_if_provide_all_valid_data_select_Labor_Period_Type_as_Hours_of_Operation_select_any_value_for_Day_Sunday_click_on_Save_Button</t>
   </si>
   <si>
+    <t>TC_078</t>
+  </si>
+  <si>
     <t>Verify_that_if_Labor_Period_Name_already_exist</t>
   </si>
   <si>
-    <t>TC_073</t>
-  </si>
-  <si>
-    <t>TC_074</t>
-  </si>
-  <si>
-    <t>TC_075</t>
-  </si>
-  <si>
-    <t>TC_076</t>
-  </si>
-  <si>
-    <t>TC_077</t>
-  </si>
-  <si>
-    <t>TC_078</t>
-  </si>
-  <si>
-    <t>LaborPeriods.feature</t>
+    <t>TC_079</t>
+  </si>
+  <si>
+    <t>UnitOfMeasure_ViewOnly.feature</t>
   </si>
   <si>
     <t>Verify_that_user_should_not_have_access_for_Add_button</t>
   </si>
   <si>
-    <t>UnitOfMeasure_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>TC_079</t>
-  </si>
-  <si>
     <t>TC_080</t>
   </si>
   <si>
+    <t>Verify_that_export_options_are_not_available_for_the_user</t>
+  </si>
+  <si>
     <t>TC_081</t>
   </si>
   <si>
-    <t>Verify_that_export_options_are_not_available_for_the_user</t>
-  </si>
-  <si>
     <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_UOM_details_must_not_be_editable</t>
   </si>
   <si>
+    <t>TC_082</t>
+  </si>
+  <si>
     <t>VolumeDriver_ViewOnly.feature</t>
   </si>
   <si>
-    <t>TC_082</t>
+    <t>Verify_that_user_should_not_have_access_for_add_button</t>
   </si>
   <si>
     <t>TC_083</t>
   </si>
   <si>
+    <t>Verify_that_export_options_are_not_available_for_the_User</t>
+  </si>
+  <si>
     <t>TC_084</t>
   </si>
   <si>
-    <t>Verify_that_user_should_not_have_access_for_add_button</t>
-  </si>
-  <si>
-    <t>Verify_that_export_options_are_not_available_for_the_User</t>
-  </si>
-  <si>
     <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_VolumeDriver_details_must_not_be_editable</t>
   </si>
   <si>
+    <t>TC_085</t>
+  </si>
+  <si>
     <t>Department_ViewOnly.feature</t>
   </si>
   <si>
-    <t>TC_085</t>
+    <t>Verify_that_User_should_not_have_access_for_Add_button</t>
   </si>
   <si>
     <t>TC_086</t>
   </si>
   <si>
+    <t>Verify_that_Export_options_are_not_available_for_the_User</t>
+  </si>
+  <si>
     <t>TC_087</t>
   </si>
   <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button</t>
-  </si>
-  <si>
-    <t>Verify_that_Export_options_are_not_available_for_the_User</t>
-  </si>
-  <si>
     <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Department_details_must_not_be_editable</t>
   </si>
   <si>
+    <t>TC_088</t>
+  </si>
+  <si>
     <t>Characteristic_ViewOnly.feature</t>
   </si>
   <si>
-    <t>TC_088</t>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Characteristic</t>
   </si>
   <si>
     <t>TC_089</t>
   </si>
   <si>
+    <t>Verify_that_Export_options_are_available_for_the_User_in_Characteristic</t>
+  </si>
+  <si>
     <t>TC_090</t>
   </si>
   <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Characteristic_details_must_not_be_editable</t>
+  </si>
+  <si>
     <t>TC_091</t>
   </si>
   <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Characteristic</t>
-  </si>
-  <si>
-    <t>Verify_that_Export_options_are_available_for_the_User_in_Characteristic</t>
-  </si>
-  <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Characteristic_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>Verify_edit_option_is_not_available_when_clicked_on_the_Hamburger_icon_in_the_Characteritics_page</t>
+  </si>
+  <si>
+    <t>TC_092</t>
+  </si>
+  <si>
+    <t>Classifications_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Classifications</t>
+  </si>
+  <si>
+    <t>TC_093</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Classifications_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>TC_094</t>
+  </si>
+  <si>
+    <t>Elements_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Elements</t>
+  </si>
+  <si>
+    <t>TC_095</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Elements_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>TC_096</t>
+  </si>
+  <si>
+    <t>Verify_that_Export_options_are_available_for_the_User_in_Elements</t>
+  </si>
+  <si>
+    <t>TC_097</t>
+  </si>
+  <si>
+    <t>Verify_if_user_is_not_able_to_edit_elemsnt_details_page_when_hovered_next_to_element_step_name</t>
+  </si>
+  <si>
+    <t>TC_098</t>
+  </si>
+  <si>
+    <t>Verify_that_select_multiple_Elements_checkbox_is_unavailable_in_Elements</t>
+  </si>
+  <si>
+    <t>TC_099</t>
+  </si>
+  <si>
+    <t>Verify_if_user_is_able_to_download_Element_Report_when_clicked_on_the_Element_Report_button_in_element_details_page</t>
+  </si>
+  <si>
+    <t>TC_100</t>
+  </si>
+  <si>
+    <t>Verify_if_user_is_not_able_to_edit_element_details_page_when_hovered_next_to_element_step_name</t>
+  </si>
+  <si>
+    <t>TC_101</t>
+  </si>
+  <si>
+    <t>Verify_if_user_is_unable_to_access_more_options_menu_the_element_steps_page_in_the_element_details_page</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>Verify_if_the_user_is_unable_to_access_Simo_toggle_in_the_element_step_details</t>
+  </si>
+  <si>
+    <t>TC_103</t>
+  </si>
+  <si>
+    <t>Verify_if_user_does_not_have_access_to_edit_element_step_details_when_clicked_on_the_View_button_next_to_the_title_of_the_element_step</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>Verify_that_if_select_checkboxes_are_available_for_multi_select_in_Element_Details_Page</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>Activity_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Activity</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Activity_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>Attribute_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>Verify_if_user_when_clicked_on_upper_right_corner_with_export_icon_following_options_displayed_Export_Attributes_Download_Attribute_Import_Template_Download_All_Locations_Attributes_Import_Template</t>
+  </si>
+  <si>
+    <t>Verify_if_user_clicked_on_Export_Attributes_a_popup_with_textbox_for_name_of_file_to_user</t>
+  </si>
+  <si>
+    <t>Verify_if_user_can_download_import_template_when_clicked_on_Download_Attribute_Import_Template</t>
+  </si>
+  <si>
+    <t>Verify_if_user_can_download_locations_attributes_template_when_clicked_on_Download_Locations_Attribute_Import_Template</t>
+  </si>
+  <si>
+    <t>Verify_edit_option_is_invisible_aside_of_the_attributes_name_in_the_Attributes_listing</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_UOM</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>ElementsUOM_ViewOnly.feature</t>
   </si>
 </sst>
 </file>
@@ -1121,17 +1268,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.54296875" customWidth="1"/>
     <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="100.1796875" customWidth="1"/>
+    <col min="3" max="3" width="120.1796875" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" customWidth="1"/>
     <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
@@ -2296,169 +2443,169 @@
       <c r="A69" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="5" t="s">
+      <c r="B69" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="5" t="s">
+      <c r="C70" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B71" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="5" t="s">
+      <c r="B71" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="5" t="s">
+      <c r="D73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="5" t="s">
+      <c r="B74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C75" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="5" t="s">
+      <c r="C75" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="5" t="s">
+      <c r="D78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2466,33 +2613,31 @@
       <c r="A79" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="5" t="s">
+      <c r="D79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="5" t="s">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2500,209 +2645,525 @@
       <c r="A81" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="5" t="s">
+      <c r="C81" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B82" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="5" t="s">
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="5" t="s">
+      <c r="C83" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C85" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="5" t="s">
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="5" t="s">
+      <c r="C86" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C88" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="5" t="s">
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="5" t="s">
+      <c r="C89" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C92" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="5" t="s">
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
-        <v>32</v>
+      <c r="A93" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (2)\LaborPro.Automation\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (5)\LaborPro.Automation\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084866F-6FB1-4DF7-A194-F596202BD64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF8E38-F080-45C3-94BC-FC8D5FC7CC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="282">
   <si>
     <t>ID</t>
   </si>
@@ -796,6 +796,81 @@
   </si>
   <si>
     <t>ElementsUOM_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>TaskGroups_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>Tasks_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>LaborDrivers_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>Verify_that_export_options_are_available_for_the_user</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_is_not_available_also_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>LaborCategories.feature</t>
+  </si>
+  <si>
+    <t>Verify_that_export_options_are_not_available</t>
+  </si>
+  <si>
+    <t>Verify_that_delete_buttons_are_not_available_when_clicked_on_any_record_Also_LaborCategories_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>JobClasses.feature</t>
+  </si>
+  <si>
+    <t>Verify_that_delete_buttons_are_not_available_when_clicked_on_any_record_Also_JobClasses_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>TC_129</t>
   </si>
 </sst>
 </file>
@@ -1268,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3166,6 +3241,231 @@
         <v>8</v>
       </c>
     </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (2)\LaborPro.Automation\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (3)\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084866F-6FB1-4DF7-A194-F596202BD64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27393B5B-2B7B-41CB-9BFB-6D4D78ADAA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="330">
   <si>
     <t>ID</t>
   </si>
@@ -654,7 +654,7 @@
     <t>TC_092</t>
   </si>
   <si>
-    <t>Classifications_ViewOnly.feature</t>
+    <t>Classifications.feature</t>
   </si>
   <si>
     <t>Verify_that_User_should_not_have_access_for_Add_button_in_Classifications</t>
@@ -669,90 +669,75 @@
     <t>TC_094</t>
   </si>
   <si>
-    <t>Elements_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Elements</t>
+    <t>Activity.feature</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Activity</t>
   </si>
   <si>
     <t>TC_095</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Elements_details_must_not_be_editable</t>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Activity_details_must_not_be_editable</t>
   </si>
   <si>
     <t>TC_096</t>
   </si>
   <si>
-    <t>Verify_that_Export_options_are_available_for_the_User_in_Elements</t>
+    <t>Attribute_ViewOnly.feature</t>
   </si>
   <si>
     <t>TC_097</t>
   </si>
   <si>
-    <t>Verify_if_user_is_not_able_to_edit_elemsnt_details_page_when_hovered_next_to_element_step_name</t>
+    <t>Verify_if_user_when_clicked_on_upper_right_corner_with_export_icon_following_options_displayed_Export_Attributes_Download_Attribute_Import_Template_Download_All_Locations_Attributes_Import_Template</t>
   </si>
   <si>
     <t>TC_098</t>
   </si>
   <si>
-    <t>Verify_that_select_multiple_Elements_checkbox_is_unavailable_in_Elements</t>
+    <t>Verify_if_user_clicked_on_Export_Attributes_a_popup_with_textbox_for_name_of_file_to_user</t>
   </si>
   <si>
     <t>TC_099</t>
   </si>
   <si>
-    <t>Verify_if_user_is_able_to_download_Element_Report_when_clicked_on_the_Element_Report_button_in_element_details_page</t>
+    <t>Verify_if_user_can_download_import_template_when_clicked_on_Download_Attribute_Import_Template</t>
   </si>
   <si>
     <t>TC_100</t>
   </si>
   <si>
-    <t>Verify_if_user_is_not_able_to_edit_element_details_page_when_hovered_next_to_element_step_name</t>
+    <t>Verify_if_user_can_download_locations_attributes_template_when_clicked_on_Download_Locations_Attribute_Import_Template</t>
   </si>
   <si>
     <t>TC_101</t>
   </si>
   <si>
-    <t>Verify_if_user_is_unable_to_access_more_options_menu_the_element_steps_page_in_the_element_details_page</t>
+    <t>Verify_edit_option_should_be_invisible</t>
   </si>
   <si>
     <t>TC_102</t>
   </si>
   <si>
-    <t>Verify_if_the_user_is_unable_to_access_Simo_toggle_in_the_element_step_details</t>
-  </si>
-  <si>
     <t>TC_103</t>
   </si>
   <si>
-    <t>Verify_if_user_does_not_have_access_to_edit_element_step_details_when_clicked_on_the_View_button_next_to_the_title_of_the_element_step</t>
-  </si>
-  <si>
     <t>TC_104</t>
   </si>
   <si>
-    <t>Verify_that_if_select_checkboxes_are_available_for_multi_select_in_Element_Details_Page</t>
+    <t>ElementsUOM.feature</t>
+  </si>
+  <si>
+    <t>Elements.feature</t>
   </si>
   <si>
     <t>TC_105</t>
   </si>
   <si>
-    <t>Activity_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Activity</t>
-  </si>
-  <si>
     <t>TC_106</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Activity_details_must_not_be_editable</t>
-  </si>
-  <si>
-    <t>Attribute_ViewOnly.feature</t>
-  </si>
-  <si>
     <t>TC_107</t>
   </si>
   <si>
@@ -771,38 +756,272 @@
     <t>TC_112</t>
   </si>
   <si>
-    <t>Verify_if_user_when_clicked_on_upper_right_corner_with_export_icon_following_options_displayed_Export_Attributes_Download_Attribute_Import_Template_Download_All_Locations_Attributes_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_if_user_clicked_on_Export_Attributes_a_popup_with_textbox_for_name_of_file_to_user</t>
-  </si>
-  <si>
-    <t>Verify_if_user_can_download_import_template_when_clicked_on_Download_Attribute_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_if_user_can_download_locations_attributes_template_when_clicked_on_Download_Locations_Attribute_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_edit_option_is_invisible_aside_of_the_attributes_name_in_the_Attributes_listing</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_UOM</t>
-  </si>
-  <si>
     <t>TC_113</t>
   </si>
   <si>
     <t>TC_114</t>
   </si>
   <si>
-    <t>ElementsUOM_ViewOnly.feature</t>
+    <t>Verify_edit_element_details_page_is_not_editable</t>
+  </si>
+  <si>
+    <t>Verify_edit_element_step_details_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify_more_options_menu_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify_export_options_is_available</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_element_report</t>
+  </si>
+  <si>
+    <t>Verify_simo_toggle_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify_select_checkboxes_are_not_available_for_multi_select</t>
+  </si>
+  <si>
+    <t>Verify_select_multiple_elements_checkbox_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>LaborDrivers_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>Tasks_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>TaskGroups_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>Verify_export_options_are_available</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>LaborPeriods_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>JobClasses.feature</t>
+  </si>
+  <si>
+    <t>Verify_export_options_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>LaborCategories.feature</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>Standard_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>Verify_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_is_available</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available_for_standard_element</t>
+  </si>
+  <si>
+    <t>Verify_add_option_is_not_available_for_standard_group</t>
+  </si>
+  <si>
+    <t>Verify_tick_option_in_existing_standard_element_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <t>TC_143</t>
+  </si>
+  <si>
+    <t>TC_144</t>
+  </si>
+  <si>
+    <t>TC_145</t>
+  </si>
+  <si>
+    <t>TC_146</t>
+  </si>
+  <si>
+    <t>TC_147</t>
+  </si>
+  <si>
+    <t>TC_148</t>
+  </si>
+  <si>
+    <t>TC_149</t>
+  </si>
+  <si>
+    <t>LocationMapping_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>VolumeDriverMapping_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>Verify_save_button_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify_details_are_not_editable</t>
+  </si>
+  <si>
+    <t>TC_150</t>
+  </si>
+  <si>
+    <t>TC_151</t>
+  </si>
+  <si>
+    <t>TC_152</t>
+  </si>
+  <si>
+    <t>TC_153</t>
+  </si>
+  <si>
+    <t>TC_154</t>
+  </si>
+  <si>
+    <t>TC_155</t>
+  </si>
+  <si>
+    <t>Locations_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
+    <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
+  </si>
+  <si>
+    <t>Allowance_ViewOnly.feature</t>
+  </si>
+  <si>
+    <t>Verify_copy_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_156</t>
+  </si>
+  <si>
+    <t>TC_157</t>
+  </si>
+  <si>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>TC_159</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_allowance_report</t>
+  </si>
+  <si>
+    <t>Rest.feature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -832,6 +1051,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -852,7 +1077,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -875,23 +1100,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -982,44 +1223,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1069,9 +1310,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1127,160 +1368,185 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="120.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
+    <col min="3" max="3" width="196.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="1015" max="1024" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2852,122 +3118,122 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5" t="s">
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5" t="s">
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5" t="s">
+      <c r="C97" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C98" s="5" t="s">
+      <c r="B98" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5" t="s">
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5" t="s">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C100" s="5" t="s">
+      <c r="B100" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5" t="s">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5" t="s">
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C102" s="5" t="s">
+      <c r="B102" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5" t="s">
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2976,10 +3242,10 @@
         <v>230</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
@@ -2988,13 +3254,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
@@ -3003,172 +3269,867 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5" t="s">
+      <c r="C105" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B112" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="B112" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5" t="s">
+      <c r="D112" s="6"/>
+      <c r="E112" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B116" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5" t="s">
+      <c r="B117" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E162" s="8" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (2)\LaborPro.Automation\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (15)\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084866F-6FB1-4DF7-A194-F596202BD64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE2633-7C7D-408C-9838-8A45C122798A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="331">
   <si>
     <t>ID</t>
   </si>
@@ -45,7 +45,7 @@
     <t>TC_001</t>
   </si>
   <si>
-    <t>allowances.feature</t>
+    <t>Verify Allowances Module</t>
   </si>
   <si>
     <t>verify_add_allowance_name_empty_tag</t>
@@ -99,7 +99,7 @@
     <t>TC_009</t>
   </si>
   <si>
-    <t>locations.feature</t>
+    <t>Verify Locations Module</t>
   </si>
   <si>
     <t>verify_add_location_when_enter_blank_details</t>
@@ -123,9 +123,6 @@
     <t>verify_edit_location_blank_Details</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>TC_013</t>
   </si>
   <si>
@@ -147,7 +144,7 @@
     <t>TC_016</t>
   </si>
   <si>
-    <t>Standards.feature</t>
+    <t>Verify Standards Module</t>
   </si>
   <si>
     <t>verify_add_new_standards_name_is_required</t>
@@ -210,7 +207,7 @@
     <t>TC_026</t>
   </si>
   <si>
-    <t>Attribute.feature</t>
+    <t>Verify Attribute Module</t>
   </si>
   <si>
     <t>verify_that_new_department_is_available_in_department_dropdown</t>
@@ -237,7 +234,7 @@
     <t>TC_030</t>
   </si>
   <si>
-    <t>Department.feature</t>
+    <t>Verify Departments Module</t>
   </si>
   <si>
     <t>verify_add_Department_when_enter_blank_details</t>
@@ -258,7 +255,7 @@
     <t>TC_033</t>
   </si>
   <si>
-    <t>UnitOfMeasure.feature</t>
+    <t>Verify UnitOfMeasure Module</t>
   </si>
   <si>
     <t>verify_add_Units_Of_Measure_name_empty_tag</t>
@@ -285,7 +282,7 @@
     <t>TC_037</t>
   </si>
   <si>
-    <t>Characteristic.feature</t>
+    <t>Verify Characteristics Module</t>
   </si>
   <si>
     <t>verify_that_created_department_is_available_in_department_dropdown</t>
@@ -336,7 +333,7 @@
     <t>TC_045</t>
   </si>
   <si>
-    <t>VolumeDriver.feature</t>
+    <t>Verify VolumeDrivers Module</t>
   </si>
   <si>
     <t>verify_add_VolumeDriver_when_enter_blank_details</t>
@@ -363,7 +360,7 @@
     <t>TC_049</t>
   </si>
   <si>
-    <t>VolumeDriverMapping.feature</t>
+    <t>Verify VolumeDriverMapping Module</t>
   </si>
   <si>
     <t>verify_that_new_created_department_is_available_in_department_dropdown</t>
@@ -396,7 +393,7 @@
     <t>TC_054</t>
   </si>
   <si>
-    <t>LocationMapping.feature</t>
+    <t>Verify LocationMapping Module</t>
   </si>
   <si>
     <t>verify_that_create_Department_is_available_in_department_dropdown</t>
@@ -423,7 +420,7 @@
     <t>TC_058</t>
   </si>
   <si>
-    <t>VolumeDriverValue.feature</t>
+    <t>Verify VolumeDriverValue Module</t>
   </si>
   <si>
     <t>verify_volume_driver_value_scenario_and_standardsuombylocation_scenarios</t>
@@ -432,7 +429,7 @@
     <t>TC_059</t>
   </si>
   <si>
-    <t>LaborDrivers.feature</t>
+    <t>Verify LaborDrivers Module</t>
   </si>
   <si>
     <t>Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
@@ -447,9 +444,6 @@
     <t>TC_061</t>
   </si>
   <si>
-    <t>verify_add_LaborDrivers_when_enter_correct_details</t>
-  </si>
-  <si>
     <t>TC_062</t>
   </si>
   <si>
@@ -459,7 +453,7 @@
     <t>TC_063</t>
   </si>
   <si>
-    <t>TaskGroups.feature</t>
+    <t>Verify TaskGroups Module</t>
   </si>
   <si>
     <t>Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
@@ -492,7 +486,7 @@
     <t>TC_068</t>
   </si>
   <si>
-    <t>Tasks.feature</t>
+    <t>Verify Tasks Module</t>
   </si>
   <si>
     <t>Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
@@ -525,7 +519,7 @@
     <t>TC_073</t>
   </si>
   <si>
-    <t>LaborPeriods.feature</t>
+    <t>Verify LaborPeriods Module</t>
   </si>
   <si>
     <t>Verify_that_click_on_New_Labor_Period</t>
@@ -564,7 +558,7 @@
     <t>TC_079</t>
   </si>
   <si>
-    <t>UnitOfMeasure_ViewOnly.feature</t>
+    <t>Verify UnitOfMeasure_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_user_should_not_have_access_for_Add_button</t>
@@ -585,7 +579,7 @@
     <t>TC_082</t>
   </si>
   <si>
-    <t>VolumeDriver_ViewOnly.feature</t>
+    <t>Verify VolumeDriver_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_user_should_not_have_access_for_add_button</t>
@@ -606,7 +600,7 @@
     <t>TC_085</t>
   </si>
   <si>
-    <t>Department_ViewOnly.feature</t>
+    <t>Verify Department_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_User_should_not_have_access_for_Add_button</t>
@@ -627,7 +621,7 @@
     <t>TC_088</t>
   </si>
   <si>
-    <t>Characteristic_ViewOnly.feature</t>
+    <t>Verify Characteristic_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_User_should_not_have_access_for_Add_button_in_Characteristic</t>
@@ -654,7 +648,7 @@
     <t>TC_092</t>
   </si>
   <si>
-    <t>Classifications_ViewOnly.feature</t>
+    <t>Verify Classifications_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_User_should_not_have_access_for_Add_button_in_Classifications</t>
@@ -669,124 +663,121 @@
     <t>TC_094</t>
   </si>
   <si>
-    <t>Elements_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Elements</t>
+    <t>Verify Activity_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Activity</t>
   </si>
   <si>
     <t>TC_095</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Elements_details_must_not_be_editable</t>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Activity_details_must_not_be_editable</t>
   </si>
   <si>
     <t>TC_096</t>
   </si>
   <si>
-    <t>Verify_that_Export_options_are_available_for_the_User_in_Elements</t>
+    <t>Verify Attribute_ViewOnly Module</t>
   </si>
   <si>
     <t>TC_097</t>
   </si>
   <si>
-    <t>Verify_if_user_is_not_able_to_edit_elemsnt_details_page_when_hovered_next_to_element_step_name</t>
+    <t>Verify_if_user_when_clicked_on_upper_right_corner_with_export_icon_following_options_displayed_Export_Attributes_Download_Attribute_Import_Template_Download_All_Locations_Attributes_Import_Template</t>
   </si>
   <si>
     <t>TC_098</t>
   </si>
   <si>
-    <t>Verify_that_select_multiple_Elements_checkbox_is_unavailable_in_Elements</t>
+    <t>Verify_if_user_clicked_on_Export_Attributes_a_popup_with_textbox_for_name_of_file_to_user</t>
   </si>
   <si>
     <t>TC_099</t>
   </si>
   <si>
-    <t>Verify_if_user_is_able_to_download_Element_Report_when_clicked_on_the_Element_Report_button_in_element_details_page</t>
+    <t>Verify_if_user_can_download_import_template_when_clicked_on_Download_Attribute_Import_Template</t>
   </si>
   <si>
     <t>TC_100</t>
   </si>
   <si>
-    <t>Verify_if_user_is_not_able_to_edit_element_details_page_when_hovered_next_to_element_step_name</t>
+    <t>Verify_if_user_can_download_locations_attributes_template_when_clicked_on_Download_Locations_Attribute_Import_Template</t>
   </si>
   <si>
     <t>TC_101</t>
   </si>
   <si>
-    <t>Verify_if_user_is_unable_to_access_more_options_menu_the_element_steps_page_in_the_element_details_page</t>
+    <t>Verify_edit_option_should_be_invisible</t>
   </si>
   <si>
     <t>TC_102</t>
   </si>
   <si>
-    <t>Verify_if_the_user_is_unable_to_access_Simo_toggle_in_the_element_step_details</t>
+    <t>Verify ElementsUoM_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available</t>
   </si>
   <si>
     <t>TC_103</t>
   </si>
   <si>
-    <t>Verify_if_user_does_not_have_access_to_edit_element_step_details_when_clicked_on_the_View_button_next_to_the_title_of_the_element_step</t>
+    <t>Verify_delete_button_is_not_available</t>
   </si>
   <si>
     <t>TC_104</t>
   </si>
   <si>
-    <t>Verify_that_if_select_checkboxes_are_available_for_multi_select_in_Element_Details_Page</t>
+    <t>Verify Elements_ViewOnly Module</t>
   </si>
   <si>
     <t>TC_105</t>
   </si>
   <si>
-    <t>Activity_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Activity</t>
+    <t>Verify_select_checkboxes_are_not_available_for_multi_select</t>
   </si>
   <si>
     <t>TC_106</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Activity_details_must_not_be_editable</t>
-  </si>
-  <si>
-    <t>Attribute_ViewOnly.feature</t>
+    <t>Verify_export_options_is_available</t>
   </si>
   <si>
     <t>TC_107</t>
   </si>
   <si>
+    <t>Verify_user_is_able_to_download_element_report</t>
+  </si>
+  <si>
     <t>TC_108</t>
   </si>
   <si>
+    <t>Verify_select_multiple_elements_checkbox_is_not_available</t>
+  </si>
+  <si>
     <t>TC_109</t>
   </si>
   <si>
+    <t>Verify_edit_element_details_page_is_not_editable</t>
+  </si>
+  <si>
     <t>TC_110</t>
   </si>
   <si>
+    <t>Verify_more_options_menu_is_not_available</t>
+  </si>
+  <si>
     <t>TC_111</t>
   </si>
   <si>
+    <t>Verify_simo_toggle_is_not_available</t>
+  </si>
+  <si>
     <t>TC_112</t>
   </si>
   <si>
-    <t>Verify_if_user_when_clicked_on_upper_right_corner_with_export_icon_following_options_displayed_Export_Attributes_Download_Attribute_Import_Template_Download_All_Locations_Attributes_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_if_user_clicked_on_Export_Attributes_a_popup_with_textbox_for_name_of_file_to_user</t>
-  </si>
-  <si>
-    <t>Verify_if_user_can_download_import_template_when_clicked_on_Download_Attribute_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_if_user_can_download_locations_attributes_template_when_clicked_on_Download_Locations_Attribute_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_edit_option_is_invisible_aside_of_the_attributes_name_in_the_Attributes_listing</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_UOM</t>
+    <t>Verify_edit_element_step_details_is_not_available</t>
   </si>
   <si>
     <t>TC_113</t>
@@ -795,14 +786,245 @@
     <t>TC_114</t>
   </si>
   <si>
-    <t>ElementsUOM_ViewOnly.feature</t>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>Verify LaborDrivers_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>Verify Tasks_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>Verify_export_options_are_available</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>Verify TaskGroups_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>Verify LaborPeriods_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>Verify JobClasses_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>Verify_export_options_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>Verify LaborCategories_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>Verify_save_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>Verify_details_are_not_editable</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>Verify Standard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>Verify_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available_for_standard_element</t>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <t>Verify_add_option_is_not_available_for_standard_group</t>
+  </si>
+  <si>
+    <t>TC_143</t>
+  </si>
+  <si>
+    <t>Verify_tick_option_in_existing_standard_element_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_144</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_145</t>
+  </si>
+  <si>
+    <t>Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_146</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_147</t>
+  </si>
+  <si>
+    <t>TC_148</t>
+  </si>
+  <si>
+    <t>TC_149</t>
+  </si>
+  <si>
+    <t>TC_150</t>
+  </si>
+  <si>
+    <t>TC_151</t>
+  </si>
+  <si>
+    <t>TC_152</t>
+  </si>
+  <si>
+    <t>TC_153</t>
+  </si>
+  <si>
+    <t>TC_154</t>
+  </si>
+  <si>
+    <t>TC_155</t>
+  </si>
+  <si>
+    <t>TC_156</t>
+  </si>
+  <si>
+    <t>TC_157</t>
+  </si>
+  <si>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>TC_159</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t>TC_161</t>
+  </si>
+  <si>
+    <t>TC_162</t>
+  </si>
+  <si>
+    <t>Verify Locations_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
+    <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify Allowance_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_allowance_report</t>
+  </si>
+  <si>
+    <t>Verify_copy_option_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify Rest_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverValue_ViewOnly Module</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -826,16 +1048,39 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -879,13 +1124,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,1613 +1538,1614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="120.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1"/>
+    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="B57" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B65" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="B65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="B70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="D74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="B75" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="D75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B77" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+      <c r="D77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B78" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="D78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
+      <c r="D80" s="5"/>
+      <c r="E80" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B82" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3" t="s">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="B85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3" t="s">
+      <c r="D86" s="5"/>
+      <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="B88" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3" t="s">
+      <c r="D88" s="5"/>
+      <c r="E88" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3" t="s">
+      <c r="D89" s="5"/>
+      <c r="E89" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B91" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
+      <c r="D91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="B92" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3" t="s">
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="B94" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B96" s="5" t="s">
+    <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
         <v>214</v>
       </c>
+      <c r="B96" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="C96" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
@@ -2882,29 +3153,29 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>214</v>
+      <c r="A97" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>214</v>
+    <row r="98" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
@@ -2912,44 +3183,44 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>214</v>
+      <c r="A99" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>214</v>
+    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>214</v>
+    <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
@@ -2957,14 +3228,14 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>214</v>
+      <c r="A102" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
@@ -2972,14 +3243,14 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
@@ -2987,14 +3258,14 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
@@ -3002,14 +3273,14 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="C105" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
@@ -3017,14 +3288,14 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
@@ -3032,14 +3303,14 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B107" s="5" t="s">
+      <c r="A107" s="3" t="s">
         <v>237</v>
       </c>
+      <c r="B107" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="C107" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
@@ -3047,14 +3318,14 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>241</v>
+      <c r="A108" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
@@ -3062,14 +3333,14 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B109" s="5" t="s">
+      <c r="A109" s="3" t="s">
         <v>241</v>
       </c>
+      <c r="B109" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="C109" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
@@ -3077,14 +3348,14 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
@@ -3092,14 +3363,14 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>241</v>
+      <c r="B111" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
@@ -3107,14 +3378,14 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>241</v>
+      <c r="A112" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
@@ -3122,14 +3393,14 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>241</v>
+      <c r="A113" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
@@ -3137,14 +3408,14 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>256</v>
+      <c r="A114" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
@@ -3152,23 +3423,747 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>256</v>
+      <c r="A115" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (2)\LaborPro.Automation\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (3)\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084866F-6FB1-4DF7-A194-F596202BD64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE955A19-26C9-4279-AA9C-CA7EEEB8C933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="326">
   <si>
     <t>ID</t>
   </si>
@@ -45,7 +45,7 @@
     <t>TC_001</t>
   </si>
   <si>
-    <t>allowances.feature</t>
+    <t>Verify Allowances Module</t>
   </si>
   <si>
     <t>verify_add_allowance_name_empty_tag</t>
@@ -99,7 +99,7 @@
     <t>TC_009</t>
   </si>
   <si>
-    <t>locations.feature</t>
+    <t>Verify Locations Module</t>
   </si>
   <si>
     <t>verify_add_location_when_enter_blank_details</t>
@@ -123,9 +123,6 @@
     <t>verify_edit_location_blank_Details</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>TC_013</t>
   </si>
   <si>
@@ -147,7 +144,7 @@
     <t>TC_016</t>
   </si>
   <si>
-    <t>Standards.feature</t>
+    <t>Verify Standards Module</t>
   </si>
   <si>
     <t>verify_add_new_standards_name_is_required</t>
@@ -210,7 +207,7 @@
     <t>TC_026</t>
   </si>
   <si>
-    <t>Attribute.feature</t>
+    <t>Verify Attribute Module</t>
   </si>
   <si>
     <t>verify_that_new_department_is_available_in_department_dropdown</t>
@@ -237,7 +234,7 @@
     <t>TC_030</t>
   </si>
   <si>
-    <t>Department.feature</t>
+    <t>Verify Departments Module</t>
   </si>
   <si>
     <t>verify_add_Department_when_enter_blank_details</t>
@@ -258,7 +255,7 @@
     <t>TC_033</t>
   </si>
   <si>
-    <t>UnitOfMeasure.feature</t>
+    <t>Verify UnitOfMeasure Module</t>
   </si>
   <si>
     <t>verify_add_Units_Of_Measure_name_empty_tag</t>
@@ -285,7 +282,7 @@
     <t>TC_037</t>
   </si>
   <si>
-    <t>Characteristic.feature</t>
+    <t>Verify Characteristics Module</t>
   </si>
   <si>
     <t>verify_that_created_department_is_available_in_department_dropdown</t>
@@ -336,7 +333,7 @@
     <t>TC_045</t>
   </si>
   <si>
-    <t>VolumeDriver.feature</t>
+    <t>Verify VolumeDrivers Module</t>
   </si>
   <si>
     <t>verify_add_VolumeDriver_when_enter_blank_details</t>
@@ -363,7 +360,7 @@
     <t>TC_049</t>
   </si>
   <si>
-    <t>VolumeDriverMapping.feature</t>
+    <t>Verify VolumeDriverMapping Module</t>
   </si>
   <si>
     <t>verify_that_new_created_department_is_available_in_department_dropdown</t>
@@ -396,7 +393,7 @@
     <t>TC_054</t>
   </si>
   <si>
-    <t>LocationMapping.feature</t>
+    <t>Verify LocationMapping Module</t>
   </si>
   <si>
     <t>verify_that_create_Department_is_available_in_department_dropdown</t>
@@ -423,7 +420,7 @@
     <t>TC_058</t>
   </si>
   <si>
-    <t>VolumeDriverValue.feature</t>
+    <t>Verify VolumeDriverValue Module</t>
   </si>
   <si>
     <t>verify_volume_driver_value_scenario_and_standardsuombylocation_scenarios</t>
@@ -432,7 +429,7 @@
     <t>TC_059</t>
   </si>
   <si>
-    <t>LaborDrivers.feature</t>
+    <t>Verify LaborDrivers Module</t>
   </si>
   <si>
     <t>Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
@@ -447,9 +444,6 @@
     <t>TC_061</t>
   </si>
   <si>
-    <t>verify_add_LaborDrivers_when_enter_correct_details</t>
-  </si>
-  <si>
     <t>TC_062</t>
   </si>
   <si>
@@ -459,7 +453,7 @@
     <t>TC_063</t>
   </si>
   <si>
-    <t>TaskGroups.feature</t>
+    <t>Verify TaskGroups Module</t>
   </si>
   <si>
     <t>Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
@@ -492,7 +486,7 @@
     <t>TC_068</t>
   </si>
   <si>
-    <t>Tasks.feature</t>
+    <t>Verify Tasks Module</t>
   </si>
   <si>
     <t>Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
@@ -525,7 +519,7 @@
     <t>TC_073</t>
   </si>
   <si>
-    <t>LaborPeriods.feature</t>
+    <t>Verify LaborPeriods Module</t>
   </si>
   <si>
     <t>Verify_that_click_on_New_Labor_Period</t>
@@ -564,7 +558,7 @@
     <t>TC_079</t>
   </si>
   <si>
-    <t>UnitOfMeasure_ViewOnly.feature</t>
+    <t>Verify UnitOfMeasure_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_user_should_not_have_access_for_Add_button</t>
@@ -585,49 +579,31 @@
     <t>TC_082</t>
   </si>
   <si>
-    <t>VolumeDriver_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_user_should_not_have_access_for_add_button</t>
+    <t>Verify VolumeDriver_ViewOnly Module</t>
   </si>
   <si>
     <t>TC_083</t>
   </si>
   <si>
-    <t>Verify_that_export_options_are_not_available_for_the_User</t>
-  </si>
-  <si>
     <t>TC_084</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_VolumeDriver_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>TC_085</t>
   </si>
   <si>
-    <t>Department_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button</t>
+    <t>Verify Department_ViewOnly Module</t>
   </si>
   <si>
     <t>TC_086</t>
   </si>
   <si>
-    <t>Verify_that_Export_options_are_not_available_for_the_User</t>
-  </si>
-  <si>
     <t>TC_087</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Department_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>TC_088</t>
   </si>
   <si>
-    <t>Characteristic_ViewOnly.feature</t>
+    <t>Verify Characteristic_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_User_should_not_have_access_for_Add_button_in_Characteristic</t>
@@ -654,7 +630,7 @@
     <t>TC_092</t>
   </si>
   <si>
-    <t>Classifications_ViewOnly.feature</t>
+    <t>Verify Classifications_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_User_should_not_have_access_for_Add_button_in_Classifications</t>
@@ -669,124 +645,121 @@
     <t>TC_094</t>
   </si>
   <si>
-    <t>Elements_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Elements</t>
+    <t>Verify Activity_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Activity</t>
   </si>
   <si>
     <t>TC_095</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Elements_details_must_not_be_editable</t>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Activity_details_must_not_be_editable</t>
   </si>
   <si>
     <t>TC_096</t>
   </si>
   <si>
-    <t>Verify_that_Export_options_are_available_for_the_User_in_Elements</t>
+    <t>Verify Attribute_ViewOnly Module</t>
   </si>
   <si>
     <t>TC_097</t>
   </si>
   <si>
-    <t>Verify_if_user_is_not_able_to_edit_elemsnt_details_page_when_hovered_next_to_element_step_name</t>
+    <t>Verify_if_user_when_clicked_on_upper_right_corner_with_export_icon_following_options_displayed_Export_Attributes_Download_Attribute_Import_Template_Download_All_Locations_Attributes_Import_Template</t>
   </si>
   <si>
     <t>TC_098</t>
   </si>
   <si>
-    <t>Verify_that_select_multiple_Elements_checkbox_is_unavailable_in_Elements</t>
+    <t>Verify_if_user_clicked_on_Export_Attributes_a_popup_with_textbox_for_name_of_file_to_user</t>
   </si>
   <si>
     <t>TC_099</t>
   </si>
   <si>
-    <t>Verify_if_user_is_able_to_download_Element_Report_when_clicked_on_the_Element_Report_button_in_element_details_page</t>
+    <t>Verify_if_user_can_download_import_template_when_clicked_on_Download_Attribute_Import_Template</t>
   </si>
   <si>
     <t>TC_100</t>
   </si>
   <si>
-    <t>Verify_if_user_is_not_able_to_edit_element_details_page_when_hovered_next_to_element_step_name</t>
+    <t>Verify_if_user_can_download_locations_attributes_template_when_clicked_on_Download_Locations_Attribute_Import_Template</t>
   </si>
   <si>
     <t>TC_101</t>
   </si>
   <si>
-    <t>Verify_if_user_is_unable_to_access_more_options_menu_the_element_steps_page_in_the_element_details_page</t>
+    <t>Verify_edit_option_should_be_invisible</t>
   </si>
   <si>
     <t>TC_102</t>
   </si>
   <si>
-    <t>Verify_if_the_user_is_unable_to_access_Simo_toggle_in_the_element_step_details</t>
+    <t>Verify ElementsUoM_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available</t>
   </si>
   <si>
     <t>TC_103</t>
   </si>
   <si>
-    <t>Verify_if_user_does_not_have_access_to_edit_element_step_details_when_clicked_on_the_View_button_next_to_the_title_of_the_element_step</t>
+    <t>Verify_delete_button_is_not_available</t>
   </si>
   <si>
     <t>TC_104</t>
   </si>
   <si>
-    <t>Verify_that_if_select_checkboxes_are_available_for_multi_select_in_Element_Details_Page</t>
+    <t>Verify Elements_ViewOnly Module</t>
   </si>
   <si>
     <t>TC_105</t>
   </si>
   <si>
-    <t>Activity_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Activity</t>
+    <t>Verify_select_checkboxes_are_not_available_for_multi_select</t>
   </si>
   <si>
     <t>TC_106</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Activity_details_must_not_be_editable</t>
-  </si>
-  <si>
-    <t>Attribute_ViewOnly.feature</t>
+    <t>Verify_export_options_is_available</t>
   </si>
   <si>
     <t>TC_107</t>
   </si>
   <si>
+    <t>Verify_user_is_able_to_download_element_report</t>
+  </si>
+  <si>
     <t>TC_108</t>
   </si>
   <si>
+    <t>Verify_select_multiple_elements_checkbox_is_not_available</t>
+  </si>
+  <si>
     <t>TC_109</t>
   </si>
   <si>
+    <t>Verify_edit_element_details_page_is_not_editable</t>
+  </si>
+  <si>
     <t>TC_110</t>
   </si>
   <si>
+    <t>Verify_more_options_menu_is_not_available</t>
+  </si>
+  <si>
     <t>TC_111</t>
   </si>
   <si>
+    <t>Verify_simo_toggle_is_not_available</t>
+  </si>
+  <si>
     <t>TC_112</t>
   </si>
   <si>
-    <t>Verify_if_user_when_clicked_on_upper_right_corner_with_export_icon_following_options_displayed_Export_Attributes_Download_Attribute_Import_Template_Download_All_Locations_Attributes_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_if_user_clicked_on_Export_Attributes_a_popup_with_textbox_for_name_of_file_to_user</t>
-  </si>
-  <si>
-    <t>Verify_if_user_can_download_import_template_when_clicked_on_Download_Attribute_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_if_user_can_download_locations_attributes_template_when_clicked_on_Download_Locations_Attribute_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_edit_option_is_invisible_aside_of_the_attributes_name_in_the_Attributes_listing</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_UOM</t>
+    <t>Verify_edit_element_step_details_is_not_available</t>
   </si>
   <si>
     <t>TC_113</t>
@@ -795,14 +768,248 @@
     <t>TC_114</t>
   </si>
   <si>
-    <t>ElementsUOM_ViewOnly.feature</t>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>Verify LaborDrivers_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>Verify Tasks_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>Verify_export_options_are_available</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>Verify TaskGroups_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>Verify LaborPeriods_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>Verify JobClasses_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>Verify_export_options_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>Verify LaborCategories_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>Verify_save_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>Verify_details_are_not_editable</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>Verify Standard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>Verify_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available_for_standard_element</t>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <t>Verify_add_option_is_not_available_for_standard_group</t>
+  </si>
+  <si>
+    <t>TC_143</t>
+  </si>
+  <si>
+    <t>Verify_tick_option_in_existing_standard_element_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_144</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_145</t>
+  </si>
+  <si>
+    <t>Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_146</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_147</t>
+  </si>
+  <si>
+    <t>TC_148</t>
+  </si>
+  <si>
+    <t>TC_149</t>
+  </si>
+  <si>
+    <t>TC_150</t>
+  </si>
+  <si>
+    <t>TC_151</t>
+  </si>
+  <si>
+    <t>TC_152</t>
+  </si>
+  <si>
+    <t>TC_153</t>
+  </si>
+  <si>
+    <t>TC_154</t>
+  </si>
+  <si>
+    <t>TC_155</t>
+  </si>
+  <si>
+    <t>TC_156</t>
+  </si>
+  <si>
+    <t>TC_157</t>
+  </si>
+  <si>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>TC_159</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t>TC_161</t>
+  </si>
+  <si>
+    <t>TC_162</t>
+  </si>
+  <si>
+    <t>Verify Locations_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
+    <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify Allowance_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_allowance_report</t>
+  </si>
+  <si>
+    <t>Verify_copy_option_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify Rest_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverValue_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_not_available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -826,16 +1033,39 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -879,13 +1109,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,1613 +1523,1614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86:C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="120.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1"/>
+    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="B57" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B65" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="B65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="B70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="D74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="B75" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="D75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B77" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+      <c r="D77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B78" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="D78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
+      <c r="D80" s="5"/>
+      <c r="E80" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B82" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3" t="s">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B85" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
+      <c r="B85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>214</v>
+      <c r="A95" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>214</v>
+    <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
@@ -2882,29 +3138,29 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>214</v>
+      <c r="A97" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>214</v>
+    <row r="98" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
@@ -2912,44 +3168,44 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="3" t="s">
         <v>214</v>
       </c>
+      <c r="B99" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="C99" s="5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>214</v>
+    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>214</v>
+    <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
@@ -2957,14 +3213,14 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>214</v>
+      <c r="A102" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
@@ -2972,14 +3228,14 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>214</v>
+      <c r="A103" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
@@ -2987,14 +3243,14 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>214</v>
+      <c r="A104" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
@@ -3002,14 +3258,14 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>214</v>
+      <c r="A105" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
@@ -3017,14 +3273,14 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>237</v>
+      <c r="A106" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
@@ -3032,14 +3288,14 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>237</v>
+      <c r="A107" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
@@ -3047,14 +3303,14 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>241</v>
+      <c r="A108" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
@@ -3062,14 +3318,14 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>241</v>
+      <c r="A109" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
@@ -3077,14 +3333,14 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>241</v>
+      <c r="A110" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
@@ -3092,14 +3348,14 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>241</v>
+      <c r="A111" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
@@ -3107,14 +3363,14 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B112" s="5" t="s">
+      <c r="A112" s="3" t="s">
         <v>241</v>
       </c>
+      <c r="B112" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="C112" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
@@ -3122,14 +3378,14 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>241</v>
+      <c r="A113" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
@@ -3137,14 +3393,14 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>256</v>
+      <c r="A114" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
@@ -3152,23 +3408,747 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>256</v>
+      <c r="A115" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (2)\LaborPro.Automation\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (5)\laberpro\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084866F-6FB1-4DF7-A194-F596202BD64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F1A7D3-21B6-440A-A507-64EF3E3D7704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="329">
   <si>
     <t>ID</t>
   </si>
@@ -45,7 +45,7 @@
     <t>TC_001</t>
   </si>
   <si>
-    <t>allowances.feature</t>
+    <t>Verify Allowances Module</t>
   </si>
   <si>
     <t>verify_add_allowance_name_empty_tag</t>
@@ -99,7 +99,7 @@
     <t>TC_009</t>
   </si>
   <si>
-    <t>locations.feature</t>
+    <t>Verify Locations Module</t>
   </si>
   <si>
     <t>verify_add_location_when_enter_blank_details</t>
@@ -123,9 +123,6 @@
     <t>verify_edit_location_blank_Details</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>TC_013</t>
   </si>
   <si>
@@ -147,7 +144,7 @@
     <t>TC_016</t>
   </si>
   <si>
-    <t>Standards.feature</t>
+    <t>Verify Standards Module</t>
   </si>
   <si>
     <t>verify_add_new_standards_name_is_required</t>
@@ -210,7 +207,7 @@
     <t>TC_026</t>
   </si>
   <si>
-    <t>Attribute.feature</t>
+    <t>Verify Attribute Module</t>
   </si>
   <si>
     <t>verify_that_new_department_is_available_in_department_dropdown</t>
@@ -237,7 +234,7 @@
     <t>TC_030</t>
   </si>
   <si>
-    <t>Department.feature</t>
+    <t>Verify Departments Module</t>
   </si>
   <si>
     <t>verify_add_Department_when_enter_blank_details</t>
@@ -258,7 +255,7 @@
     <t>TC_033</t>
   </si>
   <si>
-    <t>UnitOfMeasure.feature</t>
+    <t>Verify UnitOfMeasure Module</t>
   </si>
   <si>
     <t>verify_add_Units_Of_Measure_name_empty_tag</t>
@@ -285,7 +282,7 @@
     <t>TC_037</t>
   </si>
   <si>
-    <t>Characteristic.feature</t>
+    <t>Verify Characteristics Module</t>
   </si>
   <si>
     <t>verify_that_created_department_is_available_in_department_dropdown</t>
@@ -336,7 +333,7 @@
     <t>TC_045</t>
   </si>
   <si>
-    <t>VolumeDriver.feature</t>
+    <t>Verify VolumeDrivers Module</t>
   </si>
   <si>
     <t>verify_add_VolumeDriver_when_enter_blank_details</t>
@@ -363,7 +360,7 @@
     <t>TC_049</t>
   </si>
   <si>
-    <t>VolumeDriverMapping.feature</t>
+    <t>Verify VolumeDriverMapping Module</t>
   </si>
   <si>
     <t>verify_that_new_created_department_is_available_in_department_dropdown</t>
@@ -396,7 +393,7 @@
     <t>TC_054</t>
   </si>
   <si>
-    <t>LocationMapping.feature</t>
+    <t>Verify LocationMapping Module</t>
   </si>
   <si>
     <t>verify_that_create_Department_is_available_in_department_dropdown</t>
@@ -423,7 +420,7 @@
     <t>TC_058</t>
   </si>
   <si>
-    <t>VolumeDriverValue.feature</t>
+    <t>Verify VolumeDriverValue Module</t>
   </si>
   <si>
     <t>verify_volume_driver_value_scenario_and_standardsuombylocation_scenarios</t>
@@ -432,7 +429,7 @@
     <t>TC_059</t>
   </si>
   <si>
-    <t>LaborDrivers.feature</t>
+    <t>Verify LaborDrivers Module</t>
   </si>
   <si>
     <t>Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
@@ -447,9 +444,6 @@
     <t>TC_061</t>
   </si>
   <si>
-    <t>verify_add_LaborDrivers_when_enter_correct_details</t>
-  </si>
-  <si>
     <t>TC_062</t>
   </si>
   <si>
@@ -459,7 +453,7 @@
     <t>TC_063</t>
   </si>
   <si>
-    <t>TaskGroups.feature</t>
+    <t>Verify TaskGroups Module</t>
   </si>
   <si>
     <t>Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
@@ -492,7 +486,7 @@
     <t>TC_068</t>
   </si>
   <si>
-    <t>Tasks.feature</t>
+    <t>Verify Tasks Module</t>
   </si>
   <si>
     <t>Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
@@ -525,7 +519,7 @@
     <t>TC_073</t>
   </si>
   <si>
-    <t>LaborPeriods.feature</t>
+    <t>Verify LaborPeriods Module</t>
   </si>
   <si>
     <t>Verify_that_click_on_New_Labor_Period</t>
@@ -564,7 +558,7 @@
     <t>TC_079</t>
   </si>
   <si>
-    <t>UnitOfMeasure_ViewOnly.feature</t>
+    <t>Verify UnitOfMeasure_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_user_should_not_have_access_for_Add_button</t>
@@ -585,28 +579,19 @@
     <t>TC_082</t>
   </si>
   <si>
-    <t>VolumeDriver_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_user_should_not_have_access_for_add_button</t>
+    <t>Verify VolumeDriver_ViewOnly Module</t>
   </si>
   <si>
     <t>TC_083</t>
   </si>
   <si>
-    <t>Verify_that_export_options_are_not_available_for_the_User</t>
-  </si>
-  <si>
     <t>TC_084</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_VolumeDriver_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>TC_085</t>
   </si>
   <si>
-    <t>Department_ViewOnly.feature</t>
+    <t>Verify Department_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_User_should_not_have_access_for_Add_button</t>
@@ -627,7 +612,7 @@
     <t>TC_088</t>
   </si>
   <si>
-    <t>Characteristic_ViewOnly.feature</t>
+    <t>Verify Characteristic_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_User_should_not_have_access_for_Add_button_in_Characteristic</t>
@@ -654,7 +639,7 @@
     <t>TC_092</t>
   </si>
   <si>
-    <t>Classifications_ViewOnly.feature</t>
+    <t>Verify Classifications_ViewOnly Module</t>
   </si>
   <si>
     <t>Verify_that_User_should_not_have_access_for_Add_button_in_Classifications</t>
@@ -669,124 +654,121 @@
     <t>TC_094</t>
   </si>
   <si>
-    <t>Elements_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Elements</t>
+    <t>Verify Activity_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Activity</t>
   </si>
   <si>
     <t>TC_095</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Elements_details_must_not_be_editable</t>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Activity_details_must_not_be_editable</t>
   </si>
   <si>
     <t>TC_096</t>
   </si>
   <si>
-    <t>Verify_that_Export_options_are_available_for_the_User_in_Elements</t>
+    <t>Verify Attribute_ViewOnly Module</t>
   </si>
   <si>
     <t>TC_097</t>
   </si>
   <si>
-    <t>Verify_if_user_is_not_able_to_edit_elemsnt_details_page_when_hovered_next_to_element_step_name</t>
+    <t>Verify_if_user_when_clicked_on_upper_right_corner_with_export_icon_following_options_displayed_Export_Attributes_Download_Attribute_Import_Template_Download_All_Locations_Attributes_Import_Template</t>
   </si>
   <si>
     <t>TC_098</t>
   </si>
   <si>
-    <t>Verify_that_select_multiple_Elements_checkbox_is_unavailable_in_Elements</t>
+    <t>Verify_if_user_clicked_on_Export_Attributes_a_popup_with_textbox_for_name_of_file_to_user</t>
   </si>
   <si>
     <t>TC_099</t>
   </si>
   <si>
-    <t>Verify_if_user_is_able_to_download_Element_Report_when_clicked_on_the_Element_Report_button_in_element_details_page</t>
+    <t>Verify_if_user_can_download_import_template_when_clicked_on_Download_Attribute_Import_Template</t>
   </si>
   <si>
     <t>TC_100</t>
   </si>
   <si>
-    <t>Verify_if_user_is_not_able_to_edit_element_details_page_when_hovered_next_to_element_step_name</t>
+    <t>Verify_if_user_can_download_locations_attributes_template_when_clicked_on_Download_Locations_Attribute_Import_Template</t>
   </si>
   <si>
     <t>TC_101</t>
   </si>
   <si>
-    <t>Verify_if_user_is_unable_to_access_more_options_menu_the_element_steps_page_in_the_element_details_page</t>
+    <t>Verify_edit_option_should_be_invisible</t>
   </si>
   <si>
     <t>TC_102</t>
   </si>
   <si>
-    <t>Verify_if_the_user_is_unable_to_access_Simo_toggle_in_the_element_step_details</t>
+    <t>Verify ElementsUoM_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available</t>
   </si>
   <si>
     <t>TC_103</t>
   </si>
   <si>
-    <t>Verify_if_user_does_not_have_access_to_edit_element_step_details_when_clicked_on_the_View_button_next_to_the_title_of_the_element_step</t>
+    <t>Verify_delete_button_is_not_available</t>
   </si>
   <si>
     <t>TC_104</t>
   </si>
   <si>
-    <t>Verify_that_if_select_checkboxes_are_available_for_multi_select_in_Element_Details_Page</t>
+    <t>Verify Elements_ViewOnly Module</t>
   </si>
   <si>
     <t>TC_105</t>
   </si>
   <si>
-    <t>Activity_ViewOnly.feature</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Activity</t>
+    <t>Verify_select_checkboxes_are_not_available_for_multi_select</t>
   </si>
   <si>
     <t>TC_106</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Activity_details_must_not_be_editable</t>
-  </si>
-  <si>
-    <t>Attribute_ViewOnly.feature</t>
+    <t>Verify_export_options_is_available</t>
   </si>
   <si>
     <t>TC_107</t>
   </si>
   <si>
+    <t>Verify_user_is_able_to_download_element_report</t>
+  </si>
+  <si>
     <t>TC_108</t>
   </si>
   <si>
+    <t>Verify_select_multiple_elements_checkbox_is_not_available</t>
+  </si>
+  <si>
     <t>TC_109</t>
   </si>
   <si>
+    <t>Verify_edit_element_details_page_is_not_editable</t>
+  </si>
+  <si>
     <t>TC_110</t>
   </si>
   <si>
+    <t>Verify_more_options_menu_is_not_available</t>
+  </si>
+  <si>
     <t>TC_111</t>
   </si>
   <si>
+    <t>Verify_simo_toggle_is_not_available</t>
+  </si>
+  <si>
     <t>TC_112</t>
   </si>
   <si>
-    <t>Verify_if_user_when_clicked_on_upper_right_corner_with_export_icon_following_options_displayed_Export_Attributes_Download_Attribute_Import_Template_Download_All_Locations_Attributes_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_if_user_clicked_on_Export_Attributes_a_popup_with_textbox_for_name_of_file_to_user</t>
-  </si>
-  <si>
-    <t>Verify_if_user_can_download_import_template_when_clicked_on_Download_Attribute_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_if_user_can_download_locations_attributes_template_when_clicked_on_Download_Locations_Attribute_Import_Template</t>
-  </si>
-  <si>
-    <t>Verify_edit_option_is_invisible_aside_of_the_attributes_name_in_the_Attributes_listing</t>
-  </si>
-  <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_UOM</t>
+    <t>Verify_edit_element_step_details_is_not_available</t>
   </si>
   <si>
     <t>TC_113</t>
@@ -795,14 +777,248 @@
     <t>TC_114</t>
   </si>
   <si>
-    <t>ElementsUOM_ViewOnly.feature</t>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>Verify LaborDrivers_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>Verify Tasks_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>Verify_export_options_are_available</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>Verify TaskGroups_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>Verify LaborPeriods_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>Verify JobClasses_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>Verify_export_options_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>Verify LaborCategories_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>Verify_save_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>Verify_details_are_not_editable</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>Verify Standard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>Verify_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available_for_standard_element</t>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <t>Verify_add_option_is_not_available_for_standard_group</t>
+  </si>
+  <si>
+    <t>TC_143</t>
+  </si>
+  <si>
+    <t>Verify_tick_option_in_existing_standard_element_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_144</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_145</t>
+  </si>
+  <si>
+    <t>Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_146</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_147</t>
+  </si>
+  <si>
+    <t>TC_148</t>
+  </si>
+  <si>
+    <t>TC_149</t>
+  </si>
+  <si>
+    <t>TC_150</t>
+  </si>
+  <si>
+    <t>TC_151</t>
+  </si>
+  <si>
+    <t>TC_152</t>
+  </si>
+  <si>
+    <t>TC_153</t>
+  </si>
+  <si>
+    <t>TC_154</t>
+  </si>
+  <si>
+    <t>TC_155</t>
+  </si>
+  <si>
+    <t>TC_156</t>
+  </si>
+  <si>
+    <t>TC_157</t>
+  </si>
+  <si>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>TC_159</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t>TC_161</t>
+  </si>
+  <si>
+    <t>TC_162</t>
+  </si>
+  <si>
+    <t>Verify Locations_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
+    <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify Allowance_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_allowance_report</t>
+  </si>
+  <si>
+    <t>Verify_copy_option_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify Rest_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverValue_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_not_available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -826,16 +1042,39 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -879,13 +1118,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,1613 +1532,1614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83:C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
-    <col min="3" max="3" width="120.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1"/>
+    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="B57" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B65" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="B65" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="3" t="s">
+      <c r="B70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="D74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="B75" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="D75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B77" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+      <c r="D77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B78" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="D78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
+      <c r="D80" s="5"/>
+      <c r="E80" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B82" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3" t="s">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B85" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
+      <c r="B85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B87" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3" t="s">
+      <c r="D88" s="5"/>
+      <c r="E88" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3" t="s">
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C95" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>214</v>
+    <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
@@ -2882,29 +3147,29 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B97" s="5" t="s">
+      <c r="A97" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B98" s="5" t="s">
+    <row r="98" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
@@ -2912,44 +3177,44 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B100" s="5" t="s">
+    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B101" s="5" t="s">
+    <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
@@ -2957,14 +3222,14 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
@@ -2972,14 +3237,14 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>214</v>
+      <c r="A103" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
@@ -2987,14 +3252,14 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>214</v>
+      <c r="A104" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
@@ -3002,14 +3267,14 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>214</v>
+      <c r="A105" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
@@ -3017,14 +3282,14 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>237</v>
+      <c r="A106" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
@@ -3032,14 +3297,14 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>237</v>
+      <c r="A107" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
@@ -3047,14 +3312,14 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>241</v>
+      <c r="A108" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
@@ -3062,14 +3327,14 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>241</v>
+      <c r="A109" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
@@ -3077,14 +3342,14 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B110" s="5" t="s">
+      <c r="A110" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
@@ -3092,14 +3357,14 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>241</v>
+      <c r="A111" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
@@ -3107,14 +3372,14 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>241</v>
+      <c r="A112" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
@@ -3122,14 +3387,14 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
@@ -3137,14 +3402,14 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>256</v>
+      <c r="A114" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
@@ -3152,23 +3417,747 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>256</v>
+      <c r="A115" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A151" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A153" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A155" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A157" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (3)\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (6)\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE955A19-26C9-4279-AA9C-CA7EEEB8C933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2468A8F5-102C-4A16-9DD8-05A4BDDFED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="329">
   <si>
     <t>ID</t>
   </si>
@@ -594,10 +594,19 @@
     <t>Verify Department_ViewOnly Module</t>
   </si>
   <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button</t>
+  </si>
+  <si>
     <t>TC_086</t>
   </si>
   <si>
+    <t>Verify_that_Export_options_are_not_available_for_the_User</t>
+  </si>
+  <si>
     <t>TC_087</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Department_details_must_not_be_editable</t>
   </si>
   <si>
     <t>TC_088</t>
@@ -1525,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86:C88"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2552,9 +2561,7 @@
       <c r="C60" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
         <v>8</v>
       </c>
@@ -2569,9 +2576,7 @@
       <c r="C61" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
@@ -2586,9 +2591,7 @@
       <c r="C62" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
         <v>8</v>
       </c>
@@ -2603,9 +2606,7 @@
       <c r="C63" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
         <v>8</v>
       </c>
@@ -2620,9 +2621,7 @@
       <c r="C64" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
@@ -2637,9 +2636,7 @@
       <c r="C65" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
         <v>8</v>
       </c>
@@ -2654,9 +2651,7 @@
       <c r="C66" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
@@ -2671,9 +2666,7 @@
       <c r="C67" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
         <v>8</v>
       </c>
@@ -2688,9 +2681,7 @@
       <c r="C68" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
         <v>8</v>
       </c>
@@ -2705,9 +2696,7 @@
       <c r="C69" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
         <v>8</v>
       </c>
@@ -2722,9 +2711,7 @@
       <c r="C70" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
         <v>8</v>
       </c>
@@ -2739,9 +2726,7 @@
       <c r="C71" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
@@ -2756,9 +2741,7 @@
       <c r="C72" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
         <v>8</v>
       </c>
@@ -2773,9 +2756,7 @@
       <c r="C73" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
         <v>8</v>
       </c>
@@ -2790,9 +2771,7 @@
       <c r="C74" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
         <v>8</v>
       </c>
@@ -2807,9 +2786,7 @@
       <c r="C75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
         <v>8</v>
       </c>
@@ -2824,9 +2801,7 @@
       <c r="C76" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
         <v>8</v>
       </c>
@@ -2841,9 +2816,7 @@
       <c r="C77" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
         <v>8</v>
       </c>
@@ -2858,9 +2831,7 @@
       <c r="C78" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
         <v>8</v>
       </c>
@@ -2875,9 +2846,7 @@
       <c r="C79" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
         <v>8</v>
       </c>
@@ -2935,7 +2904,7 @@
         <v>184</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
@@ -2950,7 +2919,7 @@
         <v>184</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
@@ -2965,7 +2934,7 @@
         <v>184</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
@@ -2980,7 +2949,7 @@
         <v>188</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
@@ -2989,28 +2958,28 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>325</v>
+        <v>191</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
@@ -3019,13 +2988,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
@@ -3034,13 +3003,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
@@ -3049,13 +3018,13 @@
     </row>
     <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
@@ -3064,13 +3033,13 @@
     </row>
     <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
@@ -3079,13 +3048,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
@@ -3094,13 +3063,13 @@
     </row>
     <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
@@ -3109,13 +3078,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
@@ -3124,13 +3093,13 @@
     </row>
     <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
@@ -3139,10 +3108,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>178</v>
@@ -3154,13 +3123,13 @@
     </row>
     <row r="98" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
@@ -3169,13 +3138,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="C99" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
@@ -3184,13 +3153,13 @@
     </row>
     <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
@@ -3199,13 +3168,13 @@
     </row>
     <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
@@ -3214,13 +3183,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
@@ -3229,13 +3198,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
@@ -3244,13 +3213,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
@@ -3259,13 +3228,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
@@ -3274,13 +3243,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
@@ -3289,13 +3258,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="C107" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
@@ -3304,13 +3273,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
@@ -3319,13 +3288,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
@@ -3334,13 +3303,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
@@ -3349,13 +3318,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
@@ -3364,13 +3333,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
@@ -3379,13 +3348,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
@@ -3394,13 +3363,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
@@ -3409,13 +3378,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
@@ -3424,13 +3393,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
@@ -3439,13 +3408,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
@@ -3454,13 +3423,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
@@ -3469,13 +3438,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
@@ -3484,13 +3453,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
@@ -3499,13 +3468,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="C121" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
@@ -3514,13 +3483,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
@@ -3529,13 +3498,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B123" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
@@ -3544,13 +3513,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
@@ -3559,13 +3528,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
@@ -3574,13 +3543,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
@@ -3589,13 +3558,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
@@ -3604,13 +3573,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
@@ -3619,13 +3588,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
@@ -3634,13 +3603,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="C130" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
@@ -3649,13 +3618,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5" t="s">
@@ -3664,13 +3633,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B132" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5" t="s">
@@ -3679,13 +3648,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
@@ -3694,13 +3663,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5" t="s">
@@ -3709,13 +3678,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
@@ -3724,13 +3693,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5" t="s">
@@ -3739,13 +3708,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
@@ -3754,13 +3723,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
@@ -3769,13 +3738,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
@@ -3784,13 +3753,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>282</v>
-      </c>
       <c r="C140" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
@@ -3799,13 +3768,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5" t="s">
@@ -3814,13 +3783,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5" t="s">
@@ -3829,13 +3798,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5" t="s">
@@ -3844,13 +3813,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5" t="s">
@@ -3859,13 +3828,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
@@ -3874,13 +3843,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
@@ -3889,13 +3858,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
@@ -3904,13 +3873,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
@@ -3919,13 +3888,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
@@ -3934,13 +3903,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>300</v>
-      </c>
       <c r="C150" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5" t="s">
@@ -3949,13 +3918,13 @@
     </row>
     <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
@@ -3964,13 +3933,13 @@
     </row>
     <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
@@ -3979,13 +3948,13 @@
     </row>
     <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
@@ -3994,13 +3963,13 @@
     </row>
     <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
@@ -4009,13 +3978,13 @@
     </row>
     <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
@@ -4024,13 +3993,13 @@
     </row>
     <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
@@ -4039,13 +4008,13 @@
     </row>
     <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
@@ -4054,13 +4023,13 @@
     </row>
     <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
@@ -4069,13 +4038,13 @@
     </row>
     <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
@@ -4084,13 +4053,13 @@
     </row>
     <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5" t="s">
@@ -4099,13 +4068,13 @@
     </row>
     <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
@@ -4114,13 +4083,13 @@
     </row>
     <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5" t="s">
@@ -4129,13 +4098,13 @@
     </row>
     <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5" t="s">

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (6)\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\azu\laberpro\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2468A8F5-102C-4A16-9DD8-05A4BDDFED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A14070-3B0C-43C6-ADAA-877A330BE2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="326">
   <si>
     <t>ID</t>
   </si>
@@ -594,19 +594,10 @@
     <t>Verify Department_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button</t>
-  </si>
-  <si>
     <t>TC_086</t>
   </si>
   <si>
-    <t>Verify_that_Export_options_are_not_available_for_the_User</t>
-  </si>
-  <si>
     <t>TC_087</t>
-  </si>
-  <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Department_details_must_not_be_editable</t>
   </si>
   <si>
     <t>TC_088</t>
@@ -1535,7 +1526,7 @@
   <dimension ref="A1:AMJ163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="C86" sqref="C86:C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2904,7 +2895,7 @@
         <v>184</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
@@ -2919,7 +2910,7 @@
         <v>184</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
@@ -2934,7 +2925,7 @@
         <v>184</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
@@ -2949,7 +2940,7 @@
         <v>188</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
@@ -2958,28 +2949,28 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>191</v>
+        <v>325</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
@@ -2988,13 +2979,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
@@ -3003,13 +2994,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
@@ -3018,13 +3009,13 @@
     </row>
     <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
@@ -3033,13 +3024,13 @@
     </row>
     <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
@@ -3048,13 +3039,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
@@ -3063,13 +3054,13 @@
     </row>
     <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
@@ -3078,13 +3069,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
@@ -3093,13 +3084,13 @@
     </row>
     <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
@@ -3108,10 +3099,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>178</v>
@@ -3123,13 +3114,13 @@
     </row>
     <row r="98" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
@@ -3138,13 +3129,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
@@ -3153,13 +3144,13 @@
     </row>
     <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
@@ -3168,13 +3159,13 @@
     </row>
     <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
@@ -3183,13 +3174,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
@@ -3198,13 +3189,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
@@ -3213,13 +3204,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
@@ -3228,13 +3219,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
@@ -3243,13 +3234,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
@@ -3258,13 +3249,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
@@ -3273,13 +3264,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
@@ -3288,13 +3279,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
@@ -3303,13 +3294,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
@@ -3318,13 +3309,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
@@ -3333,13 +3324,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
@@ -3348,13 +3339,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
@@ -3363,13 +3354,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
@@ -3378,13 +3369,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
@@ -3393,13 +3384,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
@@ -3408,13 +3399,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
@@ -3423,13 +3414,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
@@ -3438,13 +3429,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
@@ -3453,13 +3444,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
@@ -3468,13 +3459,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
@@ -3483,13 +3474,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
@@ -3498,13 +3489,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
@@ -3513,13 +3504,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
@@ -3528,13 +3519,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
@@ -3543,13 +3534,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
@@ -3558,13 +3549,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
@@ -3573,13 +3564,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
@@ -3588,13 +3579,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
@@ -3603,13 +3594,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
@@ -3618,13 +3609,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5" t="s">
@@ -3633,13 +3624,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5" t="s">
@@ -3648,13 +3639,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
@@ -3663,13 +3654,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5" t="s">
@@ -3678,13 +3669,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
@@ -3693,13 +3684,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B136" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5" t="s">
@@ -3708,13 +3699,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
@@ -3723,13 +3714,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
@@ -3738,13 +3729,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
@@ -3753,13 +3744,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
@@ -3768,13 +3759,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5" t="s">
@@ -3783,13 +3774,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5" t="s">
@@ -3798,13 +3789,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5" t="s">
@@ -3813,13 +3804,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5" t="s">
@@ -3828,13 +3819,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
@@ -3843,13 +3834,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
@@ -3858,13 +3849,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
@@ -3873,13 +3864,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
@@ -3888,13 +3879,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
@@ -3903,13 +3894,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5" t="s">
@@ -3918,13 +3909,13 @@
     </row>
     <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
@@ -3933,13 +3924,13 @@
     </row>
     <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
@@ -3948,13 +3939,13 @@
     </row>
     <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
@@ -3963,13 +3954,13 @@
     </row>
     <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
@@ -3978,13 +3969,13 @@
     </row>
     <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
@@ -3993,13 +3984,13 @@
     </row>
     <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
@@ -4008,13 +3999,13 @@
     </row>
     <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
@@ -4023,13 +4014,13 @@
     </row>
     <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
@@ -4038,13 +4029,13 @@
     </row>
     <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
@@ -4053,13 +4044,13 @@
     </row>
     <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5" t="s">
@@ -4068,13 +4059,13 @@
     </row>
     <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
@@ -4083,13 +4074,13 @@
     </row>
     <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5" t="s">
@@ -4098,13 +4089,13 @@
     </row>
     <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5" t="s">

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USHA DAHIKAR\Downloads\New folder (15)\resources\test-data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE2633-7C7D-408C-9838-8A45C122798A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="313">
   <si>
     <t>ID</t>
   </si>
@@ -582,69 +576,39 @@
     <t>Verify VolumeDriver_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_that_user_should_not_have_access_for_add_button</t>
-  </si>
-  <si>
     <t>TC_083</t>
   </si>
   <si>
-    <t>Verify_that_export_options_are_not_available_for_the_User</t>
-  </si>
-  <si>
     <t>TC_084</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_VolumeDriver_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>TC_085</t>
   </si>
   <si>
     <t>Verify Department_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button</t>
-  </si>
-  <si>
     <t>TC_086</t>
   </si>
   <si>
-    <t>Verify_that_Export_options_are_not_available_for_the_User</t>
-  </si>
-  <si>
     <t>TC_087</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Department_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>TC_088</t>
   </si>
   <si>
     <t>Verify Characteristic_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Characteristic</t>
-  </si>
-  <si>
     <t>TC_089</t>
   </si>
   <si>
-    <t>Verify_that_Export_options_are_available_for_the_User_in_Characteristic</t>
-  </si>
-  <si>
     <t>TC_090</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Characteristic_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>TC_091</t>
   </si>
   <si>
-    <t>Verify_edit_option_is_not_available_when_clicked_on_the_Hamburger_icon_in_the_Characteritics_page</t>
-  </si>
-  <si>
     <t>TC_092</t>
   </si>
   <si>
@@ -975,56 +939,32 @@
     <t>TC_155</t>
   </si>
   <si>
+    <t>Verify Locations_ViewOnly module</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
+    <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
+  </si>
+  <si>
     <t>TC_156</t>
   </si>
   <si>
     <t>TC_157</t>
   </si>
   <si>
-    <t>TC_158</t>
-  </si>
-  <si>
-    <t>TC_159</t>
-  </si>
-  <si>
-    <t>TC_160</t>
-  </si>
-  <si>
-    <t>TC_161</t>
-  </si>
-  <si>
-    <t>TC_162</t>
-  </si>
-  <si>
-    <t>Verify Locations_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_available_for_location_profile</t>
-  </si>
-  <si>
-    <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
-  </si>
-  <si>
-    <t>Verify Allowance_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>Verify_user_is_able_to_download_allowance_report</t>
-  </si>
-  <si>
-    <t>Verify_copy_option_is_not_available</t>
-  </si>
-  <si>
-    <t>Verify Rest_ViewOnly Module</t>
-  </si>
-  <si>
     <t>Verify VolumeDriverValue_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_not_available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1071,16 +1011,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="Cascadia Mono"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1124,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1150,11 +1095,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1284,7 +1232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1336,7 +1284,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1530,21 +1478,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ163"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89:C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="7.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.1796875" style="1" customWidth="1"/>
@@ -1554,7 +1502,7 @@
     <col min="6" max="1024" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1588,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1605,7 +1553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1622,7 +1570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1639,7 +1587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1656,7 +1604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1673,7 +1621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1690,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1707,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1724,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1741,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1758,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1775,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1792,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1809,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1826,7 +1774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1843,7 +1791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1860,7 +1808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1877,7 +1825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1894,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1911,7 +1859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1928,7 +1876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1945,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="25">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -1962,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -1979,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -1996,7 +1944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2013,7 +1961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -2030,7 +1978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -2047,7 +1995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2064,7 +2012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2081,7 +2029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -2098,7 +2046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2115,7 +2063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -2132,7 +2080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2149,7 +2097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -2166,7 +2114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2183,7 +2131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2200,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2217,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2234,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2251,7 +2199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2268,7 +2216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2285,7 +2233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2302,7 +2250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2319,7 +2267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2336,7 +2284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2353,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2370,7 +2318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2387,7 +2335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2404,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2421,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2438,7 +2386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2455,7 +2403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2472,7 +2420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2489,7 +2437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2506,7 +2454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="29">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2523,7 +2471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2540,7 +2488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2557,7 +2505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2567,14 +2515,12 @@
       <c r="C60" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>136</v>
       </c>
@@ -2584,31 +2530,27 @@
       <c r="C61" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -2618,14 +2560,12 @@
       <c r="C63" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
         <v>141</v>
       </c>
@@ -2635,14 +2575,12 @@
       <c r="C64" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>144</v>
       </c>
@@ -2652,14 +2590,12 @@
       <c r="C65" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>146</v>
       </c>
@@ -2669,14 +2605,12 @@
       <c r="C66" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>148</v>
       </c>
@@ -2686,14 +2620,12 @@
       <c r="C67" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>150</v>
       </c>
@@ -2703,14 +2635,12 @@
       <c r="C68" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
@@ -2720,14 +2650,12 @@
       <c r="C69" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>155</v>
       </c>
@@ -2737,14 +2665,12 @@
       <c r="C70" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>157</v>
       </c>
@@ -2754,14 +2680,12 @@
       <c r="C71" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
         <v>159</v>
       </c>
@@ -2771,14 +2695,12 @@
       <c r="C72" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>161</v>
       </c>
@@ -2788,14 +2710,12 @@
       <c r="C73" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
@@ -2805,14 +2725,12 @@
       <c r="C74" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="29">
       <c r="A75" s="3" t="s">
         <v>166</v>
       </c>
@@ -2822,14 +2740,12 @@
       <c r="C75" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
         <v>168</v>
       </c>
@@ -2839,14 +2755,12 @@
       <c r="C76" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" ht="29">
       <c r="A77" s="3" t="s">
         <v>170</v>
       </c>
@@ -2856,14 +2770,12 @@
       <c r="C77" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="29">
       <c r="A78" s="3" t="s">
         <v>172</v>
       </c>
@@ -2873,14 +2785,12 @@
       <c r="C78" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>174</v>
       </c>
@@ -2890,14 +2800,12 @@
       <c r="C79" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -2912,7 +2820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
         <v>179</v>
       </c>
@@ -2927,7 +2835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="29">
       <c r="A82" s="3" t="s">
         <v>181</v>
       </c>
@@ -2942,7 +2850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
         <v>183</v>
       </c>
@@ -2950,214 +2858,214 @@
         <v>184</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>187</v>
+        <v>312</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5">
       <c r="A91" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5">
       <c r="A93" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" ht="29">
       <c r="A94" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="29">
       <c r="A96" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>178</v>
@@ -3167,993 +3075,918 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="43.5">
       <c r="A98" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5">
       <c r="A99" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="29">
       <c r="A100" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="29">
       <c r="A101" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5">
       <c r="A108" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5">
       <c r="A115" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5">
       <c r="A117" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5">
       <c r="A118" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5">
       <c r="A119" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5">
       <c r="A120" s="3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5">
       <c r="A121" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5">
       <c r="A122" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5">
       <c r="A123" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5">
       <c r="A125" s="3" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5">
       <c r="A126" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5">
       <c r="A127" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5">
       <c r="A129" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5">
       <c r="A130" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5">
       <c r="A131" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5">
       <c r="A132" s="3" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5">
       <c r="A133" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5">
       <c r="A134" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5">
       <c r="A135" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5">
       <c r="A136" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5">
       <c r="A137" s="3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5">
       <c r="A138" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5">
       <c r="A139" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5">
       <c r="A140" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B143" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5">
       <c r="A144" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5">
       <c r="A145" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5">
       <c r="A146" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5">
       <c r="A147" s="3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5">
       <c r="A148" s="3" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5">
       <c r="A149" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5">
       <c r="A150" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>286</v>
+        <v>296</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" ht="15">
       <c r="A151" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" ht="15">
       <c r="A152" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" ht="15">
       <c r="A153" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" ht="15">
       <c r="A154" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" ht="15">
       <c r="A155" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" ht="15">
       <c r="A156" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" ht="16">
       <c r="A157" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>230</v>
+        <v>311</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" ht="16">
       <c r="A158" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>327</v>
+        <v>311</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>282</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A159" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A160" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A161" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="320">
   <si>
     <t>ID</t>
   </si>
@@ -576,12 +576,21 @@
     <t>Verify VolumeDriver_ViewOnly Module</t>
   </si>
   <si>
+    <t>Verify_add_button_is_not_available</t>
+  </si>
+  <si>
     <t>TC_083</t>
   </si>
   <si>
+    <t>Verify_export_option_is_not_available</t>
+  </si>
+  <si>
     <t>TC_084</t>
   </si>
   <si>
+    <t>Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
     <t>TC_085</t>
   </si>
   <si>
@@ -600,15 +609,27 @@
     <t>Verify Characteristic_ViewOnly Module</t>
   </si>
   <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Characteristic</t>
+  </si>
+  <si>
     <t>TC_089</t>
   </si>
   <si>
+    <t>Verify_that_Export_options_are_available_for_the_User_in_Characteristic</t>
+  </si>
+  <si>
     <t>TC_090</t>
   </si>
   <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Characteristic_details_must_not_be_editable</t>
+  </si>
+  <si>
     <t>TC_091</t>
   </si>
   <si>
+    <t>Verify_edit_option_is_not_available_when_clicked_on_the_Hamburger_icon_in_the_Characteritics_page</t>
+  </si>
+  <si>
     <t>TC_092</t>
   </si>
   <si>
@@ -681,9 +702,6 @@
     <t>Verify ElementsUoM_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_add_button_is_not_available</t>
-  </si>
-  <si>
     <t>TC_103</t>
   </si>
   <si>
@@ -801,9 +819,6 @@
     <t>TC_126</t>
   </si>
   <si>
-    <t>Verify_delete_button_and_edit_option_is_not_available</t>
-  </si>
-  <si>
     <t>TC_127</t>
   </si>
   <si>
@@ -924,12 +939,18 @@
     <t>TC_150</t>
   </si>
   <si>
+    <t>Verify Locations_ViewOnly module</t>
+  </si>
+  <si>
     <t>TC_151</t>
   </si>
   <si>
     <t>TC_152</t>
   </si>
   <si>
+    <t>Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
     <t>TC_153</t>
   </si>
   <si>
@@ -939,32 +960,32 @@
     <t>TC_155</t>
   </si>
   <si>
-    <t>Verify Locations_ViewOnly module</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_available_for_location_profile</t>
-  </si>
-  <si>
     <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
   </si>
   <si>
     <t>TC_156</t>
   </si>
   <si>
+    <t>Verify VolumeDriverValue_ViewOnly Module</t>
+  </si>
+  <si>
     <t>TC_157</t>
   </si>
   <si>
-    <t>Verify VolumeDriverValue_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_not_available</t>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>Verify LaborStandard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_159</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1000,14 +1021,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9.5"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1015,17 +1032,7 @@
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cascadia Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial Unicode MS"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1069,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1095,21 +1102,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1178,14 +1179,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1200,44 +1193,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1264,32 +1257,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1316,24 +1291,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1345,151 +1302,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ158"/>
+  <dimension ref="A1:AMJ160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:C92"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -2542,7 +2523,7 @@
       <c r="B62" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D62" s="5"/>
@@ -2858,7 +2839,7 @@
         <v>184</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
@@ -2867,13 +2848,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
@@ -2882,13 +2863,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
@@ -2897,13 +2878,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
@@ -2912,13 +2893,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>312</v>
+        <v>187</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
@@ -2927,13 +2908,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
@@ -2942,13 +2923,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
@@ -2957,43 +2938,43 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" ht="29">
       <c r="A91" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="29">
       <c r="A92" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="C92" s="5" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
@@ -3002,13 +2983,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
@@ -3017,13 +2998,13 @@
     </row>
     <row r="94" spans="1:5" ht="29">
       <c r="A94" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
@@ -3032,13 +3013,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
@@ -3047,13 +3028,13 @@
     </row>
     <row r="96" spans="1:5" ht="29">
       <c r="A96" s="3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
@@ -3062,10 +3043,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>178</v>
@@ -3077,13 +3058,13 @@
     </row>
     <row r="98" spans="1:5" ht="43.5">
       <c r="A98" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
@@ -3092,13 +3073,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
@@ -3107,13 +3088,13 @@
     </row>
     <row r="100" spans="1:5" ht="29">
       <c r="A100" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
@@ -3122,13 +3103,13 @@
     </row>
     <row r="101" spans="1:5" ht="29">
       <c r="A101" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="C101" s="5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
@@ -3137,13 +3118,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
@@ -3152,13 +3133,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
@@ -3167,13 +3148,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
@@ -3182,13 +3163,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
@@ -3197,13 +3178,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
@@ -3212,13 +3193,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
@@ -3227,13 +3208,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
@@ -3242,13 +3223,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
@@ -3257,13 +3238,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
@@ -3272,13 +3253,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
@@ -3287,13 +3268,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
@@ -3302,13 +3283,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
@@ -3317,13 +3298,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
@@ -3332,13 +3313,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
@@ -3347,13 +3328,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
@@ -3362,13 +3343,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
@@ -3377,13 +3358,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
@@ -3392,13 +3373,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
@@ -3407,13 +3388,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
@@ -3422,13 +3403,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
@@ -3437,13 +3418,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
@@ -3452,13 +3433,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
@@ -3467,13 +3448,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
@@ -3482,13 +3463,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
@@ -3497,13 +3478,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
@@ -3512,13 +3493,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
@@ -3527,13 +3508,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
@@ -3542,13 +3523,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
@@ -3557,13 +3538,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
@@ -3572,13 +3553,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5" t="s">
@@ -3587,13 +3568,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5" t="s">
@@ -3602,13 +3583,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
@@ -3617,13 +3598,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>220</v>
+        <v>275</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5" t="s">
@@ -3632,13 +3613,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>228</v>
+        <v>277</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
@@ -3647,13 +3628,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5" t="s">
@@ -3662,13 +3643,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C137" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>276</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
@@ -3677,13 +3658,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>220</v>
+        <v>282</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
@@ -3692,13 +3673,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
@@ -3707,13 +3688,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
@@ -3722,13 +3703,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>284</v>
+      <c r="C141" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5" t="s">
@@ -3737,13 +3718,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5" t="s">
@@ -3752,13 +3733,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5" t="s">
@@ -3767,13 +3748,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5" t="s">
@@ -3782,13 +3763,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>292</v>
+        <v>296</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
@@ -3797,13 +3778,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
@@ -3812,13 +3793,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>220</v>
+        <v>300</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
@@ -3827,13 +3808,13 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>282</v>
+        <v>302</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
@@ -3842,13 +3823,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>222</v>
+        <v>303</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
@@ -3857,13 +3838,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>276</v>
+        <v>304</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5" t="s">
@@ -3872,13 +3853,13 @@
     </row>
     <row r="151" spans="1:5" ht="15">
       <c r="A151" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B151" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B151" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C151" s="9" t="s">
-        <v>220</v>
+      <c r="C151" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
@@ -3887,13 +3868,13 @@
     </row>
     <row r="152" spans="1:5" ht="15">
       <c r="A152" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B152" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C152" s="9" t="s">
-        <v>282</v>
+      <c r="C152" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
@@ -3902,13 +3883,13 @@
     </row>
     <row r="153" spans="1:5" ht="15">
       <c r="A153" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B153" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C153" s="9" t="s">
-        <v>307</v>
+      <c r="C153" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
@@ -3917,13 +3898,13 @@
     </row>
     <row r="154" spans="1:5" ht="15">
       <c r="A154" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B154" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C154" s="9" t="s">
-        <v>280</v>
+      <c r="C154" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
@@ -3932,13 +3913,13 @@
     </row>
     <row r="155" spans="1:5" ht="15">
       <c r="A155" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B155" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C155" s="9" t="s">
-        <v>222</v>
+      <c r="C155" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
@@ -3947,13 +3928,13 @@
     </row>
     <row r="156" spans="1:5" ht="15">
       <c r="A156" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B156" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C156" s="9" t="s">
-        <v>308</v>
+      <c r="C156" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
@@ -3962,13 +3943,13 @@
     </row>
     <row r="157" spans="1:5" ht="16">
       <c r="A157" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>220</v>
+        <v>314</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
@@ -3977,23 +3958,52 @@
     </row>
     <row r="158" spans="1:5" ht="16">
       <c r="A158" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>282</v>
+        <v>316</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>287</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\laborpro\src\LaborPro.Automation\resources\test-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E657422A-FFD2-4EBE-813C-9F3EB8539F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="337">
   <si>
     <t>ID</t>
   </si>
@@ -576,12 +582,18 @@
     <t>Verify VolumeDriver_ViewOnly Module</t>
   </si>
   <si>
+    <t>Verify_add_button_is_not_available</t>
+  </si>
+  <si>
     <t>TC_083</t>
   </si>
   <si>
     <t>TC_084</t>
   </si>
   <si>
+    <t>Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
     <t>TC_085</t>
   </si>
   <si>
@@ -600,15 +612,27 @@
     <t>Verify Characteristic_ViewOnly Module</t>
   </si>
   <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Characteristic</t>
+  </si>
+  <si>
     <t>TC_089</t>
   </si>
   <si>
+    <t>Verify_that_Export_options_are_available_for_the_User_in_Characteristic</t>
+  </si>
+  <si>
     <t>TC_090</t>
   </si>
   <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Characteristic_details_must_not_be_editable</t>
+  </si>
+  <si>
     <t>TC_091</t>
   </si>
   <si>
+    <t>Verify_edit_option_is_not_available_when_clicked_on_the_Hamburger_icon_in_the_Characteritics_page</t>
+  </si>
+  <si>
     <t>TC_092</t>
   </si>
   <si>
@@ -681,9 +705,6 @@
     <t>Verify ElementsUoM_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_add_button_is_not_available</t>
-  </si>
-  <si>
     <t>TC_103</t>
   </si>
   <si>
@@ -801,9 +822,6 @@
     <t>TC_126</t>
   </si>
   <si>
-    <t>Verify_delete_button_and_edit_option_is_not_available</t>
-  </si>
-  <si>
     <t>TC_127</t>
   </si>
   <si>
@@ -924,12 +942,18 @@
     <t>TC_150</t>
   </si>
   <si>
+    <t>Verify Locations_ViewOnly module</t>
+  </si>
+  <si>
     <t>TC_151</t>
   </si>
   <si>
     <t>TC_152</t>
   </si>
   <si>
+    <t>Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
     <t>TC_153</t>
   </si>
   <si>
@@ -939,32 +963,86 @@
     <t>TC_155</t>
   </si>
   <si>
-    <t>Verify Locations_ViewOnly module</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_available_for_location_profile</t>
-  </si>
-  <si>
     <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
   </si>
   <si>
     <t>TC_156</t>
   </si>
   <si>
+    <t>Verify VolumeDriverValue_ViewOnly Module</t>
+  </si>
+  <si>
     <t>TC_157</t>
   </si>
   <si>
-    <t>Verify VolumeDriverValue_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_not_available</t>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>Verify LaborStandard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_159</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button</t>
+  </si>
+  <si>
+    <t>Verify_that_Export_options_are_not_available_for_the_User</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Department_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>Verify_that_user_should_not_have_access_for_add_button</t>
+  </si>
+  <si>
+    <t>Verify_that_export_options_are_not_available_for_the_User</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_VolumeDriver_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>Verify Rest_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t>TC_161</t>
+  </si>
+  <si>
+    <t>TC_162</t>
+  </si>
+  <si>
+    <t>TC_163</t>
+  </si>
+  <si>
+    <t>Verify Allowance_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_164</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_allowance_report</t>
+  </si>
+  <si>
+    <t>Verify_copy_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_165</t>
+  </si>
+  <si>
+    <t>Verify Downloads Module</t>
+  </si>
+  <si>
+    <t>Verify_no_downloads_found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1000,14 +1078,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9.5"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1015,17 +1089,7 @@
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cascadia Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial Unicode MS"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1069,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1095,21 +1159,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1200,44 +1261,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1284,12 +1345,12 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1345,164 +1406,188 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ158"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:C92"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="1"/>
-    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1536,7 +1621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1553,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1570,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1587,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1604,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1638,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25">
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1655,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1672,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1689,7 +1774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1706,7 +1791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1723,7 +1808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1740,7 +1825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1757,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1774,7 +1859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1791,7 +1876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1808,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1825,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1842,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1859,7 +1944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1876,7 +1961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1893,7 +1978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25">
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -1910,7 +1995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -1927,7 +2012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -1944,7 +2029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -1961,7 +2046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -1978,7 +2063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -1995,7 +2080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2012,7 +2097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2029,7 +2114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -2046,7 +2131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2063,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -2080,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2097,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -2114,7 +2199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2131,7 +2216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2148,7 +2233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2165,7 +2250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2182,7 +2267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2199,7 +2284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2216,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2233,7 +2318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2250,7 +2335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2267,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2284,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2301,7 +2386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2318,7 +2403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2335,7 +2420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2352,7 +2437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2369,7 +2454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2386,7 +2471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2403,7 +2488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2420,7 +2505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2437,7 +2522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2454,7 +2539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="29">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2471,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2488,7 +2573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2505,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2520,7 +2605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>136</v>
       </c>
@@ -2535,14 +2620,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D62" s="5"/>
@@ -2550,7 +2635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -2565,7 +2650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>141</v>
       </c>
@@ -2580,7 +2665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>144</v>
       </c>
@@ -2595,7 +2680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>146</v>
       </c>
@@ -2610,7 +2695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>148</v>
       </c>
@@ -2625,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>150</v>
       </c>
@@ -2640,7 +2725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
@@ -2655,7 +2740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>155</v>
       </c>
@@ -2670,7 +2755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>157</v>
       </c>
@@ -2685,7 +2770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>159</v>
       </c>
@@ -2700,7 +2785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>161</v>
       </c>
@@ -2715,7 +2800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
@@ -2730,7 +2815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="29">
+    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>166</v>
       </c>
@@ -2745,7 +2830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>168</v>
       </c>
@@ -2760,7 +2845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="29">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>170</v>
       </c>
@@ -2775,7 +2860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="29">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>172</v>
       </c>
@@ -2790,7 +2875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>174</v>
       </c>
@@ -2805,7 +2890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -2820,7 +2905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>179</v>
       </c>
@@ -2835,7 +2920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="29">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>181</v>
       </c>
@@ -2850,7 +2935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>183</v>
       </c>
@@ -2858,214 +2943,214 @@
         <v>184</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>220</v>
+        <v>319</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="C91" s="5" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="29">
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="29">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>178</v>
@@ -3075,925 +3160,1044 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="43.5">
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="29">
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="29">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="C108" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>220</v>
+        <v>274</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>228</v>
+        <v>276</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>276</v>
+      <c r="C137" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>220</v>
+        <v>281</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C140" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>282</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>220</v>
+        <v>299</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>282</v>
+        <v>301</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>222</v>
+        <v>302</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>276</v>
+        <v>303</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>220</v>
+        <v>304</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B152" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C152" s="9" t="s">
-        <v>282</v>
+      <c r="B152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C153" s="9" t="s">
         <v>307</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>280</v>
+        <v>309</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>222</v>
+        <v>310</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>308</v>
+      <c r="C156" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16">
+    <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>220</v>
+        <v>313</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="16">
+    <row r="158" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>282</v>
+        <v>315</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D161" s="10"/>
+      <c r="E161" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D162" s="10"/>
+      <c r="E162" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D163" s="10"/>
+      <c r="E163" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D164" s="10"/>
+      <c r="E164" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D165" s="10"/>
+      <c r="E165" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D166" s="10"/>
+      <c r="E166" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="359">
   <si>
     <t>ID</t>
   </si>
@@ -576,12 +576,18 @@
     <t>Verify VolumeDriver_ViewOnly Module</t>
   </si>
   <si>
+    <t>Verify_add_button_is_not_available</t>
+  </si>
+  <si>
     <t>TC_083</t>
   </si>
   <si>
     <t>TC_084</t>
   </si>
   <si>
+    <t>Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
     <t>TC_085</t>
   </si>
   <si>
@@ -600,15 +606,27 @@
     <t>Verify Characteristic_ViewOnly Module</t>
   </si>
   <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Characteristic</t>
+  </si>
+  <si>
     <t>TC_089</t>
   </si>
   <si>
+    <t>Verify_that_Export_options_are_available_for_the_User_in_Characteristic</t>
+  </si>
+  <si>
     <t>TC_090</t>
   </si>
   <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Characteristic_details_must_not_be_editable</t>
+  </si>
+  <si>
     <t>TC_091</t>
   </si>
   <si>
+    <t>Verify_edit_option_is_not_available_when_clicked_on_the_Hamburger_icon_in_the_Characteritics_page</t>
+  </si>
+  <si>
     <t>TC_092</t>
   </si>
   <si>
@@ -681,9 +699,6 @@
     <t>Verify ElementsUoM_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_add_button_is_not_available</t>
-  </si>
-  <si>
     <t>TC_103</t>
   </si>
   <si>
@@ -801,9 +816,6 @@
     <t>TC_126</t>
   </si>
   <si>
-    <t>Verify_delete_button_and_edit_option_is_not_available</t>
-  </si>
-  <si>
     <t>TC_127</t>
   </si>
   <si>
@@ -924,12 +936,18 @@
     <t>TC_150</t>
   </si>
   <si>
+    <t>Verify Locations_ViewOnly module</t>
+  </si>
+  <si>
     <t>TC_151</t>
   </si>
   <si>
     <t>TC_152</t>
   </si>
   <si>
+    <t>Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
     <t>TC_153</t>
   </si>
   <si>
@@ -939,32 +957,152 @@
     <t>TC_155</t>
   </si>
   <si>
-    <t>Verify Locations_ViewOnly module</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_available_for_location_profile</t>
-  </si>
-  <si>
     <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
   </si>
   <si>
     <t>TC_156</t>
   </si>
   <si>
+    <t>Verify VolumeDriverValue_ViewOnly Module</t>
+  </si>
+  <si>
     <t>TC_157</t>
   </si>
   <si>
-    <t>Verify VolumeDriverValue_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_not_available</t>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>Verify LaborStandard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_159</t>
+  </si>
+  <si>
+    <t>Verify_that_User_should_not_have_access_for_Add_button</t>
+  </si>
+  <si>
+    <t>Verify_that_Export_options_are_not_available_for_the_User</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Department_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>Verify_that_user_should_not_have_access_for_add_button</t>
+  </si>
+  <si>
+    <t>Verify_that_export_options_are_not_available_for_the_User</t>
+  </si>
+  <si>
+    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_VolumeDriver_details_must_not_be_editable</t>
+  </si>
+  <si>
+    <t>Verify Rest_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t>TC_161</t>
+  </si>
+  <si>
+    <t>TC_162</t>
+  </si>
+  <si>
+    <t>TC_163</t>
+  </si>
+  <si>
+    <t>Verify Allowance_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_164</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_allowance_report</t>
+  </si>
+  <si>
+    <t>Verify_copy_option_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify ExistingIndustryStandard Module</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_available</t>
+  </si>
+  <si>
+    <t>Verify_existing_industry_standard_and_new_standard_options_are_available</t>
+  </si>
+  <si>
+    <t>Verify_industry_standard_data_is_available</t>
+  </si>
+  <si>
+    <t>Verify_import_department_sidebar_is_available</t>
+  </si>
+  <si>
+    <t>Verify_alert_message_when_no_industry_standard_is_selected</t>
+  </si>
+  <si>
+    <t>TC_165</t>
+  </si>
+  <si>
+    <t>Verify_add_industry_standard</t>
+  </si>
+  <si>
+    <t>TC_166</t>
+  </si>
+  <si>
+    <t>Verify_force_use_of_standard_id</t>
+  </si>
+  <si>
+    <t>TC_167</t>
+  </si>
+  <si>
+    <t>Verify_different_industry_typical_department_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_168</t>
+  </si>
+  <si>
+    <t>Verify_industry_standard_details_are_available</t>
+  </si>
+  <si>
+    <t>TC_169</t>
+  </si>
+  <si>
+    <t>Verify_industry_standard_details_sidebar_is_available</t>
+  </si>
+  <si>
+    <t>TC_170</t>
+  </si>
+  <si>
+    <t>Verify_element_detail_page_is_available</t>
+  </si>
+  <si>
+    <t>TC_171</t>
+  </si>
+  <si>
+    <t>Verify_standard_details_are_available_when_click_on_any_record</t>
+  </si>
+  <si>
+    <t>TC_172</t>
+  </si>
+  <si>
+    <t>TC_173</t>
+  </si>
+  <si>
+    <t>TC_174</t>
+  </si>
+  <si>
+    <t>TC_175</t>
+  </si>
+  <si>
+    <t>TC_176</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1000,14 +1138,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9.5"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1015,17 +1149,7 @@
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cascadia Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial Unicode MS"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1069,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1095,21 +1219,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1178,14 +1299,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1200,44 +1313,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1264,32 +1377,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1316,24 +1411,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1345,151 +1422,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ158"/>
+  <dimension ref="A1:AMJ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:C92"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
@@ -2542,7 +2643,7 @@
       <c r="B62" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D62" s="5"/>
@@ -2858,7 +2959,7 @@
         <v>184</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
@@ -2867,28 +2968,28 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="29">
       <c r="A85" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
@@ -2897,13 +2998,13 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>220</v>
+        <v>319</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
@@ -2912,28 +3013,28 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="29">
       <c r="A88" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
@@ -2942,13 +3043,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
@@ -2957,43 +3058,43 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" ht="29">
       <c r="A91" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="C91" s="5" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="29">
       <c r="A92" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
@@ -3002,13 +3103,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
@@ -3017,13 +3118,13 @@
     </row>
     <row r="94" spans="1:5" ht="29">
       <c r="A94" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
@@ -3032,13 +3133,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
@@ -3047,13 +3148,13 @@
     </row>
     <row r="96" spans="1:5" ht="29">
       <c r="A96" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
@@ -3062,10 +3163,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>178</v>
@@ -3077,13 +3178,13 @@
     </row>
     <row r="98" spans="1:5" ht="43.5">
       <c r="A98" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
@@ -3092,13 +3193,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
@@ -3107,13 +3208,13 @@
     </row>
     <row r="100" spans="1:5" ht="29">
       <c r="A100" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
@@ -3122,13 +3223,13 @@
     </row>
     <row r="101" spans="1:5" ht="29">
       <c r="A101" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
@@ -3137,13 +3238,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
@@ -3152,13 +3253,13 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
@@ -3167,13 +3268,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
@@ -3182,13 +3283,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
@@ -3197,13 +3298,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
@@ -3212,13 +3313,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
@@ -3227,13 +3328,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="C108" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
@@ -3242,13 +3343,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
@@ -3257,13 +3358,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
@@ -3272,13 +3373,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
@@ -3287,13 +3388,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
@@ -3302,13 +3403,13 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
@@ -3317,13 +3418,13 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
@@ -3332,13 +3433,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
@@ -3347,13 +3448,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
@@ -3362,13 +3463,13 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
@@ -3377,13 +3478,13 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
@@ -3392,13 +3493,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
@@ -3407,13 +3508,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
@@ -3422,13 +3523,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
@@ -3437,13 +3538,13 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
@@ -3452,13 +3553,13 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
@@ -3467,13 +3568,13 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
@@ -3482,13 +3583,13 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
@@ -3497,13 +3598,13 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
@@ -3512,13 +3613,13 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
@@ -3527,13 +3628,13 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
@@ -3542,13 +3643,13 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
@@ -3557,13 +3658,13 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
@@ -3572,13 +3673,13 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5" t="s">
@@ -3587,13 +3688,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5" t="s">
@@ -3602,13 +3703,13 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
@@ -3617,13 +3718,13 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>220</v>
+        <v>274</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5" t="s">
@@ -3632,13 +3733,13 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>228</v>
+        <v>276</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
@@ -3647,13 +3748,13 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5" t="s">
@@ -3662,13 +3763,13 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B137" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>276</v>
+      <c r="C137" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
@@ -3677,13 +3778,13 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>220</v>
+        <v>281</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
@@ -3692,13 +3793,13 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
@@ -3707,13 +3808,13 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C140" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>282</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
@@ -3722,13 +3823,13 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5" t="s">
@@ -3737,13 +3838,13 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5" t="s">
@@ -3752,13 +3853,13 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5" t="s">
@@ -3767,13 +3868,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5" t="s">
@@ -3782,13 +3883,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
@@ -3797,13 +3898,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
@@ -3812,13 +3913,13 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>220</v>
+        <v>299</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
@@ -3827,13 +3928,13 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>282</v>
+        <v>301</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
@@ -3842,13 +3943,13 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>222</v>
+        <v>302</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
@@ -3857,13 +3958,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>276</v>
+        <v>303</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5" t="s">
@@ -3872,13 +3973,13 @@
     </row>
     <row r="151" spans="1:5" ht="15">
       <c r="A151" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>220</v>
+        <v>304</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
@@ -3887,13 +3988,13 @@
     </row>
     <row r="152" spans="1:5" ht="15">
       <c r="A152" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B152" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C152" s="9" t="s">
-        <v>282</v>
+      <c r="B152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
@@ -3902,13 +4003,13 @@
     </row>
     <row r="153" spans="1:5" ht="15">
       <c r="A153" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C153" s="9" t="s">
         <v>307</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
@@ -3917,13 +4018,13 @@
     </row>
     <row r="154" spans="1:5" ht="15">
       <c r="A154" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>280</v>
+        <v>309</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
@@ -3932,13 +4033,13 @@
     </row>
     <row r="155" spans="1:5" ht="15">
       <c r="A155" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>222</v>
+        <v>310</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
@@ -3947,13 +4048,13 @@
     </row>
     <row r="156" spans="1:5" ht="15">
       <c r="A156" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>308</v>
+      <c r="C156" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
@@ -3962,13 +4063,13 @@
     </row>
     <row r="157" spans="1:5" ht="16">
       <c r="A157" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>220</v>
+        <v>313</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
@@ -3977,23 +4078,307 @@
     </row>
     <row r="158" spans="1:5" ht="16">
       <c r="A158" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>282</v>
+        <v>315</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D161" s="10"/>
+      <c r="E161" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D162" s="10"/>
+      <c r="E162" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D163" s="10"/>
+      <c r="E163" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D164" s="10"/>
+      <c r="E164" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D165" s="10"/>
+      <c r="E165" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my workspace\GithubLocal\NewChange\LaborPro.Automation\resources\test-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE1D464-5A98-4877-BC1F-A48CCEC1553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="335">
   <si>
     <t>ID</t>
   </si>
@@ -411,15 +417,6 @@
     <t>Verify_that_Respective_records_is_deleted.</t>
   </si>
   <si>
-    <t>TC_058</t>
-  </si>
-  <si>
-    <t>Verify VolumeDriverValue Module</t>
-  </si>
-  <si>
-    <t>verify_volume_driver_value_scenario_and_standardsuombylocation_scenarios</t>
-  </si>
-  <si>
     <t>TC_059</t>
   </si>
   <si>
@@ -555,21 +552,12 @@
     <t>Verify UnitOfMeasure_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_that_user_should_not_have_access_for_Add_button</t>
-  </si>
-  <si>
     <t>TC_080</t>
   </si>
   <si>
-    <t>Verify_that_export_options_are_not_available_for_the_user</t>
-  </si>
-  <si>
     <t>TC_081</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_UOM_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>TC_082</t>
   </si>
   <si>
@@ -606,57 +594,33 @@
     <t>Verify Characteristic_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Characteristic</t>
-  </si>
-  <si>
     <t>TC_089</t>
   </si>
   <si>
-    <t>Verify_that_Export_options_are_available_for_the_User_in_Characteristic</t>
-  </si>
-  <si>
     <t>TC_090</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Characteristic_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>TC_091</t>
   </si>
   <si>
-    <t>Verify_edit_option_is_not_available_when_clicked_on_the_Hamburger_icon_in_the_Characteritics_page</t>
-  </si>
-  <si>
     <t>TC_092</t>
   </si>
   <si>
     <t>Verify Classifications_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Classifications</t>
-  </si>
-  <si>
     <t>TC_093</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Classifications_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>TC_094</t>
   </si>
   <si>
     <t>Verify Activity_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button_in_Activity</t>
-  </si>
-  <si>
     <t>TC_095</t>
   </si>
   <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Activity_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>TC_096</t>
   </si>
   <si>
@@ -666,33 +630,18 @@
     <t>TC_097</t>
   </si>
   <si>
-    <t>Verify_if_user_when_clicked_on_upper_right_corner_with_export_icon_following_options_displayed_Export_Attributes_Download_Attribute_Import_Template_Download_All_Locations_Attributes_Import_Template</t>
-  </si>
-  <si>
     <t>TC_098</t>
   </si>
   <si>
-    <t>Verify_if_user_clicked_on_Export_Attributes_a_popup_with_textbox_for_name_of_file_to_user</t>
-  </si>
-  <si>
     <t>TC_099</t>
   </si>
   <si>
-    <t>Verify_if_user_can_download_import_template_when_clicked_on_Download_Attribute_Import_Template</t>
-  </si>
-  <si>
     <t>TC_100</t>
   </si>
   <si>
-    <t>Verify_if_user_can_download_locations_attributes_template_when_clicked_on_Download_Locations_Attribute_Import_Template</t>
-  </si>
-  <si>
     <t>TC_101</t>
   </si>
   <si>
-    <t>Verify_edit_option_should_be_invisible</t>
-  </si>
-  <si>
     <t>TC_102</t>
   </si>
   <si>
@@ -978,24 +927,6 @@
     <t>TC_159</t>
   </si>
   <si>
-    <t>Verify_that_User_should_not_have_access_for_Add_button</t>
-  </si>
-  <si>
-    <t>Verify_that_Export_options_are_not_available_for_the_User</t>
-  </si>
-  <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_Department_details_must_not_be_editable</t>
-  </si>
-  <si>
-    <t>Verify_that_user_should_not_have_access_for_add_button</t>
-  </si>
-  <si>
-    <t>Verify_that_export_options_are_not_available_for_the_User</t>
-  </si>
-  <si>
-    <t>Verify_that_Delete_buttons_are_not_available_when_clicked_on_any_record_Also_VolumeDriver_details_must_not_be_editable</t>
-  </si>
-  <si>
     <t>Verify Rest_ViewOnly Module</t>
   </si>
   <si>
@@ -1023,64 +954,70 @@
     <t>Verify_copy_option_is_not_available</t>
   </si>
   <si>
-    <t>Verify ExistingIndustryStandard Module</t>
-  </si>
-  <si>
-    <t>Verify_add_button_is_available</t>
-  </si>
-  <si>
-    <t>Verify_existing_industry_standard_and_new_standard_options_are_available</t>
-  </si>
-  <si>
-    <t>Verify_industry_standard_data_is_available</t>
-  </si>
-  <si>
-    <t>Verify_import_department_sidebar_is_available</t>
-  </si>
-  <si>
-    <t>Verify_alert_message_when_no_industry_standard_is_selected</t>
-  </si>
-  <si>
     <t>TC_165</t>
   </si>
   <si>
-    <t>Verify_add_industry_standard</t>
+    <t>Verify Downloads Module</t>
+  </si>
+  <si>
+    <t>Verify_wim_file_exists</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_not_available</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_and_edit_option_is_not_avaiable</t>
+  </si>
+  <si>
+    <t>Verify_dialog_box_is_available</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_attribute_import_template</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
+  </si>
+  <si>
+    <t>Verify_edit_button_is_not_available</t>
   </si>
   <si>
     <t>TC_166</t>
   </si>
   <si>
-    <t>Verify_force_use_of_standard_id</t>
-  </si>
-  <si>
     <t>TC_167</t>
   </si>
   <si>
-    <t>Verify_different_industry_typical_department_option_is_available</t>
-  </si>
-  <si>
     <t>TC_168</t>
   </si>
   <si>
-    <t>Verify_industry_standard_details_are_available</t>
-  </si>
-  <si>
     <t>TC_169</t>
   </si>
   <si>
-    <t>Verify_industry_standard_details_sidebar_is_available</t>
-  </si>
-  <si>
     <t>TC_170</t>
   </si>
   <si>
-    <t>Verify_element_detail_page_is_available</t>
-  </si>
-  <si>
     <t>TC_171</t>
   </si>
   <si>
-    <t>Verify_standard_details_are_available_when_click_on_any_record</t>
+    <t>Verify VolumeDriverValueSet Module</t>
+  </si>
+  <si>
+    <t>Verify_new_volume_driver_value_set_popup</t>
+  </si>
+  <si>
+    <t>Verify_add_volume_driver_value_set_module_for_super_admin_user</t>
+  </si>
+  <si>
+    <t>Verify_name_is_empty</t>
+  </si>
+  <si>
+    <t>Verify_volume_driver_value_file_not_selected</t>
+  </si>
+  <si>
+    <t>Verify_name_is_duplicate</t>
+  </si>
+  <si>
+    <t>Verify_delete_volume_driver_value_set</t>
   </si>
   <si>
     <t>TC_172</t>
@@ -1089,20 +1026,17 @@
     <t>TC_173</t>
   </si>
   <si>
-    <t>TC_174</t>
-  </si>
-  <si>
-    <t>TC_175</t>
-  </si>
-  <si>
-    <t>TC_176</t>
+    <t>Verify_delete_button_is_disabled_in_default_volume_driver_value_set</t>
+  </si>
+  <si>
+    <t>Verify_volume_driver_value_export_option</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1149,6 +1083,12 @@
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1299,6 +1239,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1345,7 +1293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1377,9 +1325,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1411,6 +1377,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1586,24 +1570,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="1"/>
-    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1637,7 +1621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1654,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +1655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1688,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1705,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1722,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1739,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25">
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1756,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1773,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1790,7 +1774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1807,7 +1791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1824,7 +1808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1841,7 +1825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1858,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1875,7 +1859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1892,7 +1876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1909,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1926,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1943,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1960,7 +1944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1977,7 +1961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1994,7 +1978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25">
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -2011,7 +1995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -2028,7 +2012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -2045,7 +2029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2062,7 +2046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -2079,7 +2063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -2096,7 +2080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2113,7 +2097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2130,7 +2114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -2147,7 +2131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2164,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -2181,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2198,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -2215,7 +2199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2232,7 +2216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2249,7 +2233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2266,7 +2250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2283,7 +2267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2300,7 +2284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2317,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2334,7 +2318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2351,7 +2335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2368,7 +2352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2385,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2402,7 +2386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2419,7 +2403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2436,7 +2420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2453,7 +2437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2470,7 +2454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2487,7 +2471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2504,7 +2488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2521,7 +2505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2538,7 +2522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2555,7 +2539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="29">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2572,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2589,7 +2573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2599,64 +2583,62 @@
       <c r="C59" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>140</v>
@@ -2666,72 +2648,72 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>151</v>
@@ -2741,72 +2723,72 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>162</v>
@@ -2816,1567 +2798,1524 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="29">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="29">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="29">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="C79" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="29">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>323</v>
+        <v>182</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="29">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>184</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>324</v>
+        <v>179</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>320</v>
+        <v>182</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="29">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="29">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="29">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="29">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>209</v>
+        <v>196</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="29">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="43.5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>215</v>
+        <v>199</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>217</v>
+        <v>199</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="29">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="29">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>188</v>
+        <v>256</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>280</v>
+        <v>179</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15">
+    <row r="156" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>312</v>
+        <v>295</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16">
+    <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="16">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>286</v>
+        <v>297</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D160" s="5"/>
+        <v>301</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D160" s="10"/>
       <c r="E160" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D161" s="10"/>
       <c r="E161" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>185</v>
+        <v>307</v>
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="D164" s="10"/>
       <c r="E164" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="D165" s="10"/>
       <c r="E165" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="B166" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C166" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B177" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10" t="s">
+      <c r="D173" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="5" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my workspace\GithubLocal\NewChange\LaborPro.Automation\resources\test-data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE1D464-5A98-4877-BC1F-A48CCEC1553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="366">
   <si>
     <t>ID</t>
   </si>
@@ -435,6 +424,9 @@
     <t>TC_061</t>
   </si>
   <si>
+    <t>Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
+  </si>
+  <si>
     <t>TC_062</t>
   </si>
   <si>
@@ -471,9 +463,6 @@
     <t>TC_067</t>
   </si>
   <si>
-    <t>Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
-  </si>
-  <si>
     <t>TC_068</t>
   </si>
   <si>
@@ -552,30 +541,36 @@
     <t>Verify UnitOfMeasure_ViewOnly Module</t>
   </si>
   <si>
+    <t>Verify_add_button_is_not_available</t>
+  </si>
+  <si>
     <t>TC_080</t>
   </si>
   <si>
+    <t>Verify_export_options_is_not_available</t>
+  </si>
+  <si>
     <t>TC_081</t>
   </si>
   <si>
+    <t>Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
     <t>TC_082</t>
   </si>
   <si>
     <t>Verify VolumeDriver_ViewOnly Module</t>
   </si>
   <si>
-    <t>Verify_add_button_is_not_available</t>
-  </si>
-  <si>
     <t>TC_083</t>
   </si>
   <si>
+    <t>Verify_export_option_is_not_available</t>
+  </si>
+  <si>
     <t>TC_084</t>
   </si>
   <si>
-    <t>Verify_delete_button_and_edit_option_is_not_available</t>
-  </si>
-  <si>
     <t>TC_085</t>
   </si>
   <si>
@@ -597,12 +592,21 @@
     <t>TC_089</t>
   </si>
   <si>
+    <t>Verify_export_options_are_available</t>
+  </si>
+  <si>
     <t>TC_090</t>
   </si>
   <si>
+    <t>Verify_delete_button_is_not_available</t>
+  </si>
+  <si>
     <t>TC_091</t>
   </si>
   <si>
+    <t>Verify_edit_option_is_not_available</t>
+  </si>
+  <si>
     <t>TC_092</t>
   </si>
   <si>
@@ -612,6 +616,9 @@
     <t>TC_093</t>
   </si>
   <si>
+    <t>Verify_delete_button_and_edit_option_is_not_avaiable</t>
+  </si>
+  <si>
     <t>TC_094</t>
   </si>
   <si>
@@ -633,15 +640,27 @@
     <t>TC_098</t>
   </si>
   <si>
+    <t>Verify_dialog_box_is_available</t>
+  </si>
+  <si>
     <t>TC_099</t>
   </si>
   <si>
+    <t>Verify_user_is_able_to_download_attribute_import_template</t>
+  </si>
+  <si>
     <t>TC_100</t>
   </si>
   <si>
+    <t>Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
+  </si>
+  <si>
     <t>TC_101</t>
   </si>
   <si>
+    <t>Verify_edit_button_is_not_available</t>
+  </si>
+  <si>
     <t>TC_102</t>
   </si>
   <si>
@@ -651,9 +670,6 @@
     <t>TC_103</t>
   </si>
   <si>
-    <t>Verify_delete_button_is_not_available</t>
-  </si>
-  <si>
     <t>TC_104</t>
   </si>
   <si>
@@ -735,9 +751,6 @@
     <t>TC_119</t>
   </si>
   <si>
-    <t>Verify_export_options_are_available</t>
-  </si>
-  <si>
     <t>TC_120</t>
   </si>
   <si>
@@ -774,9 +787,6 @@
     <t>TC_128</t>
   </si>
   <si>
-    <t>Verify_export_options_is_not_available</t>
-  </si>
-  <si>
     <t>TC_129</t>
   </si>
   <si>
@@ -822,9 +832,6 @@
     <t>TC_138</t>
   </si>
   <si>
-    <t>Verify_edit_option_is_not_available</t>
-  </si>
-  <si>
     <t>TC_139</t>
   </si>
   <si>
@@ -927,30 +934,30 @@
     <t>TC_159</t>
   </si>
   <si>
+    <t>TC_160</t>
+  </si>
+  <si>
     <t>Verify Rest_ViewOnly Module</t>
   </si>
   <si>
-    <t>TC_160</t>
-  </si>
-  <si>
     <t>TC_161</t>
   </si>
   <si>
     <t>TC_162</t>
   </si>
   <si>
+    <t>Verify Allowance_ViewOnly Module</t>
+  </si>
+  <si>
     <t>TC_163</t>
   </si>
   <si>
-    <t>Verify Allowance_ViewOnly Module</t>
+    <t>Verify_user_is_able_to_download_allowance_report</t>
   </si>
   <si>
     <t>TC_164</t>
   </si>
   <si>
-    <t>Verify_user_is_able_to_download_allowance_report</t>
-  </si>
-  <si>
     <t>Verify_copy_option_is_not_available</t>
   </si>
   <si>
@@ -963,80 +970,155 @@
     <t>Verify_wim_file_exists</t>
   </si>
   <si>
-    <t>Verify_export_option_is_not_available</t>
-  </si>
-  <si>
-    <t>Verify_delete_button_and_edit_option_is_not_avaiable</t>
-  </si>
-  <si>
-    <t>Verify_dialog_box_is_available</t>
-  </si>
-  <si>
-    <t>Verify_user_is_able_to_download_attribute_import_template</t>
-  </si>
-  <si>
-    <t>Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
-  </si>
-  <si>
-    <t>Verify_edit_button_is_not_available</t>
-  </si>
-  <si>
     <t>TC_166</t>
   </si>
   <si>
+    <t>Verify VolumeDriverValueSet Module</t>
+  </si>
+  <si>
+    <t>Verify_new_volume_driver_value_set_popup</t>
+  </si>
+  <si>
     <t>TC_167</t>
   </si>
   <si>
+    <t>Verify_add_volume_driver_value_set_module_for_super_admin_user</t>
+  </si>
+  <si>
     <t>TC_168</t>
   </si>
   <si>
+    <t>Verify_name_is_empty</t>
+  </si>
+  <si>
     <t>TC_169</t>
   </si>
   <si>
+    <t>Verify_volume_driver_value_file_not_selected</t>
+  </si>
+  <si>
     <t>TC_170</t>
   </si>
   <si>
+    <t>Verify_name_is_duplicate</t>
+  </si>
+  <si>
     <t>TC_171</t>
   </si>
   <si>
-    <t>Verify VolumeDriverValueSet Module</t>
-  </si>
-  <si>
-    <t>Verify_new_volume_driver_value_set_popup</t>
-  </si>
-  <si>
-    <t>Verify_add_volume_driver_value_set_module_for_super_admin_user</t>
-  </si>
-  <si>
-    <t>Verify_name_is_empty</t>
-  </si>
-  <si>
-    <t>Verify_volume_driver_value_file_not_selected</t>
-  </si>
-  <si>
-    <t>Verify_name_is_duplicate</t>
-  </si>
-  <si>
     <t>Verify_delete_volume_driver_value_set</t>
   </si>
   <si>
     <t>TC_172</t>
   </si>
   <si>
+    <t>Verify_delete_button_is_disabled_in_default_volume_driver_value_set</t>
+  </si>
+  <si>
     <t>TC_173</t>
   </si>
   <si>
-    <t>Verify_delete_button_is_disabled_in_default_volume_driver_value_set</t>
-  </si>
-  <si>
     <t>Verify_volume_driver_value_export_option</t>
+  </si>
+  <si>
+    <t>Verify Location_AdminOnly Module</t>
+  </si>
+  <si>
+    <t>verify_add_button_is_available</t>
+  </si>
+  <si>
+    <t>verify_add_button_options_are_available</t>
+  </si>
+  <si>
+    <t>verify_new_locations_add_popup</t>
+  </si>
+  <si>
+    <t>verify_added_location_is_available</t>
+  </si>
+  <si>
+    <t>verify_new_locations_profile_add_popup</t>
+  </si>
+  <si>
+    <t>verify_import_locations_popup</t>
+  </si>
+  <si>
+    <t>verify_import_locations_profile_popup</t>
+  </si>
+  <si>
+    <t>verify_added_location_profile_is_available</t>
+  </si>
+  <si>
+    <t>verify_name_is_empty</t>
+  </si>
+  <si>
+    <t>verify_location_profile_listing_is_available</t>
+  </si>
+  <si>
+    <t>verify_checkboxes_are_available</t>
+  </si>
+  <si>
+    <t>verify_bulk_edit_option_is_available</t>
+  </si>
+  <si>
+    <t>verify_edit_location_options_are_available</t>
+  </si>
+  <si>
+    <t>verify_edit_location_sidebar_is_available</t>
+  </si>
+  <si>
+    <t>verify_location_profile_edit_options_are_available</t>
+  </si>
+  <si>
+    <t>TC_174</t>
+  </si>
+  <si>
+    <t>TC_175</t>
+  </si>
+  <si>
+    <t>TC_176</t>
+  </si>
+  <si>
+    <t>TC_177</t>
+  </si>
+  <si>
+    <t>TC_178</t>
+  </si>
+  <si>
+    <t>TC_179</t>
+  </si>
+  <si>
+    <t>TC_180</t>
+  </si>
+  <si>
+    <t>TC_181</t>
+  </si>
+  <si>
+    <t>TC_182</t>
+  </si>
+  <si>
+    <t>TC_183</t>
+  </si>
+  <si>
+    <t>TC_184</t>
+  </si>
+  <si>
+    <t>TC_185</t>
+  </si>
+  <si>
+    <t>TC_186</t>
+  </si>
+  <si>
+    <t>TC_187</t>
+  </si>
+  <si>
+    <t>TC_188</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1085,12 +1167,6 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1133,7 +1209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1160,6 +1236,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1239,14 +1321,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1293,7 +1367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1325,27 +1399,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1377,24 +1433,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1570,24 +1608,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1"/>
+    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1621,7 +1659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1638,7 +1676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1655,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1672,7 +1710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1689,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1706,7 +1744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1723,7 +1761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1740,7 +1778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1757,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1774,7 +1812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1791,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1808,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1825,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1842,7 +1880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1859,7 +1897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1876,7 +1914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1893,7 +1931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1910,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1927,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1944,7 +1982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1961,7 +1999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1978,7 +2016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="25">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -1995,7 +2033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -2012,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -2029,7 +2067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2046,7 +2084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -2063,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -2080,7 +2118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2097,7 +2135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2114,7 +2152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -2131,7 +2169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2148,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -2165,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2182,7 +2220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -2199,7 +2237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2216,7 +2254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2233,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2250,7 +2288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2267,7 +2305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2284,7 +2322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2301,7 +2339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2318,7 +2356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2335,7 +2373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2352,7 +2390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2369,7 +2407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2386,7 +2424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2403,7 +2441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2420,7 +2458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2437,7 +2475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2454,7 +2492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2471,7 +2509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2488,7 +2526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2505,7 +2543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2522,7 +2560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2539,7 +2577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="29">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2556,7 +2594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2573,7 +2611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2588,7 +2626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2603,7 +2641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -2611,104 +2649,104 @@
         <v>131</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
@@ -2723,7 +2761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
@@ -2738,7 +2776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>154</v>
       </c>
@@ -2753,7 +2791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>156</v>
       </c>
@@ -2768,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
         <v>158</v>
       </c>
@@ -2783,7 +2821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>160</v>
       </c>
@@ -2798,7 +2836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="29">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
@@ -2813,7 +2851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
         <v>165</v>
       </c>
@@ -2828,7 +2866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="29">
       <c r="A76" s="3" t="s">
         <v>167</v>
       </c>
@@ -2843,7 +2881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="29">
       <c r="A77" s="3" t="s">
         <v>169</v>
       </c>
@@ -2858,7 +2896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -2873,7 +2911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
@@ -2881,1441 +2919,1665 @@
         <v>174</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="C84" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="C87" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="C90" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>313</v>
+        <v>198</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>179</v>
+        <v>202</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>313</v>
+        <v>202</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>314</v>
+        <v>205</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>315</v>
+        <v>205</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>316</v>
+        <v>212</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>317</v>
+        <v>214</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="C109" s="5" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="3" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="3" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="3" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="3" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="C141" s="4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15">
       <c r="A150" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15">
       <c r="A151" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15">
       <c r="A152" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15">
       <c r="A153" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15">
       <c r="A154" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15">
       <c r="A155" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>286</v>
-      </c>
       <c r="C155" s="8" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="16">
       <c r="A156" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="16">
       <c r="A157" s="3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C160" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D160" s="10"/>
-      <c r="E160" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D161" s="10"/>
+      <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D162" s="10"/>
+        <v>309</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162" s="5"/>
       <c r="E162" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D163" s="10"/>
+        <v>311</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D163" s="5"/>
       <c r="E163" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D164" s="10"/>
+        <v>313</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D164" s="5"/>
       <c r="E164" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D165" s="10"/>
+        <v>315</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D165" s="5"/>
       <c r="E165" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="D168" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D166" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="B169" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B167" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C167" s="10" t="s">
+      <c r="C169" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D167" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C168" s="10" t="s">
+      <c r="D169" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D168" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C169" s="10" t="s">
+      <c r="B170" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D169" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C170" s="10" t="s">
+      <c r="D170" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D170" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C171" s="10" t="s">
+      <c r="B171" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D171" s="10" t="s">
+      <c r="D171" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E171" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B172" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C172" s="10" t="s">
+      <c r="B172" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D172" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B173" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C173" s="10" t="s">
+      <c r="B173" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="D173" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E173" s="5" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D174" s="12"/>
+      <c r="E174" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D175" s="12"/>
+      <c r="E175" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D176" s="12"/>
+      <c r="E176" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D177" s="12"/>
+      <c r="E177" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D178" s="12"/>
+      <c r="E178" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D179" s="12"/>
+      <c r="E179" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D180" s="12"/>
+      <c r="E180" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D181" s="12"/>
+      <c r="E181" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D182" s="12"/>
+      <c r="E182" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D183" s="12"/>
+      <c r="E183" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D184" s="12"/>
+      <c r="E184" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D185" s="12"/>
+      <c r="E185" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D186" s="12"/>
+      <c r="E186" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D187" s="12"/>
+      <c r="E187" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D188" s="12"/>
+      <c r="E188" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -10,6 +10,11 @@
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -976,49 +981,49 @@
     <t>Verify VolumeDriverValueSet Module</t>
   </si>
   <si>
-    <t>Verify_new_volume_driver_value_set_popup</t>
+    <t>Verify popup when click on new volume driver value set</t>
   </si>
   <si>
     <t>TC_167</t>
   </si>
   <si>
-    <t>Verify_add_volume_driver_value_set_module_for_super_admin_user</t>
+    <t>Verify create new volume driver value set</t>
   </si>
   <si>
     <t>TC_168</t>
   </si>
   <si>
-    <t>Verify_name_is_empty</t>
+    <t>Verify name input required validation message</t>
   </si>
   <si>
     <t>TC_169</t>
   </si>
   <si>
-    <t>Verify_volume_driver_value_file_not_selected</t>
+    <t>Verify Volume Driver Value file is required</t>
   </si>
   <si>
     <t>TC_170</t>
   </si>
   <si>
-    <t>Verify_name_is_duplicate</t>
+    <t>Verify duplicate message name already exist</t>
   </si>
   <si>
     <t>TC_171</t>
   </si>
   <si>
-    <t>Verify_delete_volume_driver_value_set</t>
+    <t>Verify delete volume driver value set</t>
   </si>
   <si>
     <t>TC_172</t>
   </si>
   <si>
-    <t>Verify_delete_button_is_disabled_in_default_volume_driver_value_set</t>
+    <t>Verify delete button disabled for default volume driver value set</t>
   </si>
   <si>
     <t>TC_173</t>
   </si>
   <si>
-    <t>Verify_volume_driver_value_export_option</t>
+    <t>Verify volume driver values export option is available</t>
   </si>
   <si>
     <t>Verify Location_AdminOnly Module</t>
@@ -1209,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1236,12 +1241,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1612,17 +1611,17 @@
   <dimension ref="A1:AMJ188"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+      <selection activeCell="E188" sqref="A168:E188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="88.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" style="1"/>
     <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="8.7265625" style="1"/>
+    <col min="6" max="1024" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4353,227 +4352,227 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="10" t="s">
+      <c r="A174" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="C174" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D174" s="12"/>
-      <c r="E174" s="11" t="s">
+      <c r="D174" s="10"/>
+      <c r="E174" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="C175" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D175" s="12"/>
-      <c r="E175" s="11" t="s">
+      <c r="D175" s="10"/>
+      <c r="E175" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="C176" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D176" s="12"/>
-      <c r="E176" s="11" t="s">
+      <c r="D176" s="10"/>
+      <c r="E176" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="10" t="s">
+      <c r="A177" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C177" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D177" s="12"/>
-      <c r="E177" s="11" t="s">
+      <c r="D177" s="10"/>
+      <c r="E177" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C178" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D178" s="12"/>
-      <c r="E178" s="11" t="s">
+      <c r="D178" s="10"/>
+      <c r="E178" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C179" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="D179" s="12"/>
-      <c r="E179" s="11" t="s">
+      <c r="D179" s="10"/>
+      <c r="E179" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B180" s="12" t="s">
+      <c r="B180" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="C180" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D180" s="12"/>
-      <c r="E180" s="11" t="s">
+      <c r="D180" s="10"/>
+      <c r="E180" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="C181" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D181" s="12"/>
-      <c r="E181" s="11" t="s">
+      <c r="D181" s="10"/>
+      <c r="E181" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="10" t="s">
+      <c r="A182" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C182" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="D182" s="12"/>
-      <c r="E182" s="11" t="s">
+      <c r="D182" s="10"/>
+      <c r="E182" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B183" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C183" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="D183" s="12"/>
-      <c r="E183" s="11" t="s">
+      <c r="D183" s="10"/>
+      <c r="E183" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B184" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C184" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D184" s="12"/>
-      <c r="E184" s="11" t="s">
+      <c r="D184" s="10"/>
+      <c r="E184" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="10" t="s">
+      <c r="A185" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C185" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="D185" s="12"/>
-      <c r="E185" s="11" t="s">
+      <c r="D185" s="10"/>
+      <c r="E185" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B186" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C186" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D186" s="12"/>
-      <c r="E186" s="11" t="s">
+      <c r="D186" s="10"/>
+      <c r="E186" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C187" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D187" s="12"/>
-      <c r="E187" s="11" t="s">
+      <c r="D187" s="10"/>
+      <c r="E187" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="10" t="s">
+      <c r="A188" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B188" s="12" t="s">
+      <c r="B188" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C188" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D188" s="12"/>
-      <c r="E188" s="11" t="s">
+      <c r="D188" s="10"/>
+      <c r="E188" s="10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,1129 +1,1127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
+    <sheet name="LaborPro" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="366">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>FeatureFileName</t>
-  </si>
-  <si>
-    <t>ScenarioName</t>
-  </si>
-  <si>
-    <t>SmokeTest</t>
-  </si>
-  <si>
-    <t>RegressionTest</t>
-  </si>
-  <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>Verify Allowances Module</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_name_empty_tag</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_name_already_exist</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_paid_time_empty</t>
-  </si>
-  <si>
-    <t>TC_005</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_paid_time_range_200_and_720</t>
-  </si>
-  <si>
-    <t>TC_006</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_paid_time_value_getting_added_when_value_is_supplied_in_range</t>
-  </si>
-  <si>
-    <t>TC_007</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_Incentive_Opportunity_Allowance_Percent</t>
-  </si>
-  <si>
-    <t>TC_008</t>
-  </si>
-  <si>
-    <t>verify_Add_allowance_Minor_Unavoidable_delay_percent_and_Additional_Percent_range_value_less_than_100</t>
-  </si>
-  <si>
-    <t>TC_009</t>
-  </si>
-  <si>
-    <t>Verify Locations Module</t>
-  </si>
-  <si>
-    <t>verify_add_location_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_010</t>
-  </si>
-  <si>
-    <t>verify_add_location_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>verify_add_location_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_012</t>
-  </si>
-  <si>
-    <t>verify_edit_location_blank_Details</t>
-  </si>
-  <si>
-    <t>TC_013</t>
-  </si>
-  <si>
-    <t>verify_edit_location_existing_Details</t>
-  </si>
-  <si>
-    <t>TC_014</t>
-  </si>
-  <si>
-    <t>verify_edit_location_correct_Details</t>
-  </si>
-  <si>
-    <t>TC_015</t>
-  </si>
-  <si>
-    <t>verify_delete_location</t>
-  </si>
-  <si>
-    <t>TC_016</t>
-  </si>
-  <si>
-    <t>Verify Standards Module</t>
-  </si>
-  <si>
-    <t>verify_add_new_standards_name_is_required</t>
-  </si>
-  <si>
-    <t>TC_017</t>
-  </si>
-  <si>
-    <t>verify_add_new_standards_Department_is_required</t>
-  </si>
-  <si>
-    <t>TC_018</t>
-  </si>
-  <si>
-    <t>verify_add_new_standards_name_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t>TC_019</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_select_standard_element_pop_up_is_open</t>
-  </si>
-  <si>
-    <t>TC_020</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_name_is_empty</t>
-  </si>
-  <si>
-    <t>TC_021</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_unit_of_measure_is_empty</t>
-  </si>
-  <si>
-    <t>TC_022</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_frequency_is_empty</t>
-  </si>
-  <si>
-    <t>TC_023</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_Units_of_measure_dropdown_showing_available_Units_of_measure</t>
-  </si>
-  <si>
-    <t>TC_024</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_time_must_be_greater_than_or_equal_to_zero</t>
-  </si>
-  <si>
-    <t>TC_025</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_by_adding_correct_record</t>
-  </si>
-  <si>
-    <t>TC_026</t>
-  </si>
-  <si>
-    <t>Verify Attribute Module</t>
-  </si>
-  <si>
-    <t>verify_that_new_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t>TC_027</t>
-  </si>
-  <si>
-    <t>verify_add_new_attribute_name_is_required</t>
-  </si>
-  <si>
-    <t>TC_028</t>
-  </si>
-  <si>
-    <t>verify_add_new_attribute_name_already_exist</t>
-  </si>
-  <si>
-    <t>TC_029</t>
-  </si>
-  <si>
-    <t>verify_add_new_attribute_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t>TC_030</t>
-  </si>
-  <si>
-    <t>Verify Departments Module</t>
-  </si>
-  <si>
-    <t>verify_add_Department_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_031</t>
-  </si>
-  <si>
-    <t>verify_add_Department_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_032</t>
-  </si>
-  <si>
-    <t>verify_add_Department_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_033</t>
-  </si>
-  <si>
-    <t>Verify UnitOfMeasure Module</t>
-  </si>
-  <si>
-    <t>verify_add_Units_Of_Measure_name_empty_tag</t>
-  </si>
-  <si>
-    <t>TC_034</t>
-  </si>
-  <si>
-    <t>verify_add_Units_Of_Measure_By_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t>TC_035</t>
-  </si>
-  <si>
-    <t>verify_add_units_of_measure_By_selecting_the_respective_Department</t>
-  </si>
-  <si>
-    <t>TC_036</t>
-  </si>
-  <si>
-    <t>verify_add_Units_Of_Measure_name_already_exists</t>
-  </si>
-  <si>
-    <t>TC_037</t>
-  </si>
-  <si>
-    <t>Verify Characteristics Module</t>
-  </si>
-  <si>
-    <t>verify_that_created_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t>TC_038</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_039</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_040</t>
-  </si>
-  <si>
-    <t>verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
-  </si>
-  <si>
-    <t>TC_041</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_042</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_set_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_043</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_set_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_044</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_set_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_045</t>
-  </si>
-  <si>
-    <t>Verify VolumeDrivers Module</t>
-  </si>
-  <si>
-    <t>verify_add_VolumeDriver_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_046</t>
-  </si>
-  <si>
-    <t>verify_add_VolumeDriver_when_if_Department_is_empty</t>
-  </si>
-  <si>
-    <t>TC_047</t>
-  </si>
-  <si>
-    <t>verify_add_VolumeDriver_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_048</t>
-  </si>
-  <si>
-    <t>verify_add_VolumeDriver_if_Name_already_exist_for_respective_department</t>
-  </si>
-  <si>
-    <t>TC_049</t>
-  </si>
-  <si>
-    <t>Verify VolumeDriverMapping Module</t>
-  </si>
-  <si>
-    <t>verify_that_new_created_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t>TC_050</t>
-  </si>
-  <si>
-    <t>Verify_that_if_Name_is_empty</t>
-  </si>
-  <si>
-    <t>TC_051</t>
-  </si>
-  <si>
-    <t>verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_052</t>
-  </si>
-  <si>
-    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown</t>
-  </si>
-  <si>
-    <t>TC_053</t>
-  </si>
-  <si>
-    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
-  </si>
-  <si>
-    <t>TC_054</t>
-  </si>
-  <si>
-    <t>Verify LocationMapping Module</t>
-  </si>
-  <si>
-    <t>verify_that_create_Department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t>TC_055</t>
-  </si>
-  <si>
-    <t>Verify_that_Click_on_Location_record_shows_Mapping.</t>
-  </si>
-  <si>
-    <t>TC_056</t>
-  </si>
-  <si>
-    <t>Verify_that_Respective_Volume_Driver_Mapping_Set_&amp;_Characteristic_Set_are_available_in_dropdown</t>
-  </si>
-  <si>
-    <t>TC_057</t>
-  </si>
-  <si>
-    <t>Verify_that_Respective_records_is_deleted.</t>
-  </si>
-  <si>
-    <t>TC_059</t>
-  </si>
-  <si>
-    <t>Verify LaborDrivers Module</t>
-  </si>
-  <si>
-    <t>Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t>TC_060</t>
-  </si>
-  <si>
-    <t>verify_add_LaborDrivers_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_061</t>
-  </si>
-  <si>
-    <t>Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
-  </si>
-  <si>
-    <t>TC_062</t>
-  </si>
-  <si>
-    <t>verify_add_LaborDrivers_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_063</t>
-  </si>
-  <si>
-    <t>Verify TaskGroups Module</t>
-  </si>
-  <si>
-    <t>Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t>TC_064</t>
-  </si>
-  <si>
-    <t>verify_add_TaskGroups_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_065</t>
-  </si>
-  <si>
-    <t>verify_add_TaskGroups_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_066</t>
-  </si>
-  <si>
-    <t>verify_add_TaskGroups_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_067</t>
-  </si>
-  <si>
-    <t>TC_068</t>
-  </si>
-  <si>
-    <t>Verify Tasks Module</t>
-  </si>
-  <si>
-    <t>Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t>TC_069</t>
-  </si>
-  <si>
-    <t>verify_add_Tasks_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_070</t>
-  </si>
-  <si>
-    <t>verify_add_Tasks_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_071</t>
-  </si>
-  <si>
-    <t>verify_add_Tasks_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_072</t>
-  </si>
-  <si>
-    <t>Verify_that_Respective_TaskGroup_is_available_in_Task</t>
-  </si>
-  <si>
-    <t>TC_073</t>
-  </si>
-  <si>
-    <t>Verify LaborPeriods Module</t>
-  </si>
-  <si>
-    <t>Verify_that_click_on_New_Labor_Period</t>
-  </si>
-  <si>
-    <t>TC_074</t>
-  </si>
-  <si>
-    <t>Verify_that_Name_Labor_Period_Type_Traffic_Pattern_Labor_Destribution_are_empty_and_click_on_Save_button</t>
-  </si>
-  <si>
-    <t>TC_075</t>
-  </si>
-  <si>
-    <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation</t>
-  </si>
-  <si>
-    <t>TC_076</t>
-  </si>
-  <si>
-    <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation_and_without_selection_any_value_for_Day_click_on_Save_Button</t>
-  </si>
-  <si>
-    <t>TC_077</t>
-  </si>
-  <si>
-    <t>Verify_that_if_provide_all_valid_data_select_Labor_Period_Type_as_Hours_of_Operation_select_any_value_for_Day_Sunday_click_on_Save_Button</t>
-  </si>
-  <si>
-    <t>TC_078</t>
-  </si>
-  <si>
-    <t>Verify_that_if_Labor_Period_Name_already_exist</t>
-  </si>
-  <si>
-    <t>TC_079</t>
-  </si>
-  <si>
-    <t>Verify UnitOfMeasure_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>Verify_add_button_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_080</t>
-  </si>
-  <si>
-    <t>Verify_export_options_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_081</t>
-  </si>
-  <si>
-    <t>Verify_delete_button_and_edit_option_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_082</t>
-  </si>
-  <si>
-    <t>Verify VolumeDriver_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_083</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_084</t>
-  </si>
-  <si>
-    <t>TC_085</t>
-  </si>
-  <si>
-    <t>Verify Department_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_086</t>
-  </si>
-  <si>
-    <t>TC_087</t>
-  </si>
-  <si>
-    <t>TC_088</t>
-  </si>
-  <si>
-    <t>Verify Characteristic_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_089</t>
-  </si>
-  <si>
-    <t>Verify_export_options_are_available</t>
-  </si>
-  <si>
-    <t>TC_090</t>
-  </si>
-  <si>
-    <t>Verify_delete_button_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_091</t>
-  </si>
-  <si>
-    <t>Verify_edit_option_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_092</t>
-  </si>
-  <si>
-    <t>Verify Classifications_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_093</t>
-  </si>
-  <si>
-    <t>Verify_delete_button_and_edit_option_is_not_avaiable</t>
-  </si>
-  <si>
-    <t>TC_094</t>
-  </si>
-  <si>
-    <t>Verify Activity_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_095</t>
-  </si>
-  <si>
-    <t>TC_096</t>
-  </si>
-  <si>
-    <t>Verify Attribute_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_097</t>
-  </si>
-  <si>
-    <t>TC_098</t>
-  </si>
-  <si>
-    <t>Verify_dialog_box_is_available</t>
-  </si>
-  <si>
-    <t>TC_099</t>
-  </si>
-  <si>
-    <t>Verify_user_is_able_to_download_attribute_import_template</t>
-  </si>
-  <si>
-    <t>TC_100</t>
-  </si>
-  <si>
-    <t>Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
-  </si>
-  <si>
-    <t>TC_101</t>
-  </si>
-  <si>
-    <t>Verify_edit_button_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_102</t>
-  </si>
-  <si>
-    <t>Verify ElementsUoM_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_103</t>
-  </si>
-  <si>
-    <t>TC_104</t>
-  </si>
-  <si>
-    <t>Verify Elements_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_105</t>
-  </si>
-  <si>
-    <t>Verify_select_checkboxes_are_not_available_for_multi_select</t>
-  </si>
-  <si>
-    <t>TC_106</t>
-  </si>
-  <si>
-    <t>Verify_export_options_is_available</t>
-  </si>
-  <si>
-    <t>TC_107</t>
-  </si>
-  <si>
-    <t>Verify_user_is_able_to_download_element_report</t>
-  </si>
-  <si>
-    <t>TC_108</t>
-  </si>
-  <si>
-    <t>Verify_select_multiple_elements_checkbox_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_109</t>
-  </si>
-  <si>
-    <t>Verify_edit_element_details_page_is_not_editable</t>
-  </si>
-  <si>
-    <t>TC_110</t>
-  </si>
-  <si>
-    <t>Verify_more_options_menu_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_111</t>
-  </si>
-  <si>
-    <t>Verify_simo_toggle_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_112</t>
-  </si>
-  <si>
-    <t>Verify_edit_element_step_details_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_113</t>
-  </si>
-  <si>
-    <t>TC_114</t>
-  </si>
-  <si>
-    <t>TC_115</t>
-  </si>
-  <si>
-    <t>Verify LaborDrivers_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_116</t>
-  </si>
-  <si>
-    <t>TC_117</t>
-  </si>
-  <si>
-    <t>TC_118</t>
-  </si>
-  <si>
-    <t>Verify Tasks_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_119</t>
-  </si>
-  <si>
-    <t>TC_120</t>
-  </si>
-  <si>
-    <t>TC_121</t>
-  </si>
-  <si>
-    <t>Verify TaskGroups_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_122</t>
-  </si>
-  <si>
-    <t>TC_123</t>
-  </si>
-  <si>
-    <t>TC_124</t>
-  </si>
-  <si>
-    <t>Verify LaborPeriods_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_125</t>
-  </si>
-  <si>
-    <t>TC_126</t>
-  </si>
-  <si>
-    <t>TC_127</t>
-  </si>
-  <si>
-    <t>Verify JobClasses_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_128</t>
-  </si>
-  <si>
-    <t>TC_129</t>
-  </si>
-  <si>
-    <t>TC_130</t>
-  </si>
-  <si>
-    <t>Verify LaborCategories_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_131</t>
-  </si>
-  <si>
-    <t>TC_132</t>
-  </si>
-  <si>
-    <t>TC_133</t>
-  </si>
-  <si>
-    <t>Verify LocationMapping_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_134</t>
-  </si>
-  <si>
-    <t>TC_135</t>
-  </si>
-  <si>
-    <t>Verify_save_button_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_136</t>
-  </si>
-  <si>
-    <t>Verify_details_are_not_editable</t>
-  </si>
-  <si>
-    <t>TC_137</t>
-  </si>
-  <si>
-    <t>Verify Standard_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_138</t>
-  </si>
-  <si>
-    <t>TC_139</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_available</t>
-  </si>
-  <si>
-    <t>TC_140</t>
-  </si>
-  <si>
-    <t>Verify_download_report_option_is_available</t>
-  </si>
-  <si>
-    <t>TC_141</t>
-  </si>
-  <si>
-    <t>Verify_add_button_is_not_available_for_standard_element</t>
-  </si>
-  <si>
-    <t>TC_142</t>
-  </si>
-  <si>
-    <t>Verify_add_option_is_not_available_for_standard_group</t>
-  </si>
-  <si>
-    <t>TC_143</t>
-  </si>
-  <si>
-    <t>Verify_tick_option_in_existing_standard_element_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_144</t>
-  </si>
-  <si>
-    <t>Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
-  </si>
-  <si>
-    <t>TC_145</t>
-  </si>
-  <si>
-    <t>Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
-  </si>
-  <si>
-    <t>TC_146</t>
-  </si>
-  <si>
-    <t>Verify VolumeDriverMapping_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_147</t>
-  </si>
-  <si>
-    <t>TC_148</t>
-  </si>
-  <si>
-    <t>TC_149</t>
-  </si>
-  <si>
-    <t>TC_150</t>
-  </si>
-  <si>
-    <t>Verify Locations_ViewOnly module</t>
-  </si>
-  <si>
-    <t>TC_151</t>
-  </si>
-  <si>
-    <t>TC_152</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_available_for_location_profile</t>
-  </si>
-  <si>
-    <t>TC_153</t>
-  </si>
-  <si>
-    <t>TC_154</t>
-  </si>
-  <si>
-    <t>TC_155</t>
-  </si>
-  <si>
-    <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_156</t>
-  </si>
-  <si>
-    <t>Verify VolumeDriverValue_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_157</t>
-  </si>
-  <si>
-    <t>TC_158</t>
-  </si>
-  <si>
-    <t>Verify LaborStandard_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_159</t>
-  </si>
-  <si>
-    <t>TC_160</t>
-  </si>
-  <si>
-    <t>Verify Rest_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_161</t>
-  </si>
-  <si>
-    <t>TC_162</t>
-  </si>
-  <si>
-    <t>Verify Allowance_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_163</t>
-  </si>
-  <si>
-    <t>Verify_user_is_able_to_download_allowance_report</t>
-  </si>
-  <si>
-    <t>TC_164</t>
-  </si>
-  <si>
-    <t>Verify_copy_option_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_165</t>
-  </si>
-  <si>
-    <t>Verify Downloads Module</t>
-  </si>
-  <si>
-    <t>Verify_wim_file_exists</t>
-  </si>
-  <si>
-    <t>TC_166</t>
-  </si>
-  <si>
-    <t>Verify VolumeDriverValueSet Module</t>
-  </si>
-  <si>
-    <t>Verify popup when click on new volume driver value set</t>
-  </si>
-  <si>
-    <t>TC_167</t>
-  </si>
-  <si>
-    <t>Verify create new volume driver value set</t>
-  </si>
-  <si>
-    <t>TC_168</t>
-  </si>
-  <si>
-    <t>Verify name input required validation message</t>
-  </si>
-  <si>
-    <t>TC_169</t>
-  </si>
-  <si>
-    <t>Verify Volume Driver Value file is required</t>
-  </si>
-  <si>
-    <t>TC_170</t>
-  </si>
-  <si>
-    <t>Verify duplicate message name already exist</t>
-  </si>
-  <si>
-    <t>TC_171</t>
-  </si>
-  <si>
-    <t>Verify delete volume driver value set</t>
-  </si>
-  <si>
-    <t>TC_172</t>
-  </si>
-  <si>
-    <t>Verify delete button disabled for default volume driver value set</t>
-  </si>
-  <si>
-    <t>TC_173</t>
-  </si>
-  <si>
-    <t>Verify volume driver values export option is available</t>
-  </si>
-  <si>
-    <t>Verify Location_AdminOnly Module</t>
-  </si>
-  <si>
-    <t>verify_add_button_is_available</t>
-  </si>
-  <si>
-    <t>verify_add_button_options_are_available</t>
-  </si>
-  <si>
-    <t>verify_new_locations_add_popup</t>
-  </si>
-  <si>
-    <t>verify_added_location_is_available</t>
-  </si>
-  <si>
-    <t>verify_new_locations_profile_add_popup</t>
-  </si>
-  <si>
-    <t>verify_import_locations_popup</t>
-  </si>
-  <si>
-    <t>verify_import_locations_profile_popup</t>
-  </si>
-  <si>
-    <t>verify_added_location_profile_is_available</t>
-  </si>
-  <si>
-    <t>verify_name_is_empty</t>
-  </si>
-  <si>
-    <t>verify_location_profile_listing_is_available</t>
-  </si>
-  <si>
-    <t>verify_checkboxes_are_available</t>
-  </si>
-  <si>
-    <t>verify_bulk_edit_option_is_available</t>
-  </si>
-  <si>
-    <t>verify_edit_location_options_are_available</t>
-  </si>
-  <si>
-    <t>verify_edit_location_sidebar_is_available</t>
-  </si>
-  <si>
-    <t>verify_location_profile_edit_options_are_available</t>
-  </si>
-  <si>
-    <t>TC_174</t>
-  </si>
-  <si>
-    <t>TC_175</t>
-  </si>
-  <si>
-    <t>TC_176</t>
-  </si>
-  <si>
-    <t>TC_177</t>
-  </si>
-  <si>
-    <t>TC_178</t>
-  </si>
-  <si>
-    <t>TC_179</t>
-  </si>
-  <si>
-    <t>TC_180</t>
-  </si>
-  <si>
-    <t>TC_181</t>
-  </si>
-  <si>
-    <t>TC_182</t>
-  </si>
-  <si>
-    <t>TC_183</t>
-  </si>
-  <si>
-    <t>TC_184</t>
-  </si>
-  <si>
-    <t>TC_185</t>
-  </si>
-  <si>
-    <t>TC_186</t>
-  </si>
-  <si>
-    <t>TC_187</t>
-  </si>
-  <si>
-    <t>TC_188</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="364">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FeatureFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScenarioName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmokeTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegressionTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Allowances Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_name_empty_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_name_already_exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_paid_time_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_paid_time_range_200_and_720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_paid_time_value_getting_added_when_value_is_supplied_in_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_Incentive_Opportunity_Allowance_Percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_Add_allowance_Minor_Unavoidable_delay_percent_and_Additional_Percent_range_value_less_than_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Locations Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_location_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_location_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_location_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_edit_location_blank_Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_edit_location_existing_Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_edit_location_correct_Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_delete_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Standards Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_standards_name_is_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_standards_Department_is_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_standards_name_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_select_standard_element_pop_up_is_open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_name_is_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_unit_of_measure_is_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_frequency_is_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_Units_of_measure_dropdown_showing_available_Units_of_measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_time_must_be_greater_than_or_equal_to_zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_by_adding_correct_record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Attribute Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_that_new_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_attribute_name_is_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_attribute_name_already_exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_attribute_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Departments Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Department_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Department_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Department_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify UnitOfMeasure Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Units_Of_Measure_name_empty_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Units_Of_Measure_By_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_units_of_measure_By_selecting_the_respective_Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Units_Of_Measure_name_already_exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Characteristics Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_that_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDrivers Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_VolumeDriver_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_VolumeDriver_when_if_Department_is_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_VolumeDriver_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_VolumeDriver_if_Name_already_exist_for_respective_department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDriverMapping Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_that_new_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_Name_is_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LocationMapping Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_that_create_Department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Click_on_Location_record_shows_Mapping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Respective_Volume_Driver_Mapping_Set_&amp;_Characteristic_Set_are_available_in_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Respective_records_is_deleted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborDrivers Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_LaborDrivers_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_LaborDrivers_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify TaskGroups Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_TaskGroups_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_TaskGroups_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_TaskGroups_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Tasks Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Tasks_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Tasks_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Tasks_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Respective_TaskGroup_is_available_in_Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborPeriods Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_click_on_New_Labor_Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Name_Labor_Period_Type_Traffic_Pattern_Labor_Destribution_are_empty_and_click_on_Save_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation_and_without_selection_any_value_for_Day_click_on_Save_Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_provide_all_valid_data_select_Labor_Period_Type_as_Hours_of_Operation_select_any_value_for_Day_Sunday_click_on_Save_Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_Labor_Period_Name_already_exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify UnitOfMeasure_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_add_button_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_options_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDriver_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_option_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Department_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Characteristic_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_options_are_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_delete_button_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Classifications_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_delete_button_and_edit_option_is_not_avaiable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Activity_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Attribute_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_dialog_box_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_user_is_able_to_download_attribute_import_template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_edit_button_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify ElementsUoM_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Elements_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_select_checkboxes_are_not_available_for_multi_select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_options_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_user_is_able_to_download_element_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_select_multiple_elements_checkbox_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_edit_element_details_page_is_not_editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_more_options_menu_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_simo_toggle_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_edit_element_step_details_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborDrivers_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Tasks_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify TaskGroups_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborPeriods_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify JobClasses_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborCategories_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LocationMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_save_button_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_details_are_not_editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Standard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_option_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_download_report_option_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_add_button_is_not_available_for_standard_element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_add_option_is_not_available_for_standard_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_tick_option_in_existing_standard_element_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDriverMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Locations_ViewOnly module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_mapping_option_between_location_and_department_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDriverValue_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborStandard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Rest_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Allowance_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_user_is_able_to_download_allowance_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_copy_option_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Downloads Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_wim_file_exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDriverValueSet Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify popup when click on new volume driver value set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify create new volume driver value set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify name input required validation message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Volume Driver Value file is required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify duplicate message name already exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify delete volume driver value set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify delete button disabled for default volume driver value set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify volume driver values export option is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Location_AdminOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify add button is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify add button options are available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify new locations add popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify added location is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify new locations profile add popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify import locations popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify import locations profile popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify added location profile is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify location profile listing is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify location profile edit options are available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify checkboxes are available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify bulk edit option is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify edit location options are available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify edit location sidebar is available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1132,7 +1130,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1150,6 +1163,7 @@
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1188,70 +1202,96 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1310,321 +1350,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF263238"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ188"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="E188" sqref="A168:E188"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B190" activeCellId="0" sqref="B190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="1"/>
-    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="11.54296875" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="88.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1675,7 +1427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1692,7 +1444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1709,7 +1461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1726,7 +1478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1743,7 +1495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1760,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25">
+    <row r="9" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1777,7 +1529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1794,7 +1546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1811,7 +1563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1828,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1862,7 +1614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1879,7 +1631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1896,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1913,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1930,7 +1682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1947,7 +1699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1964,7 +1716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1981,7 +1733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1998,7 +1750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -2015,7 +1767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25">
+    <row r="24" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -2032,7 +1784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -2049,7 +1801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -2066,7 +1818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2083,7 +1835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -2100,7 +1852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -2117,7 +1869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2134,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2151,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -2168,7 +1920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2185,7 +1937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -2202,7 +1954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2219,7 +1971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -2236,7 +1988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2253,7 +2005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2270,7 +2022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2287,7 +2039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2304,7 +2056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2321,7 +2073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2338,7 +2090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2355,7 +2107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2372,7 +2124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2389,7 +2141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2406,7 +2158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2423,7 +2175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2440,7 +2192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2457,7 +2209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2474,7 +2226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2491,7 +2243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2508,7 +2260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2525,7 +2277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2542,7 +2294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2559,7 +2311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2576,7 +2328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="29">
+    <row r="57" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2593,7 +2345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2610,7 +2362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2625,7 +2377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2640,7 +2392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -2655,7 +2407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
@@ -2670,7 +2422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -2685,7 +2437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
@@ -2700,7 +2452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
         <v>144</v>
       </c>
@@ -2715,7 +2467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
         <v>146</v>
       </c>
@@ -2730,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
         <v>148</v>
       </c>
@@ -2745,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
@@ -2760,7 +2512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
@@ -2775,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
         <v>154</v>
       </c>
@@ -2790,7 +2542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>156</v>
       </c>
@@ -2805,7 +2557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>158</v>
       </c>
@@ -2820,7 +2572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>160</v>
       </c>
@@ -2835,7 +2587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="29">
+    <row r="74" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
@@ -2850,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
         <v>165</v>
       </c>
@@ -2865,7 +2617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="29">
+    <row r="76" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
         <v>167</v>
       </c>
@@ -2880,7 +2632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="29">
+    <row r="77" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
         <v>169</v>
       </c>
@@ -2895,7 +2647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -2910,7 +2662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
@@ -2925,7 +2677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -2940,7 +2692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
         <v>178</v>
       </c>
@@ -2955,7 +2707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
         <v>180</v>
       </c>
@@ -2970,7 +2722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>182</v>
       </c>
@@ -2985,7 +2737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>184</v>
       </c>
@@ -3000,7 +2752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
         <v>185</v>
       </c>
@@ -3015,7 +2767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>187</v>
       </c>
@@ -3030,7 +2782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>188</v>
       </c>
@@ -3045,7 +2797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>189</v>
       </c>
@@ -3060,7 +2812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
         <v>191</v>
       </c>
@@ -3075,7 +2827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
         <v>193</v>
       </c>
@@ -3090,7 +2842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
         <v>195</v>
       </c>
@@ -3105,7 +2857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
         <v>197</v>
       </c>
@@ -3120,7 +2872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
         <v>199</v>
       </c>
@@ -3135,7 +2887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
         <v>201</v>
       </c>
@@ -3150,7 +2902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
         <v>203</v>
       </c>
@@ -3165,7 +2917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
         <v>204</v>
       </c>
@@ -3180,7 +2932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
         <v>206</v>
       </c>
@@ -3195,7 +2947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
         <v>207</v>
       </c>
@@ -3210,7 +2962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
         <v>209</v>
       </c>
@@ -3225,7 +2977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
         <v>211</v>
       </c>
@@ -3240,7 +2992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
         <v>213</v>
       </c>
@@ -3255,7 +3007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
         <v>215</v>
       </c>
@@ -3270,7 +3022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
         <v>217</v>
       </c>
@@ -3285,7 +3037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
         <v>218</v>
       </c>
@@ -3300,7 +3052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
         <v>220</v>
       </c>
@@ -3315,7 +3067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
         <v>222</v>
       </c>
@@ -3330,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
         <v>224</v>
       </c>
@@ -3345,7 +3097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
         <v>226</v>
       </c>
@@ -3360,7 +3112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
         <v>228</v>
       </c>
@@ -3375,7 +3127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
         <v>230</v>
       </c>
@@ -3390,7 +3142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
         <v>232</v>
       </c>
@@ -3405,7 +3157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
         <v>234</v>
       </c>
@@ -3420,7 +3172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
         <v>236</v>
       </c>
@@ -3435,7 +3187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
         <v>237</v>
       </c>
@@ -3450,7 +3202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
         <v>238</v>
       </c>
@@ -3465,7 +3217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
         <v>240</v>
       </c>
@@ -3480,7 +3232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
         <v>241</v>
       </c>
@@ -3495,7 +3247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
         <v>242</v>
       </c>
@@ -3510,7 +3262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
         <v>244</v>
       </c>
@@ -3525,7 +3277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
         <v>245</v>
       </c>
@@ -3540,7 +3292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
         <v>246</v>
       </c>
@@ -3555,7 +3307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
         <v>248</v>
       </c>
@@ -3570,7 +3322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
         <v>249</v>
       </c>
@@ -3585,7 +3337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
         <v>250</v>
       </c>
@@ -3600,7 +3352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
         <v>252</v>
       </c>
@@ -3615,7 +3367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
         <v>253</v>
       </c>
@@ -3630,7 +3382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
         <v>254</v>
       </c>
@@ -3645,7 +3397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
         <v>256</v>
       </c>
@@ -3660,7 +3412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
         <v>257</v>
       </c>
@@ -3675,7 +3427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
         <v>258</v>
       </c>
@@ -3690,7 +3442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
         <v>260</v>
       </c>
@@ -3705,7 +3457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
         <v>261</v>
       </c>
@@ -3720,7 +3472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
         <v>262</v>
       </c>
@@ -3735,7 +3487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
         <v>264</v>
       </c>
@@ -3750,7 +3502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
         <v>265</v>
       </c>
@@ -3765,7 +3517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
         <v>267</v>
       </c>
@@ -3780,7 +3532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
         <v>269</v>
       </c>
@@ -3795,7 +3547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
         <v>271</v>
       </c>
@@ -3810,7 +3562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
         <v>272</v>
       </c>
@@ -3825,7 +3577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
         <v>274</v>
       </c>
@@ -3840,7 +3592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
         <v>276</v>
       </c>
@@ -3855,7 +3607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
         <v>278</v>
       </c>
@@ -3870,7 +3622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
         <v>280</v>
       </c>
@@ -3885,7 +3637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
         <v>282</v>
       </c>
@@ -3900,7 +3652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
         <v>284</v>
       </c>
@@ -3915,7 +3667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
         <v>286</v>
       </c>
@@ -3930,7 +3682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
         <v>288</v>
       </c>
@@ -3945,7 +3697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
         <v>289</v>
       </c>
@@ -3960,7 +3712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
         <v>290</v>
       </c>
@@ -3975,7 +3727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
         <v>291</v>
       </c>
@@ -3990,7 +3742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
         <v>293</v>
       </c>
@@ -4005,7 +3757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
         <v>294</v>
       </c>
@@ -4020,7 +3772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
         <v>296</v>
       </c>
@@ -4035,7 +3787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
         <v>297</v>
       </c>
@@ -4050,7 +3802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
         <v>298</v>
       </c>
@@ -4065,7 +3817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16">
+    <row r="156" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
         <v>300</v>
       </c>
@@ -4080,7 +3832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16">
+    <row r="157" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
         <v>302</v>
       </c>
@@ -4095,7 +3847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
         <v>303</v>
       </c>
@@ -4110,7 +3862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
         <v>305</v>
       </c>
@@ -4125,7 +3877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
         <v>306</v>
       </c>
@@ -4140,7 +3892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
         <v>308</v>
       </c>
@@ -4155,7 +3907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
         <v>309</v>
       </c>
@@ -4170,7 +3922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
         <v>311</v>
       </c>
@@ -4185,7 +3937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
         <v>313</v>
       </c>
@@ -4200,7 +3952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
         <v>315</v>
       </c>
@@ -4215,7 +3967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
         <v>318</v>
       </c>
@@ -4232,7 +3984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
         <v>321</v>
       </c>
@@ -4249,7 +4001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
         <v>323</v>
       </c>
@@ -4266,7 +4018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
         <v>325</v>
       </c>
@@ -4283,7 +4035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
         <v>327</v>
       </c>
@@ -4300,7 +4052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
         <v>329</v>
       </c>
@@ -4317,7 +4069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
         <v>331</v>
       </c>
@@ -4334,7 +4086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
         <v>333</v>
       </c>
@@ -4351,235 +4103,221 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C181" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B174" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C174" s="10" t="s">
+      <c r="D181" s="5"/>
+      <c r="E181" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="3" t="s">
+      <c r="C182" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B176" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="3" t="s">
+      <c r="D182" s="5"/>
+      <c r="E182" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B177" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="3" t="s">
+      <c r="B183" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C183" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B178" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="3" t="s">
+      <c r="D183" s="5"/>
+      <c r="E183" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="3" t="s">
+      <c r="B184" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B180" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="3" t="s">
+      <c r="D184" s="5"/>
+      <c r="E184" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B181" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="3" t="s">
+      <c r="B185" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C185" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B182" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D182" s="10"/>
-      <c r="E182" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="3" t="s">
+      <c r="D185" s="5"/>
+      <c r="E185" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B183" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="3" t="s">
+      <c r="B186" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B184" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="3" t="s">
+      <c r="D186" s="5"/>
+      <c r="E186" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B185" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="3" t="s">
+      <c r="B187" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B186" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10" t="s">
+      <c r="D187" s="5"/>
+      <c r="E187" s="5" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,1127 +1,1145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="LaborPro" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="364">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FeatureFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScenarioName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmokeTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegressionTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Allowances Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_name_empty_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_name_already_exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_paid_time_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_paid_time_range_200_and_720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_paid_time_value_getting_added_when_value_is_supplied_in_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_Incentive_Opportunity_Allowance_Percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_Add_allowance_Minor_Unavoidable_delay_percent_and_Additional_Percent_range_value_less_than_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Locations Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_location_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_location_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_location_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_edit_location_blank_Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_edit_location_existing_Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_edit_location_correct_Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_delete_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Standards Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_standards_name_is_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_standards_Department_is_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_standards_name_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_select_standard_element_pop_up_is_open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_name_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_unit_of_measure_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_frequency_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_Units_of_measure_dropdown_showing_available_Units_of_measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_time_must_be_greater_than_or_equal_to_zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_by_adding_correct_record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Attribute Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_new_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_attribute_name_is_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_attribute_name_already_exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_attribute_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Departments Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Department_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Department_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Department_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify UnitOfMeasure Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Units_Of_Measure_name_empty_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Units_Of_Measure_By_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_units_of_measure_By_selecting_the_respective_Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Units_Of_Measure_name_already_exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Characteristics Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_created_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDrivers Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_when_if_Department_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_if_Name_already_exist_for_respective_department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverMapping Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_new_created_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_Name_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LocationMapping Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_create_Department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_Location_record_shows_Mapping.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Respective_Volume_Driver_Mapping_Set_&amp;_Characteristic_Set_are_available_in_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Respective_records_is_deleted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborDrivers Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_LaborDrivers_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_LaborDrivers_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify TaskGroups Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_TaskGroups_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_TaskGroups_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_TaskGroups_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Tasks Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Tasks_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Tasks_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Tasks_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Respective_TaskGroup_is_available_in_Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborPeriods Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_click_on_New_Labor_Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Name_Labor_Period_Type_Traffic_Pattern_Labor_Destribution_are_empty_and_click_on_Save_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation_and_without_selection_any_value_for_Day_click_on_Save_Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_provide_all_valid_data_select_Labor_Period_Type_as_Hours_of_Operation_select_any_value_for_Day_Sunday_click_on_Save_Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_Labor_Period_Name_already_exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify UnitOfMeasure_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_add_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_options_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_delete_button_and_edit_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriver_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Department_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Characteristic_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_options_are_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_delete_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Classifications_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_delete_button_and_edit_option_is_not_avaiable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Activity_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Attribute_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_dialog_box_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_attribute_import_template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify ElementsUoM_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Elements_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_select_checkboxes_are_not_available_for_multi_select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_options_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_element_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_select_multiple_elements_checkbox_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_element_details_page_is_not_editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_more_options_menu_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_simo_toggle_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_element_step_details_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborDrivers_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Tasks_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify TaskGroups_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborPeriods_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify JobClasses_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborCategories_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LocationMapping_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_save_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_details_are_not_editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Standard_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_download_report_option_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_add_button_is_not_available_for_standard_element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_add_option_is_not_available_for_standard_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_tick_option_in_existing_standard_element_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverMapping_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Locations_ViewOnly module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_is_available_for_location_profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_mapping_option_between_location_and_department_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverValue_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborStandard_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Rest_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Allowance_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_allowance_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_copy_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Downloads Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_wim_file_exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverValueSet Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify popup when click on new volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify create new volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify name input required validation message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Volume Driver Value file is required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify duplicate message name already exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify delete volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify delete button disabled for default volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify volume driver values export option is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Location_AdminOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify add button is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify add button options are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify new locations add popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify added location is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify new locations profile add popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify import locations popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify import locations profile popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify added location profile is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify location profile listing is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify location profile edit options are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify checkboxes are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify bulk edit option is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify edit location options are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify edit location sidebar is available</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="373">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FeatureFileName</t>
+  </si>
+  <si>
+    <t>ScenarioName</t>
+  </si>
+  <si>
+    <t>SmokeTest</t>
+  </si>
+  <si>
+    <t>RegressionTest</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>Verify Allowances Module</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_name_empty_tag</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_name_already_exist</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_paid_time_empty</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_paid_time_range_200_and_720</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_paid_time_value_getting_added_when_value_is_supplied_in_range</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_Incentive_Opportunity_Allowance_Percent</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>verify_Add_allowance_Minor_Unavoidable_delay_percent_and_Additional_Percent_range_value_less_than_100</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>Verify Locations Module</t>
+  </si>
+  <si>
+    <t>verify_add_location_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>verify_add_location_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>verify_add_location_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>verify_edit_location_blank_Details</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>verify_edit_location_existing_Details</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>verify_edit_location_correct_Details</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>verify_delete_location</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>Verify Standards Module</t>
+  </si>
+  <si>
+    <t>verify_add_new_standards_name_is_required</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>verify_add_new_standards_Department_is_required</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>verify_add_new_standards_name_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_select_standard_element_pop_up_is_open</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_name_is_empty</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_unit_of_measure_is_empty</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_frequency_is_empty</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_Units_of_measure_dropdown_showing_available_Units_of_measure</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_time_must_be_greater_than_or_equal_to_zero</t>
+  </si>
+  <si>
+    <t>TC_025</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_by_adding_correct_record</t>
+  </si>
+  <si>
+    <t>TC_026</t>
+  </si>
+  <si>
+    <t>Verify Attribute Module</t>
+  </si>
+  <si>
+    <t>verify_that_new_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>TC_027</t>
+  </si>
+  <si>
+    <t>verify_add_new_attribute_name_is_required</t>
+  </si>
+  <si>
+    <t>TC_028</t>
+  </si>
+  <si>
+    <t>verify_add_new_attribute_name_already_exist</t>
+  </si>
+  <si>
+    <t>TC_029</t>
+  </si>
+  <si>
+    <t>verify_add_new_attribute_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_030</t>
+  </si>
+  <si>
+    <t>Verify Departments Module</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_031</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_032</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_033</t>
+  </si>
+  <si>
+    <t>Verify UnitOfMeasure Module</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_name_empty_tag</t>
+  </si>
+  <si>
+    <t>TC_034</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_By_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_035</t>
+  </si>
+  <si>
+    <t>verify_add_units_of_measure_By_selecting_the_respective_Department</t>
+  </si>
+  <si>
+    <t>TC_036</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_name_already_exists</t>
+  </si>
+  <si>
+    <t>TC_037</t>
+  </si>
+  <si>
+    <t>Verify Characteristics Module</t>
+  </si>
+  <si>
+    <t>verify_that_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>TC_038</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_039</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_040</t>
+  </si>
+  <si>
+    <t>verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
+  </si>
+  <si>
+    <t>TC_041</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_042</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_043</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_044</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_045</t>
+  </si>
+  <si>
+    <t>Verify VolumeDrivers Module</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_046</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_if_Department_is_empty</t>
+  </si>
+  <si>
+    <t>TC_047</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_048</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_if_Name_already_exist_for_respective_department</t>
+  </si>
+  <si>
+    <t>TC_049</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverMapping Module</t>
+  </si>
+  <si>
+    <t>verify_that_new_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>TC_050</t>
+  </si>
+  <si>
+    <t>Verify_that_if_Name_is_empty</t>
+  </si>
+  <si>
+    <t>TC_051</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_052</t>
+  </si>
+  <si>
+    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown</t>
+  </si>
+  <si>
+    <t>TC_053</t>
+  </si>
+  <si>
+    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
+  </si>
+  <si>
+    <t>TC_054</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping Module</t>
+  </si>
+  <si>
+    <t>verify_that_create_Department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>TC_055</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_Location_record_shows_Mapping.</t>
+  </si>
+  <si>
+    <t>TC_056</t>
+  </si>
+  <si>
+    <t>Verify_that_Respective_Volume_Driver_Mapping_Set_&amp;_Characteristic_Set_are_available_in_dropdown</t>
+  </si>
+  <si>
+    <t>TC_057</t>
+  </si>
+  <si>
+    <t>Verify_that_Respective_records_is_deleted.</t>
+  </si>
+  <si>
+    <t>TC_059</t>
+  </si>
+  <si>
+    <t>Verify LaborDrivers Module</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t>TC_060</t>
+  </si>
+  <si>
+    <t>verify_add_LaborDrivers_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_061</t>
+  </si>
+  <si>
+    <t>Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
+  </si>
+  <si>
+    <t>TC_062</t>
+  </si>
+  <si>
+    <t>verify_add_LaborDrivers_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_063</t>
+  </si>
+  <si>
+    <t>Verify TaskGroups Module</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t>TC_064</t>
+  </si>
+  <si>
+    <t>verify_add_TaskGroups_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_065</t>
+  </si>
+  <si>
+    <t>verify_add_TaskGroups_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_066</t>
+  </si>
+  <si>
+    <t>verify_add_TaskGroups_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_067</t>
+  </si>
+  <si>
+    <t>TC_068</t>
+  </si>
+  <si>
+    <t>Verify Tasks Module</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t>TC_069</t>
+  </si>
+  <si>
+    <t>verify_add_Tasks_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_070</t>
+  </si>
+  <si>
+    <t>verify_add_Tasks_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_071</t>
+  </si>
+  <si>
+    <t>verify_add_Tasks_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_072</t>
+  </si>
+  <si>
+    <t>Verify_that_Respective_TaskGroup_is_available_in_Task</t>
+  </si>
+  <si>
+    <t>TC_073</t>
+  </si>
+  <si>
+    <t>Verify LaborPeriods Module</t>
+  </si>
+  <si>
+    <t>Verify_that_click_on_New_Labor_Period</t>
+  </si>
+  <si>
+    <t>TC_074</t>
+  </si>
+  <si>
+    <t>Verify_that_Name_Labor_Period_Type_Traffic_Pattern_Labor_Destribution_are_empty_and_click_on_Save_button</t>
+  </si>
+  <si>
+    <t>TC_075</t>
+  </si>
+  <si>
+    <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation</t>
+  </si>
+  <si>
+    <t>TC_076</t>
+  </si>
+  <si>
+    <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation_and_without_selection_any_value_for_Day_click_on_Save_Button</t>
+  </si>
+  <si>
+    <t>TC_077</t>
+  </si>
+  <si>
+    <t>Verify_that_if_provide_all_valid_data_select_Labor_Period_Type_as_Hours_of_Operation_select_any_value_for_Day_Sunday_click_on_Save_Button</t>
+  </si>
+  <si>
+    <t>TC_078</t>
+  </si>
+  <si>
+    <t>Verify_that_if_Labor_Period_Name_already_exist</t>
+  </si>
+  <si>
+    <t>TC_079</t>
+  </si>
+  <si>
+    <t>Verify UnitOfMeasure_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_080</t>
+  </si>
+  <si>
+    <t>Verify_export_options_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_081</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_082</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriver_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_083</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_084</t>
+  </si>
+  <si>
+    <t>TC_085</t>
+  </si>
+  <si>
+    <t>Verify Department_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_086</t>
+  </si>
+  <si>
+    <t>TC_087</t>
+  </si>
+  <si>
+    <t>TC_088</t>
+  </si>
+  <si>
+    <t>Verify Characteristic_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_089</t>
+  </si>
+  <si>
+    <t>Verify_export_options_are_available</t>
+  </si>
+  <si>
+    <t>TC_090</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_091</t>
+  </si>
+  <si>
+    <t>Verify_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_092</t>
+  </si>
+  <si>
+    <t>Verify Classifications_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_093</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_and_edit_option_is_not_avaiable</t>
+  </si>
+  <si>
+    <t>TC_094</t>
+  </si>
+  <si>
+    <t>Verify Activity_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_095</t>
+  </si>
+  <si>
+    <t>TC_096</t>
+  </si>
+  <si>
+    <t>Verify Attribute_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_097</t>
+  </si>
+  <si>
+    <t>TC_098</t>
+  </si>
+  <si>
+    <t>Verify_dialog_box_is_available</t>
+  </si>
+  <si>
+    <t>TC_099</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_attribute_import_template</t>
+  </si>
+  <si>
+    <t>TC_100</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
+  </si>
+  <si>
+    <t>TC_101</t>
+  </si>
+  <si>
+    <t>Verify_edit_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>Verify ElementsUoM_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_103</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>Verify Elements_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>Verify_select_checkboxes_are_not_available_for_multi_select</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>Verify_export_options_is_available</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_element_report</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>Verify_select_multiple_elements_checkbox_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>Verify_edit_element_details_page_is_not_editable</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>Verify_more_options_menu_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>Verify_simo_toggle_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>Verify_edit_element_step_details_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>Verify LaborDrivers_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>Verify Tasks_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>Verify TaskGroups_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>Verify LaborPeriods_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>Verify JobClasses_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>Verify LaborCategories_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>Verify_save_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>Verify_details_are_not_editable</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>Verify Standard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available_for_standard_element</t>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <t>Verify_add_option_is_not_available_for_standard_group</t>
+  </si>
+  <si>
+    <t>TC_143</t>
+  </si>
+  <si>
+    <t>Verify_tick_option_in_existing_standard_element_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_144</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_145</t>
+  </si>
+  <si>
+    <t>Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_146</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_147</t>
+  </si>
+  <si>
+    <t>TC_148</t>
+  </si>
+  <si>
+    <t>TC_149</t>
+  </si>
+  <si>
+    <t>TC_150</t>
+  </si>
+  <si>
+    <t>Verify Locations_ViewOnly module</t>
+  </si>
+  <si>
+    <t>TC_151</t>
+  </si>
+  <si>
+    <t>TC_152</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
+    <t>TC_153</t>
+  </si>
+  <si>
+    <t>TC_154</t>
+  </si>
+  <si>
+    <t>TC_155</t>
+  </si>
+  <si>
+    <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_156</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverValue_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_157</t>
+  </si>
+  <si>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>Verify LaborStandard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_159</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t>Verify Rest_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_161</t>
+  </si>
+  <si>
+    <t>TC_162</t>
+  </si>
+  <si>
+    <t>Verify Allowance_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_163</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_allowance_report</t>
+  </si>
+  <si>
+    <t>TC_164</t>
+  </si>
+  <si>
+    <t>Verify_copy_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_165</t>
+  </si>
+  <si>
+    <t>Verify Downloads Module</t>
+  </si>
+  <si>
+    <t>Verify_wim_file_exists</t>
+  </si>
+  <si>
+    <t>TC_166</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverValueSet Module</t>
+  </si>
+  <si>
+    <t>Verify popup when click on new volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_167</t>
+  </si>
+  <si>
+    <t>Verify create new volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_168</t>
+  </si>
+  <si>
+    <t>Verify name input required validation message</t>
+  </si>
+  <si>
+    <t>TC_169</t>
+  </si>
+  <si>
+    <t>Verify Volume Driver Value file is required</t>
+  </si>
+  <si>
+    <t>TC_170</t>
+  </si>
+  <si>
+    <t>Verify duplicate message name already exist</t>
+  </si>
+  <si>
+    <t>TC_171</t>
+  </si>
+  <si>
+    <t>Verify delete volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_172</t>
+  </si>
+  <si>
+    <t>Verify delete button disabled for default volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_173</t>
+  </si>
+  <si>
+    <t>Verify volume driver values export option is available</t>
+  </si>
+  <si>
+    <t>Verify Location_AdminOnly Module</t>
+  </si>
+  <si>
+    <t>verify add button is available</t>
+  </si>
+  <si>
+    <t>verify add button options are available</t>
+  </si>
+  <si>
+    <t>verify new locations add popup</t>
+  </si>
+  <si>
+    <t>verify added location is available</t>
+  </si>
+  <si>
+    <t>verify new locations profile add popup</t>
+  </si>
+  <si>
+    <t>verify import locations popup</t>
+  </si>
+  <si>
+    <t>verify import locations profile popup</t>
+  </si>
+  <si>
+    <t>verify added location profile is available</t>
+  </si>
+  <si>
+    <t>verify location profile listing is available</t>
+  </si>
+  <si>
+    <t>verify location profile edit options are available</t>
+  </si>
+  <si>
+    <t>verify checkboxes are available</t>
+  </si>
+  <si>
+    <t>verify bulk edit option is available</t>
+  </si>
+  <si>
+    <t>verify edit location options are available</t>
+  </si>
+  <si>
+    <t>verify edit location sidebar is available</t>
+  </si>
+  <si>
+    <t>TC_174</t>
+  </si>
+  <si>
+    <t>TC_175</t>
+  </si>
+  <si>
+    <t>TC_176</t>
+  </si>
+  <si>
+    <t>TC_177</t>
+  </si>
+  <si>
+    <t>TC_178</t>
+  </si>
+  <si>
+    <t>TC_179</t>
+  </si>
+  <si>
+    <t>TC_180</t>
+  </si>
+  <si>
+    <t>TC_181</t>
+  </si>
+  <si>
+    <t>TC_182</t>
+  </si>
+  <si>
+    <t>TC_183</t>
+  </si>
+  <si>
+    <t>TC_184</t>
+  </si>
+  <si>
+    <t>TC_185</t>
+  </si>
+  <si>
+    <t>TC_186</t>
+  </si>
+  <si>
+    <t>TC_187</t>
+  </si>
+  <si>
+    <t>TC_188</t>
+  </si>
+  <si>
+    <t>TC_189</t>
+  </si>
+  <si>
+    <t>TC_190</t>
+  </si>
+  <si>
+    <t>TC_191</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping_AdminOnly Module</t>
+  </si>
+  <si>
+    <t>verify add button is not available</t>
+  </si>
+  <si>
+    <t>verify edit locationmapping sidebar is available</t>
+  </si>
+  <si>
+    <t>verify edit detail options are not available</t>
+  </si>
+  <si>
+    <t>verify save button is not available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1130,22 +1148,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1163,7 +1166,6 @@
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1202,96 +1204,73 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1350,33 +1329,321 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF263238"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B190" activeCellId="0" sqref="B190"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="88.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.72"/>
+    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1"/>
+    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1410,7 +1677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1444,7 +1711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1461,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1495,7 +1762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1512,7 +1779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1529,7 +1796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1546,7 +1813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1563,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1580,7 +1847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1614,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1631,7 +1898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1648,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1665,7 +1932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1682,7 +1949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1699,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1716,7 +1983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1733,7 +2000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1750,7 +2017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1767,7 +2034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" ht="25">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -1784,7 +2051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -1801,7 +2068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -1818,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -1835,7 +2102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -1852,7 +2119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -1869,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -1886,7 +2153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -1903,7 +2170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -1920,7 +2187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -1937,7 +2204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -1954,7 +2221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -1971,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -1988,7 +2255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2005,7 +2272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2022,7 +2289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2039,7 +2306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2056,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2073,7 +2340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2090,7 +2357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2107,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2124,7 +2391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2141,7 +2408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2158,7 +2425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2175,7 +2442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2192,7 +2459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2209,7 +2476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2226,7 +2493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2243,7 +2510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2260,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2277,7 +2544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2294,7 +2561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2311,7 +2578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2328,7 +2595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" ht="29">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2345,7 +2612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2362,7 +2629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2377,7 +2644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2392,7 +2659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -2407,7 +2674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
@@ -2422,7 +2689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -2437,7 +2704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
@@ -2452,7 +2719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>144</v>
       </c>
@@ -2467,7 +2734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>146</v>
       </c>
@@ -2482,7 +2749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>148</v>
       </c>
@@ -2497,7 +2764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
@@ -2512,7 +2779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
@@ -2527,7 +2794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>154</v>
       </c>
@@ -2542,7 +2809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>156</v>
       </c>
@@ -2557,7 +2824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
         <v>158</v>
       </c>
@@ -2572,7 +2839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>160</v>
       </c>
@@ -2587,7 +2854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:5" ht="29">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
@@ -2602,7 +2869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
         <v>165</v>
       </c>
@@ -2617,7 +2884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:5" ht="29">
       <c r="A76" s="3" t="s">
         <v>167</v>
       </c>
@@ -2632,7 +2899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:5" ht="29">
       <c r="A77" s="3" t="s">
         <v>169</v>
       </c>
@@ -2647,7 +2914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -2662,7 +2929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
@@ -2677,7 +2944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -2692,7 +2959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
         <v>178</v>
       </c>
@@ -2707,7 +2974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
         <v>180</v>
       </c>
@@ -2722,7 +2989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
         <v>182</v>
       </c>
@@ -2737,7 +3004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
         <v>184</v>
       </c>
@@ -2752,7 +3019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
         <v>185</v>
       </c>
@@ -2767,7 +3034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
         <v>187</v>
       </c>
@@ -2782,7 +3049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
         <v>188</v>
       </c>
@@ -2797,7 +3064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
         <v>189</v>
       </c>
@@ -2812,7 +3079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
         <v>191</v>
       </c>
@@ -2827,7 +3094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
         <v>193</v>
       </c>
@@ -2842,7 +3109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:5">
       <c r="A91" s="3" t="s">
         <v>195</v>
       </c>
@@ -2857,7 +3124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
         <v>197</v>
       </c>
@@ -2872,7 +3139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:5">
       <c r="A93" s="3" t="s">
         <v>199</v>
       </c>
@@ -2887,7 +3154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
         <v>201</v>
       </c>
@@ -2902,7 +3169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
         <v>203</v>
       </c>
@@ -2917,7 +3184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:5">
       <c r="A96" s="3" t="s">
         <v>204</v>
       </c>
@@ -2932,7 +3199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
         <v>206</v>
       </c>
@@ -2947,7 +3214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:5">
       <c r="A98" s="3" t="s">
         <v>207</v>
       </c>
@@ -2962,7 +3229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:5">
       <c r="A99" s="3" t="s">
         <v>209</v>
       </c>
@@ -2977,7 +3244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:5">
       <c r="A100" s="3" t="s">
         <v>211</v>
       </c>
@@ -2992,7 +3259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:5">
       <c r="A101" s="3" t="s">
         <v>213</v>
       </c>
@@ -3007,7 +3274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
         <v>215</v>
       </c>
@@ -3022,7 +3289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
         <v>217</v>
       </c>
@@ -3037,7 +3304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
         <v>218</v>
       </c>
@@ -3052,7 +3319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
         <v>220</v>
       </c>
@@ -3067,7 +3334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
         <v>222</v>
       </c>
@@ -3082,7 +3349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
         <v>224</v>
       </c>
@@ -3097,7 +3364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:5">
       <c r="A108" s="3" t="s">
         <v>226</v>
       </c>
@@ -3112,7 +3379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
         <v>228</v>
       </c>
@@ -3127,7 +3394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
         <v>230</v>
       </c>
@@ -3142,7 +3409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
         <v>232</v>
       </c>
@@ -3157,7 +3424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
         <v>234</v>
       </c>
@@ -3172,7 +3439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
         <v>236</v>
       </c>
@@ -3187,7 +3454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
         <v>237</v>
       </c>
@@ -3202,7 +3469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:5">
       <c r="A115" s="3" t="s">
         <v>238</v>
       </c>
@@ -3217,7 +3484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
         <v>240</v>
       </c>
@@ -3232,7 +3499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:5">
       <c r="A117" s="3" t="s">
         <v>241</v>
       </c>
@@ -3247,7 +3514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:5">
       <c r="A118" s="3" t="s">
         <v>242</v>
       </c>
@@ -3262,7 +3529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:5">
       <c r="A119" s="3" t="s">
         <v>244</v>
       </c>
@@ -3277,7 +3544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:5">
       <c r="A120" s="3" t="s">
         <v>245</v>
       </c>
@@ -3292,7 +3559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:5">
       <c r="A121" s="3" t="s">
         <v>246</v>
       </c>
@@ -3307,7 +3574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:5">
       <c r="A122" s="3" t="s">
         <v>248</v>
       </c>
@@ -3322,7 +3589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:5">
       <c r="A123" s="3" t="s">
         <v>249</v>
       </c>
@@ -3337,7 +3604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
         <v>250</v>
       </c>
@@ -3352,7 +3619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:5">
       <c r="A125" s="3" t="s">
         <v>252</v>
       </c>
@@ -3367,7 +3634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:5">
       <c r="A126" s="3" t="s">
         <v>253</v>
       </c>
@@ -3382,7 +3649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:5">
       <c r="A127" s="3" t="s">
         <v>254</v>
       </c>
@@ -3397,7 +3664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
         <v>256</v>
       </c>
@@ -3412,7 +3679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:5">
       <c r="A129" s="3" t="s">
         <v>257</v>
       </c>
@@ -3427,7 +3694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:5">
       <c r="A130" s="3" t="s">
         <v>258</v>
       </c>
@@ -3442,7 +3709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:5">
       <c r="A131" s="3" t="s">
         <v>260</v>
       </c>
@@ -3457,7 +3724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:5">
       <c r="A132" s="3" t="s">
         <v>261</v>
       </c>
@@ -3472,7 +3739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:5">
       <c r="A133" s="3" t="s">
         <v>262</v>
       </c>
@@ -3487,7 +3754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:5">
       <c r="A134" s="3" t="s">
         <v>264</v>
       </c>
@@ -3502,7 +3769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:5">
       <c r="A135" s="3" t="s">
         <v>265</v>
       </c>
@@ -3517,7 +3784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:5">
       <c r="A136" s="3" t="s">
         <v>267</v>
       </c>
@@ -3532,7 +3799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:5">
       <c r="A137" s="3" t="s">
         <v>269</v>
       </c>
@@ -3547,7 +3814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:5">
       <c r="A138" s="3" t="s">
         <v>271</v>
       </c>
@@ -3562,7 +3829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:5">
       <c r="A139" s="3" t="s">
         <v>272</v>
       </c>
@@ -3577,7 +3844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:5">
       <c r="A140" s="3" t="s">
         <v>274</v>
       </c>
@@ -3592,7 +3859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
         <v>276</v>
       </c>
@@ -3607,7 +3874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
         <v>278</v>
       </c>
@@ -3622,7 +3889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
         <v>280</v>
       </c>
@@ -3637,7 +3904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:5">
       <c r="A144" s="3" t="s">
         <v>282</v>
       </c>
@@ -3652,7 +3919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:5">
       <c r="A145" s="3" t="s">
         <v>284</v>
       </c>
@@ -3667,7 +3934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:5">
       <c r="A146" s="3" t="s">
         <v>286</v>
       </c>
@@ -3682,7 +3949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:5">
       <c r="A147" s="3" t="s">
         <v>288</v>
       </c>
@@ -3697,7 +3964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:5">
       <c r="A148" s="3" t="s">
         <v>289</v>
       </c>
@@ -3712,7 +3979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:5">
       <c r="A149" s="3" t="s">
         <v>290</v>
       </c>
@@ -3727,7 +3994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:5" ht="15">
       <c r="A150" s="3" t="s">
         <v>291</v>
       </c>
@@ -3742,7 +4009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:5" ht="15">
       <c r="A151" s="3" t="s">
         <v>293</v>
       </c>
@@ -3757,7 +4024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:5" ht="15">
       <c r="A152" s="3" t="s">
         <v>294</v>
       </c>
@@ -3772,7 +4039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:5" ht="15">
       <c r="A153" s="3" t="s">
         <v>296</v>
       </c>
@@ -3787,7 +4054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:5" ht="15">
       <c r="A154" s="3" t="s">
         <v>297</v>
       </c>
@@ -3802,7 +4069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:5" ht="15">
       <c r="A155" s="3" t="s">
         <v>298</v>
       </c>
@@ -3817,7 +4084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:5" ht="16">
       <c r="A156" s="3" t="s">
         <v>300</v>
       </c>
@@ -3832,7 +4099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:5" ht="16">
       <c r="A157" s="3" t="s">
         <v>302</v>
       </c>
@@ -3847,7 +4114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:5">
       <c r="A158" s="3" t="s">
         <v>303</v>
       </c>
@@ -3862,7 +4129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:5">
       <c r="A159" s="3" t="s">
         <v>305</v>
       </c>
@@ -3877,7 +4144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:5">
       <c r="A160" s="3" t="s">
         <v>306</v>
       </c>
@@ -3892,7 +4159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:5">
       <c r="A161" s="3" t="s">
         <v>308</v>
       </c>
@@ -3907,7 +4174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:5">
       <c r="A162" s="3" t="s">
         <v>309</v>
       </c>
@@ -3922,7 +4189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:5">
       <c r="A163" s="3" t="s">
         <v>311</v>
       </c>
@@ -3937,7 +4204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:5">
       <c r="A164" s="3" t="s">
         <v>313</v>
       </c>
@@ -3952,7 +4219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
         <v>315</v>
       </c>
@@ -3967,7 +4234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:5">
       <c r="A166" s="3" t="s">
         <v>318</v>
       </c>
@@ -3984,7 +4251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:5">
       <c r="A167" s="3" t="s">
         <v>321</v>
       </c>
@@ -4001,7 +4268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:5">
       <c r="A168" s="3" t="s">
         <v>323</v>
       </c>
@@ -4018,7 +4285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:5">
       <c r="A169" s="3" t="s">
         <v>325</v>
       </c>
@@ -4035,7 +4302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:5">
       <c r="A170" s="3" t="s">
         <v>327</v>
       </c>
@@ -4052,7 +4319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:5">
       <c r="A171" s="3" t="s">
         <v>329</v>
       </c>
@@ -4069,7 +4336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:5">
       <c r="A172" s="3" t="s">
         <v>331</v>
       </c>
@@ -4086,7 +4353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:5">
       <c r="A173" s="3" t="s">
         <v>333</v>
       </c>
@@ -4103,221 +4370,280 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="3" t="s">
+    <row r="174" spans="1:5">
+      <c r="A174" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B174" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="C174" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="D174" s="11"/>
+      <c r="E174" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C175" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="3" t="s">
+      <c r="D175" s="11"/>
+      <c r="E175" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C176" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B175" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C175" s="5" t="s">
+      <c r="D176" s="11"/>
+      <c r="E176" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C177" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="3" t="s">
+      <c r="D177" s="11"/>
+      <c r="E177" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C178" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="B176" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C176" s="5" t="s">
+      <c r="D178" s="11"/>
+      <c r="E178" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C179" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="3" t="s">
+      <c r="D179" s="11"/>
+      <c r="E179" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C180" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="B177" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C177" s="5" t="s">
+      <c r="D180" s="11"/>
+      <c r="E180" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C181" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3" t="s">
+      <c r="D181" s="11"/>
+      <c r="E181" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C182" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B178" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C178" s="5" t="s">
+      <c r="D182" s="11"/>
+      <c r="E182" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C183" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3" t="s">
+      <c r="D183" s="11"/>
+      <c r="E183" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C184" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="B179" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C179" s="5" t="s">
+      <c r="D184" s="11"/>
+      <c r="E184" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C185" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="3" t="s">
+      <c r="D185" s="11"/>
+      <c r="E185" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C186" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C180" s="5" t="s">
+      <c r="D186" s="11"/>
+      <c r="E186" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C187" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5" t="s">
+      <c r="D187" s="11"/>
+      <c r="E187" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my workspace\GithubLocalTestBranch\LaborPro.Automation\resources\test-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F303AB-5B1D-49C6-B62E-815A30F4246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="366">
   <si>
     <t>ID</t>
   </si>
@@ -1021,125 +1032,104 @@
     <t>Verify volume driver values export option is available</t>
   </si>
   <si>
+    <t>TC_174</t>
+  </si>
+  <si>
     <t>Verify Location_AdminOnly Module</t>
   </si>
   <si>
     <t>verify add button is available</t>
   </si>
   <si>
+    <t>TC_175</t>
+  </si>
+  <si>
     <t>verify add button options are available</t>
   </si>
   <si>
+    <t>TC_176</t>
+  </si>
+  <si>
     <t>verify new locations add popup</t>
   </si>
   <si>
+    <t>TC_177</t>
+  </si>
+  <si>
     <t>verify added location is available</t>
   </si>
   <si>
+    <t>TC_178</t>
+  </si>
+  <si>
     <t>verify new locations profile add popup</t>
   </si>
   <si>
+    <t>TC_179</t>
+  </si>
+  <si>
     <t>verify import locations popup</t>
   </si>
   <si>
+    <t>TC_180</t>
+  </si>
+  <si>
     <t>verify import locations profile popup</t>
   </si>
   <si>
+    <t>TC_181</t>
+  </si>
+  <si>
     <t>verify added location profile is available</t>
   </si>
   <si>
+    <t>TC_182</t>
+  </si>
+  <si>
     <t>verify location profile listing is available</t>
   </si>
   <si>
+    <t>TC_183</t>
+  </si>
+  <si>
     <t>verify location profile edit options are available</t>
   </si>
   <si>
+    <t>TC_184</t>
+  </si>
+  <si>
     <t>verify checkboxes are available</t>
   </si>
   <si>
+    <t>TC_185</t>
+  </si>
+  <si>
     <t>verify bulk edit option is available</t>
   </si>
   <si>
+    <t>TC_186</t>
+  </si>
+  <si>
     <t>verify edit location options are available</t>
   </si>
   <si>
+    <t>TC_187</t>
+  </si>
+  <si>
     <t>verify edit location sidebar is available</t>
   </si>
   <si>
-    <t>TC_174</t>
-  </si>
-  <si>
-    <t>TC_175</t>
-  </si>
-  <si>
-    <t>TC_176</t>
-  </si>
-  <si>
-    <t>TC_177</t>
-  </si>
-  <si>
-    <t>TC_178</t>
-  </si>
-  <si>
-    <t>TC_179</t>
-  </si>
-  <si>
-    <t>TC_180</t>
-  </si>
-  <si>
-    <t>TC_181</t>
-  </si>
-  <si>
-    <t>TC_182</t>
-  </si>
-  <si>
-    <t>TC_183</t>
-  </si>
-  <si>
-    <t>TC_184</t>
-  </si>
-  <si>
-    <t>TC_185</t>
-  </si>
-  <si>
-    <t>TC_186</t>
-  </si>
-  <si>
-    <t>TC_187</t>
-  </si>
-  <si>
-    <t>TC_188</t>
-  </si>
-  <si>
-    <t>TC_189</t>
-  </si>
-  <si>
-    <t>TC_190</t>
-  </si>
-  <si>
-    <t>TC_191</t>
-  </si>
-  <si>
-    <t>Verify LocationMapping_AdminOnly Module</t>
-  </si>
-  <si>
-    <t>verify add button is not available</t>
-  </si>
-  <si>
-    <t>verify edit locationmapping sidebar is available</t>
-  </si>
-  <si>
-    <t>verify edit detail options are not available</t>
-  </si>
-  <si>
-    <t>verify save button is not available</t>
+    <t>Verify add button is not available</t>
+  </si>
+  <si>
+    <t>Verify delete button and edit option is not avaiable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1230,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1259,18 +1249,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1339,6 +1323,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1353,44 +1345,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1417,14 +1409,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1451,6 +1461,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1462,188 +1490,164 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ191"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="1"/>
-    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1711,7 +1715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25">
+    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1796,7 +1800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1830,7 +1834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1847,7 +1851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1864,7 +1868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1898,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1949,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1983,7 +1987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -2034,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25">
+    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -2068,7 +2072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -2085,7 +2089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2102,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -2136,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2153,7 +2157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2170,7 +2174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -2187,7 +2191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2204,7 +2208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -2221,7 +2225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2357,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2391,7 +2395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2425,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2459,7 +2463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2493,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2527,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2544,7 +2548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2578,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2595,7 +2599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="29">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2644,7 +2648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -2674,7 +2678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -2704,7 +2708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
@@ -2719,7 +2723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>144</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>146</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>148</v>
       </c>
@@ -2764,7 +2768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
@@ -2779,7 +2783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
@@ -2794,7 +2798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>154</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>156</v>
       </c>
@@ -2824,7 +2828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>158</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>160</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="29">
+    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>165</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="29">
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>167</v>
       </c>
@@ -2899,7 +2903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="29">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>169</v>
       </c>
@@ -2914,7 +2918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -2929,7 +2933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>178</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>180</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>182</v>
       </c>
@@ -3004,7 +3008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>184</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>185</v>
       </c>
@@ -3034,7 +3038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>187</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>188</v>
       </c>
@@ -3064,7 +3068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>189</v>
       </c>
@@ -3079,7 +3083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>191</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>193</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>195</v>
       </c>
@@ -3124,7 +3128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>197</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>199</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>201</v>
       </c>
@@ -3162,14 +3166,14 @@
         <v>202</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>203</v>
       </c>
@@ -3177,14 +3181,14 @@
         <v>202</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>200</v>
+        <v>365</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>204</v>
       </c>
@@ -3199,7 +3203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>206</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>207</v>
       </c>
@@ -3229,7 +3233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>209</v>
       </c>
@@ -3244,7 +3248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>211</v>
       </c>
@@ -3259,7 +3263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>213</v>
       </c>
@@ -3274,7 +3278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>215</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>217</v>
       </c>
@@ -3304,7 +3308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>218</v>
       </c>
@@ -3319,7 +3323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>220</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>222</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>224</v>
       </c>
@@ -3364,7 +3368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>226</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>228</v>
       </c>
@@ -3394,7 +3398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>230</v>
       </c>
@@ -3409,7 +3413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>232</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>234</v>
       </c>
@@ -3439,7 +3443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>236</v>
       </c>
@@ -3454,7 +3458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>237</v>
       </c>
@@ -3469,7 +3473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>238</v>
       </c>
@@ -3484,7 +3488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>240</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>241</v>
       </c>
@@ -3514,7 +3518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>242</v>
       </c>
@@ -3529,7 +3533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>244</v>
       </c>
@@ -3544,7 +3548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>245</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>246</v>
       </c>
@@ -3574,7 +3578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>248</v>
       </c>
@@ -3589,7 +3593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>249</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>250</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>252</v>
       </c>
@@ -3634,7 +3638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>253</v>
       </c>
@@ -3649,7 +3653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>254</v>
       </c>
@@ -3664,7 +3668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>256</v>
       </c>
@@ -3679,7 +3683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>257</v>
       </c>
@@ -3694,7 +3698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>258</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>260</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>261</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>262</v>
       </c>
@@ -3754,7 +3758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>264</v>
       </c>
@@ -3769,7 +3773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>265</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>267</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>269</v>
       </c>
@@ -3814,7 +3818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>271</v>
       </c>
@@ -3829,7 +3833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>272</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>274</v>
       </c>
@@ -3859,7 +3863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>276</v>
       </c>
@@ -3874,7 +3878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>278</v>
       </c>
@@ -3889,7 +3893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>280</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>282</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>284</v>
       </c>
@@ -3934,7 +3938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>286</v>
       </c>
@@ -3949,7 +3953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>288</v>
       </c>
@@ -3964,7 +3968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>289</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>290</v>
       </c>
@@ -3994,7 +3998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>291</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>293</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>294</v>
       </c>
@@ -4039,7 +4043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>296</v>
       </c>
@@ -4054,7 +4058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>297</v>
       </c>
@@ -4069,7 +4073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>298</v>
       </c>
@@ -4084,7 +4088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16">
+    <row r="156" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>300</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16">
+    <row r="157" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>302</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>303</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>305</v>
       </c>
@@ -4144,7 +4148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>306</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>308</v>
       </c>
@@ -4174,7 +4178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>309</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>311</v>
       </c>
@@ -4204,7 +4208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>313</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>315</v>
       </c>
@@ -4234,7 +4238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>318</v>
       </c>
@@ -4251,7 +4255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>321</v>
       </c>
@@ -4268,7 +4272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>323</v>
       </c>
@@ -4285,7 +4289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>325</v>
       </c>
@@ -4302,7 +4306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>327</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>329</v>
       </c>
@@ -4336,7 +4340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>331</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>333</v>
       </c>
@@ -4370,273 +4374,213 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="10" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B174" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C174" s="11" t="s">
+      <c r="B181" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="10" t="s">
+      <c r="C181" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B175" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C175" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="10" t="s">
+      <c r="D181" s="5"/>
+      <c r="E181" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B176" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="10" t="s">
+      <c r="B182" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C182" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C177" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="10" t="s">
+      <c r="D182" s="5"/>
+      <c r="E182" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B178" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="10" t="s">
+      <c r="B183" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C183" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B179" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="10" t="s">
+      <c r="D183" s="5"/>
+      <c r="E183" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B180" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="10" t="s">
+      <c r="B184" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C181" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D181" s="11"/>
-      <c r="E181" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="10" t="s">
+      <c r="D184" s="5"/>
+      <c r="E184" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B182" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="10" t="s">
+      <c r="B185" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C185" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B183" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="10" t="s">
+      <c r="D185" s="5"/>
+      <c r="E185" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B184" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C184" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="10" t="s">
+      <c r="B186" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C185" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="10" t="s">
+      <c r="D186" s="5"/>
+      <c r="E186" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B186" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C186" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="10" t="s">
+      <c r="B187" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B187" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="B189" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C189" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C190" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C191" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="D191" s="11"/>
-      <c r="E191" s="11" t="s">
+      <c r="D187" s="5"/>
+      <c r="E187" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my workspace\GithubLocalTestBranch\LaborPro.Automation\resources\test-data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F303AB-5B1D-49C6-B62E-815A30F4246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="382">
   <si>
     <t>ID</t>
   </si>
@@ -1119,17 +1108,65 @@
     <t>verify edit location sidebar is available</t>
   </si>
   <si>
-    <t>Verify add button is not available</t>
-  </si>
-  <si>
-    <t>Verify delete button and edit option is not avaiable</t>
+    <t>Verify LocationMapping_AdminOnly Module</t>
+  </si>
+  <si>
+    <t>verify add button is not available</t>
+  </si>
+  <si>
+    <t>verify edit locationmapping sidebar is available</t>
+  </si>
+  <si>
+    <t>verify edit detail options are not available</t>
+  </si>
+  <si>
+    <t>verify save button is not available</t>
+  </si>
+  <si>
+    <t>Verify Attribute_AdminOnly Module</t>
+  </si>
+  <si>
+    <t>verify attribute listing is available</t>
+  </si>
+  <si>
+    <t>verify edit button is not available</t>
+  </si>
+  <si>
+    <t>verify checkboxes are disabled</t>
+  </si>
+  <si>
+    <t>TC_188</t>
+  </si>
+  <si>
+    <t>TC_189</t>
+  </si>
+  <si>
+    <t>TC_190</t>
+  </si>
+  <si>
+    <t>TC_191</t>
+  </si>
+  <si>
+    <t>TC_192</t>
+  </si>
+  <si>
+    <t>TC_193</t>
+  </si>
+  <si>
+    <t>TC_194</t>
+  </si>
+  <si>
+    <t>TC_195</t>
+  </si>
+  <si>
+    <t>TC_196</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1220,7 +1257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1249,12 +1286,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1323,14 +1366,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1345,44 +1380,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1409,32 +1444,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1461,24 +1478,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1490,164 +1489,188 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187:A196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1698,7 +1721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1715,7 +1738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1732,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1749,7 +1772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1766,7 +1789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1783,7 +1806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1800,7 +1823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1817,7 +1840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1834,7 +1857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1851,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1868,7 +1891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1885,7 +1908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1902,7 +1925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1919,7 +1942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1936,7 +1959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1953,7 +1976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1970,7 +1993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1987,7 +2010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -2004,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -2021,7 +2044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -2038,7 +2061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="25">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -2055,7 +2078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -2072,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -2089,7 +2112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2106,7 +2129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -2123,7 +2146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -2140,7 +2163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2157,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2174,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -2191,7 +2214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2208,7 +2231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -2225,7 +2248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2242,7 +2265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -2259,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2276,7 +2299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2293,7 +2316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2310,7 +2333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2327,7 +2350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2344,7 +2367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2361,7 +2384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2378,7 +2401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2395,7 +2418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2412,7 +2435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2429,7 +2452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2446,7 +2469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2463,7 +2486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2480,7 +2503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2497,7 +2520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2514,7 +2537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2531,7 +2554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2548,7 +2571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2565,7 +2588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2582,7 +2605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2599,7 +2622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="29">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2616,7 +2639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2633,7 +2656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2648,7 +2671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2663,7 +2686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -2678,7 +2701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
@@ -2693,7 +2716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -2708,7 +2731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
@@ -2723,7 +2746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>144</v>
       </c>
@@ -2738,7 +2761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>146</v>
       </c>
@@ -2753,7 +2776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>148</v>
       </c>
@@ -2768,7 +2791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
@@ -2783,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
@@ -2798,7 +2821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>154</v>
       </c>
@@ -2813,7 +2836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>156</v>
       </c>
@@ -2828,7 +2851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
         <v>158</v>
       </c>
@@ -2843,7 +2866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>160</v>
       </c>
@@ -2858,7 +2881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="29">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
@@ -2873,7 +2896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
         <v>165</v>
       </c>
@@ -2888,7 +2911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="29">
       <c r="A76" s="3" t="s">
         <v>167</v>
       </c>
@@ -2903,7 +2926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="29">
       <c r="A77" s="3" t="s">
         <v>169</v>
       </c>
@@ -2918,7 +2941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -2933,7 +2956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
@@ -2948,7 +2971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -2963,7 +2986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
         <v>178</v>
       </c>
@@ -2978,7 +3001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
         <v>180</v>
       </c>
@@ -2993,7 +3016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
         <v>182</v>
       </c>
@@ -3008,7 +3031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
         <v>184</v>
       </c>
@@ -3023,7 +3046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
         <v>185</v>
       </c>
@@ -3038,7 +3061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
         <v>187</v>
       </c>
@@ -3053,7 +3076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
         <v>188</v>
       </c>
@@ -3068,7 +3091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
         <v>189</v>
       </c>
@@ -3083,7 +3106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
         <v>191</v>
       </c>
@@ -3098,7 +3121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
         <v>193</v>
       </c>
@@ -3113,7 +3136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" s="3" t="s">
         <v>195</v>
       </c>
@@ -3128,7 +3151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
         <v>197</v>
       </c>
@@ -3143,7 +3166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" s="3" t="s">
         <v>199</v>
       </c>
@@ -3158,7 +3181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
         <v>201</v>
       </c>
@@ -3166,14 +3189,14 @@
         <v>202</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>364</v>
+        <v>175</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
         <v>203</v>
       </c>
@@ -3181,14 +3204,14 @@
         <v>202</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>365</v>
+        <v>200</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" s="3" t="s">
         <v>204</v>
       </c>
@@ -3203,7 +3226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
         <v>206</v>
       </c>
@@ -3218,7 +3241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" s="3" t="s">
         <v>207</v>
       </c>
@@ -3233,7 +3256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" s="3" t="s">
         <v>209</v>
       </c>
@@ -3248,7 +3271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" s="3" t="s">
         <v>211</v>
       </c>
@@ -3263,7 +3286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" s="3" t="s">
         <v>213</v>
       </c>
@@ -3278,7 +3301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
         <v>215</v>
       </c>
@@ -3293,7 +3316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
         <v>217</v>
       </c>
@@ -3308,7 +3331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
         <v>218</v>
       </c>
@@ -3323,7 +3346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
         <v>220</v>
       </c>
@@ -3338,7 +3361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
         <v>222</v>
       </c>
@@ -3353,7 +3376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
         <v>224</v>
       </c>
@@ -3368,7 +3391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="A108" s="3" t="s">
         <v>226</v>
       </c>
@@ -3383,7 +3406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
         <v>228</v>
       </c>
@@ -3398,7 +3421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
         <v>230</v>
       </c>
@@ -3413,7 +3436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
         <v>232</v>
       </c>
@@ -3428,7 +3451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
         <v>234</v>
       </c>
@@ -3443,7 +3466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
         <v>236</v>
       </c>
@@ -3458,7 +3481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
         <v>237</v>
       </c>
@@ -3473,7 +3496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" s="3" t="s">
         <v>238</v>
       </c>
@@ -3488,7 +3511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
         <v>240</v>
       </c>
@@ -3503,7 +3526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" s="3" t="s">
         <v>241</v>
       </c>
@@ -3518,7 +3541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" s="3" t="s">
         <v>242</v>
       </c>
@@ -3533,7 +3556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" s="3" t="s">
         <v>244</v>
       </c>
@@ -3548,7 +3571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" s="3" t="s">
         <v>245</v>
       </c>
@@ -3563,7 +3586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" s="3" t="s">
         <v>246</v>
       </c>
@@ -3578,7 +3601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" s="3" t="s">
         <v>248</v>
       </c>
@@ -3593,7 +3616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" s="3" t="s">
         <v>249</v>
       </c>
@@ -3608,7 +3631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
         <v>250</v>
       </c>
@@ -3623,7 +3646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" s="3" t="s">
         <v>252</v>
       </c>
@@ -3638,7 +3661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" s="3" t="s">
         <v>253</v>
       </c>
@@ -3653,7 +3676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5">
       <c r="A127" s="3" t="s">
         <v>254</v>
       </c>
@@ -3668,7 +3691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
         <v>256</v>
       </c>
@@ -3683,7 +3706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5">
       <c r="A129" s="3" t="s">
         <v>257</v>
       </c>
@@ -3698,7 +3721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5">
       <c r="A130" s="3" t="s">
         <v>258</v>
       </c>
@@ -3713,7 +3736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5">
       <c r="A131" s="3" t="s">
         <v>260</v>
       </c>
@@ -3728,7 +3751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5">
       <c r="A132" s="3" t="s">
         <v>261</v>
       </c>
@@ -3743,7 +3766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5">
       <c r="A133" s="3" t="s">
         <v>262</v>
       </c>
@@ -3758,7 +3781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5">
       <c r="A134" s="3" t="s">
         <v>264</v>
       </c>
@@ -3773,7 +3796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5">
       <c r="A135" s="3" t="s">
         <v>265</v>
       </c>
@@ -3788,7 +3811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5">
       <c r="A136" s="3" t="s">
         <v>267</v>
       </c>
@@ -3803,7 +3826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5">
       <c r="A137" s="3" t="s">
         <v>269</v>
       </c>
@@ -3818,7 +3841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5">
       <c r="A138" s="3" t="s">
         <v>271</v>
       </c>
@@ -3833,7 +3856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5">
       <c r="A139" s="3" t="s">
         <v>272</v>
       </c>
@@ -3848,7 +3871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5">
       <c r="A140" s="3" t="s">
         <v>274</v>
       </c>
@@ -3863,7 +3886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
         <v>276</v>
       </c>
@@ -3878,7 +3901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
         <v>278</v>
       </c>
@@ -3893,7 +3916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
         <v>280</v>
       </c>
@@ -3908,7 +3931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5">
       <c r="A144" s="3" t="s">
         <v>282</v>
       </c>
@@ -3923,7 +3946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5">
       <c r="A145" s="3" t="s">
         <v>284</v>
       </c>
@@ -3938,7 +3961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5">
       <c r="A146" s="3" t="s">
         <v>286</v>
       </c>
@@ -3953,7 +3976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5">
       <c r="A147" s="3" t="s">
         <v>288</v>
       </c>
@@ -3968,7 +3991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5">
       <c r="A148" s="3" t="s">
         <v>289</v>
       </c>
@@ -3983,7 +4006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5">
       <c r="A149" s="3" t="s">
         <v>290</v>
       </c>
@@ -3998,7 +4021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="15">
       <c r="A150" s="3" t="s">
         <v>291</v>
       </c>
@@ -4013,7 +4036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="15">
       <c r="A151" s="3" t="s">
         <v>293</v>
       </c>
@@ -4028,7 +4051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="15">
       <c r="A152" s="3" t="s">
         <v>294</v>
       </c>
@@ -4043,7 +4066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="15">
       <c r="A153" s="3" t="s">
         <v>296</v>
       </c>
@@ -4058,7 +4081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="15">
       <c r="A154" s="3" t="s">
         <v>297</v>
       </c>
@@ -4073,7 +4096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="15">
       <c r="A155" s="3" t="s">
         <v>298</v>
       </c>
@@ -4088,7 +4111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="16">
       <c r="A156" s="3" t="s">
         <v>300</v>
       </c>
@@ -4103,7 +4126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="16">
       <c r="A157" s="3" t="s">
         <v>302</v>
       </c>
@@ -4118,7 +4141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5">
       <c r="A158" s="3" t="s">
         <v>303</v>
       </c>
@@ -4133,7 +4156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5">
       <c r="A159" s="3" t="s">
         <v>305</v>
       </c>
@@ -4148,7 +4171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5">
       <c r="A160" s="3" t="s">
         <v>306</v>
       </c>
@@ -4163,7 +4186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5">
       <c r="A161" s="3" t="s">
         <v>308</v>
       </c>
@@ -4178,7 +4201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5">
       <c r="A162" s="3" t="s">
         <v>309</v>
       </c>
@@ -4193,7 +4216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5">
       <c r="A163" s="3" t="s">
         <v>311</v>
       </c>
@@ -4208,7 +4231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5">
       <c r="A164" s="3" t="s">
         <v>313</v>
       </c>
@@ -4223,7 +4246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
         <v>315</v>
       </c>
@@ -4238,7 +4261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5">
       <c r="A166" s="3" t="s">
         <v>318</v>
       </c>
@@ -4255,7 +4278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5">
       <c r="A167" s="3" t="s">
         <v>321</v>
       </c>
@@ -4272,7 +4295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5">
       <c r="A168" s="3" t="s">
         <v>323</v>
       </c>
@@ -4289,7 +4312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5">
       <c r="A169" s="3" t="s">
         <v>325</v>
       </c>
@@ -4306,7 +4329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5">
       <c r="A170" s="3" t="s">
         <v>327</v>
       </c>
@@ -4323,7 +4346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5">
       <c r="A171" s="3" t="s">
         <v>329</v>
       </c>
@@ -4340,7 +4363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5">
       <c r="A172" s="3" t="s">
         <v>331</v>
       </c>
@@ -4357,7 +4380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5">
       <c r="A173" s="3" t="s">
         <v>333</v>
       </c>
@@ -4374,7 +4397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5">
       <c r="A174" s="3" t="s">
         <v>335</v>
       </c>
@@ -4389,7 +4412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5">
       <c r="A175" s="3" t="s">
         <v>338</v>
       </c>
@@ -4404,7 +4427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5">
       <c r="A176" s="3" t="s">
         <v>340</v>
       </c>
@@ -4419,7 +4442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5">
       <c r="A177" s="3" t="s">
         <v>342</v>
       </c>
@@ -4434,7 +4457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5">
       <c r="A178" s="3" t="s">
         <v>344</v>
       </c>
@@ -4449,7 +4472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5">
       <c r="A179" s="3" t="s">
         <v>346</v>
       </c>
@@ -4464,7 +4487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5">
       <c r="A180" s="3" t="s">
         <v>348</v>
       </c>
@@ -4479,7 +4502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5">
       <c r="A181" s="3" t="s">
         <v>350</v>
       </c>
@@ -4494,7 +4517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5">
       <c r="A182" s="3" t="s">
         <v>352</v>
       </c>
@@ -4509,7 +4532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5">
       <c r="A183" s="3" t="s">
         <v>354</v>
       </c>
@@ -4524,7 +4547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5">
       <c r="A184" s="3" t="s">
         <v>356</v>
       </c>
@@ -4539,7 +4562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5">
       <c r="A185" s="3" t="s">
         <v>358</v>
       </c>
@@ -4554,7 +4577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5">
       <c r="A186" s="3" t="s">
         <v>360</v>
       </c>
@@ -4569,7 +4592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5">
       <c r="A187" s="3" t="s">
         <v>362</v>
       </c>
@@ -4581,6 +4604,141 @@
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11" t="s">
         <v>8</v>
       </c>
     </row>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="374">
   <si>
     <t>ID</t>
   </si>
@@ -1108,24 +1108,15 @@
     <t>verify edit location sidebar is available</t>
   </si>
   <si>
-    <t>Verify LocationMapping_AdminOnly Module</t>
+    <t>TC_192</t>
+  </si>
+  <si>
+    <t>Verify Attribute_AdminOnly Module</t>
   </si>
   <si>
     <t>verify add button is not available</t>
   </si>
   <si>
-    <t>verify edit locationmapping sidebar is available</t>
-  </si>
-  <si>
-    <t>verify edit detail options are not available</t>
-  </si>
-  <si>
-    <t>verify save button is not available</t>
-  </si>
-  <si>
-    <t>Verify Attribute_AdminOnly Module</t>
-  </si>
-  <si>
     <t>verify attribute listing is available</t>
   </si>
   <si>
@@ -1145,21 +1136,6 @@
   </si>
   <si>
     <t>TC_191</t>
-  </si>
-  <si>
-    <t>TC_192</t>
-  </si>
-  <si>
-    <t>TC_193</t>
-  </si>
-  <si>
-    <t>TC_194</t>
-  </si>
-  <si>
-    <t>TC_195</t>
-  </si>
-  <si>
-    <t>TC_196</t>
   </si>
 </sst>
 </file>
@@ -1654,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ196"/>
+  <dimension ref="A1:AMJ192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:A196"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4609,13 +4585,13 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11" t="s">
@@ -4624,13 +4600,13 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D189" s="11"/>
       <c r="E189" s="11" t="s">
@@ -4639,13 +4615,13 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11" t="s">
@@ -4654,13 +4630,13 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="11" t="s">
@@ -4669,76 +4645,16 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="10" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="D193" s="11"/>
-      <c r="E193" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="D195" s="11"/>
-      <c r="E195" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11" t="s">
         <v>8</v>
       </c>
     </row>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my workspace\GithubLocalTestBranch\LaborPro.Automation\resources\test-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F303AB-5B1D-49C6-B62E-815A30F4246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="366">
   <si>
     <t>ID</t>
   </si>
@@ -1026,104 +1032,104 @@
     <t>Verify volume driver values export option is available</t>
   </si>
   <si>
+    <t>TC_174</t>
+  </si>
+  <si>
     <t>Verify Location_AdminOnly Module</t>
   </si>
   <si>
-    <t>verify_add_button_is_available</t>
-  </si>
-  <si>
-    <t>verify_add_button_options_are_available</t>
-  </si>
-  <si>
-    <t>verify_new_locations_add_popup</t>
-  </si>
-  <si>
-    <t>verify_added_location_is_available</t>
-  </si>
-  <si>
-    <t>verify_new_locations_profile_add_popup</t>
-  </si>
-  <si>
-    <t>verify_import_locations_popup</t>
-  </si>
-  <si>
-    <t>verify_import_locations_profile_popup</t>
-  </si>
-  <si>
-    <t>verify_added_location_profile_is_available</t>
-  </si>
-  <si>
-    <t>verify_name_is_empty</t>
-  </si>
-  <si>
-    <t>verify_location_profile_listing_is_available</t>
-  </si>
-  <si>
-    <t>verify_checkboxes_are_available</t>
-  </si>
-  <si>
-    <t>verify_bulk_edit_option_is_available</t>
-  </si>
-  <si>
-    <t>verify_edit_location_options_are_available</t>
-  </si>
-  <si>
-    <t>verify_edit_location_sidebar_is_available</t>
-  </si>
-  <si>
-    <t>verify_location_profile_edit_options_are_available</t>
-  </si>
-  <si>
-    <t>TC_174</t>
+    <t>verify add button is available</t>
   </si>
   <si>
     <t>TC_175</t>
   </si>
   <si>
+    <t>verify add button options are available</t>
+  </si>
+  <si>
     <t>TC_176</t>
   </si>
   <si>
+    <t>verify new locations add popup</t>
+  </si>
+  <si>
     <t>TC_177</t>
   </si>
   <si>
+    <t>verify added location is available</t>
+  </si>
+  <si>
     <t>TC_178</t>
   </si>
   <si>
+    <t>verify new locations profile add popup</t>
+  </si>
+  <si>
     <t>TC_179</t>
   </si>
   <si>
+    <t>verify import locations popup</t>
+  </si>
+  <si>
     <t>TC_180</t>
   </si>
   <si>
+    <t>verify import locations profile popup</t>
+  </si>
+  <si>
     <t>TC_181</t>
   </si>
   <si>
+    <t>verify added location profile is available</t>
+  </si>
+  <si>
     <t>TC_182</t>
   </si>
   <si>
+    <t>verify location profile listing is available</t>
+  </si>
+  <si>
     <t>TC_183</t>
   </si>
   <si>
+    <t>verify location profile edit options are available</t>
+  </si>
+  <si>
     <t>TC_184</t>
   </si>
   <si>
+    <t>verify checkboxes are available</t>
+  </si>
+  <si>
     <t>TC_185</t>
   </si>
   <si>
+    <t>verify bulk edit option is available</t>
+  </si>
+  <si>
     <t>TC_186</t>
   </si>
   <si>
+    <t>verify edit location options are available</t>
+  </si>
+  <si>
     <t>TC_187</t>
   </si>
   <si>
-    <t>TC_188</t>
+    <t>verify edit location sidebar is available</t>
+  </si>
+  <si>
+    <t>Verify add button is not available</t>
+  </si>
+  <si>
+    <t>Verify delete button and edit option is not avaiable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1214,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1243,15 +1249,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1320,6 +1323,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1334,44 +1345,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1398,14 +1409,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1432,6 +1461,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1443,188 +1490,164 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ188"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="E188" sqref="A168:E188"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="1"/>
-    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1675,7 +1698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1692,7 +1715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1709,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1726,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1743,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1760,7 +1783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25">
+    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1777,7 +1800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1794,7 +1817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1811,7 +1834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1828,7 +1851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1862,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1879,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1896,7 +1919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1913,7 +1936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1930,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1947,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1964,7 +1987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1981,7 +2004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1998,7 +2021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -2015,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25">
+    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -2032,7 +2055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -2049,7 +2072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -2066,7 +2089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2083,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -2100,7 +2123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -2117,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2134,7 +2157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2151,7 +2174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -2168,7 +2191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2185,7 +2208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -2202,7 +2225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2219,7 +2242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -2236,7 +2259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2253,7 +2276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2270,7 +2293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2287,7 +2310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2304,7 +2327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2321,7 +2344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2338,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2355,7 +2378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2372,7 +2395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2389,7 +2412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2406,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2423,7 +2446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2440,7 +2463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2457,7 +2480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2474,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2491,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2508,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2525,7 +2548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2542,7 +2565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2559,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2576,7 +2599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="29">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2593,7 +2616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2610,7 +2633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2625,7 +2648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2640,7 +2663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -2655,7 +2678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
@@ -2670,7 +2693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -2685,7 +2708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
@@ -2700,7 +2723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>144</v>
       </c>
@@ -2715,7 +2738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>146</v>
       </c>
@@ -2730,7 +2753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>148</v>
       </c>
@@ -2745,7 +2768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
@@ -2760,7 +2783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
@@ -2775,7 +2798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>154</v>
       </c>
@@ -2790,7 +2813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>156</v>
       </c>
@@ -2805,7 +2828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>158</v>
       </c>
@@ -2820,7 +2843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>160</v>
       </c>
@@ -2835,7 +2858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="29">
+    <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
@@ -2850,7 +2873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>165</v>
       </c>
@@ -2865,7 +2888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="29">
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>167</v>
       </c>
@@ -2880,7 +2903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="29">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>169</v>
       </c>
@@ -2895,7 +2918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -2910,7 +2933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
@@ -2925,7 +2948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -2940,7 +2963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>178</v>
       </c>
@@ -2955,7 +2978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>180</v>
       </c>
@@ -2970,7 +2993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>182</v>
       </c>
@@ -2985,7 +3008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>184</v>
       </c>
@@ -3000,7 +3023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>185</v>
       </c>
@@ -3015,7 +3038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>187</v>
       </c>
@@ -3030,7 +3053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>188</v>
       </c>
@@ -3045,7 +3068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>189</v>
       </c>
@@ -3060,7 +3083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>191</v>
       </c>
@@ -3075,7 +3098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>193</v>
       </c>
@@ -3090,7 +3113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>195</v>
       </c>
@@ -3105,7 +3128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>197</v>
       </c>
@@ -3120,7 +3143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>199</v>
       </c>
@@ -3135,7 +3158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>201</v>
       </c>
@@ -3143,14 +3166,14 @@
         <v>202</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>203</v>
       </c>
@@ -3158,14 +3181,14 @@
         <v>202</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>200</v>
+        <v>365</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>204</v>
       </c>
@@ -3180,7 +3203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>206</v>
       </c>
@@ -3195,7 +3218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>207</v>
       </c>
@@ -3210,7 +3233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>209</v>
       </c>
@@ -3225,7 +3248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>211</v>
       </c>
@@ -3240,7 +3263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>213</v>
       </c>
@@ -3255,7 +3278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>215</v>
       </c>
@@ -3270,7 +3293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>217</v>
       </c>
@@ -3285,7 +3308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>218</v>
       </c>
@@ -3300,7 +3323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>220</v>
       </c>
@@ -3315,7 +3338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>222</v>
       </c>
@@ -3330,7 +3353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>224</v>
       </c>
@@ -3345,7 +3368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>226</v>
       </c>
@@ -3360,7 +3383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>228</v>
       </c>
@@ -3375,7 +3398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>230</v>
       </c>
@@ -3390,7 +3413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>232</v>
       </c>
@@ -3405,7 +3428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>234</v>
       </c>
@@ -3420,7 +3443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>236</v>
       </c>
@@ -3435,7 +3458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>237</v>
       </c>
@@ -3450,7 +3473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>238</v>
       </c>
@@ -3465,7 +3488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>240</v>
       </c>
@@ -3480,7 +3503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>241</v>
       </c>
@@ -3495,7 +3518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>242</v>
       </c>
@@ -3510,7 +3533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>244</v>
       </c>
@@ -3525,7 +3548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>245</v>
       </c>
@@ -3540,7 +3563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>246</v>
       </c>
@@ -3555,7 +3578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>248</v>
       </c>
@@ -3570,7 +3593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>249</v>
       </c>
@@ -3585,7 +3608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>250</v>
       </c>
@@ -3600,7 +3623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>252</v>
       </c>
@@ -3615,7 +3638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>253</v>
       </c>
@@ -3630,7 +3653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>254</v>
       </c>
@@ -3645,7 +3668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>256</v>
       </c>
@@ -3660,7 +3683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>257</v>
       </c>
@@ -3675,7 +3698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>258</v>
       </c>
@@ -3690,7 +3713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>260</v>
       </c>
@@ -3705,7 +3728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>261</v>
       </c>
@@ -3720,7 +3743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>262</v>
       </c>
@@ -3735,7 +3758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>264</v>
       </c>
@@ -3750,7 +3773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>265</v>
       </c>
@@ -3765,7 +3788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>267</v>
       </c>
@@ -3780,7 +3803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>269</v>
       </c>
@@ -3795,7 +3818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>271</v>
       </c>
@@ -3810,7 +3833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>272</v>
       </c>
@@ -3825,7 +3848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>274</v>
       </c>
@@ -3840,7 +3863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>276</v>
       </c>
@@ -3855,7 +3878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>278</v>
       </c>
@@ -3870,7 +3893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>280</v>
       </c>
@@ -3885,7 +3908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>282</v>
       </c>
@@ -3900,7 +3923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>284</v>
       </c>
@@ -3915,7 +3938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>286</v>
       </c>
@@ -3930,7 +3953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>288</v>
       </c>
@@ -3945,7 +3968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>289</v>
       </c>
@@ -3960,7 +3983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>290</v>
       </c>
@@ -3975,7 +3998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>291</v>
       </c>
@@ -3990,7 +4013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>293</v>
       </c>
@@ -4005,7 +4028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>294</v>
       </c>
@@ -4020,7 +4043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>296</v>
       </c>
@@ -4035,7 +4058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>297</v>
       </c>
@@ -4050,7 +4073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>298</v>
       </c>
@@ -4065,7 +4088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16">
+    <row r="156" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>300</v>
       </c>
@@ -4080,7 +4103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16">
+    <row r="157" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>302</v>
       </c>
@@ -4095,7 +4118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>303</v>
       </c>
@@ -4110,7 +4133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>305</v>
       </c>
@@ -4125,7 +4148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>306</v>
       </c>
@@ -4140,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>308</v>
       </c>
@@ -4155,7 +4178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>309</v>
       </c>
@@ -4170,7 +4193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>311</v>
       </c>
@@ -4185,7 +4208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>313</v>
       </c>
@@ -4200,7 +4223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>315</v>
       </c>
@@ -4215,7 +4238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>318</v>
       </c>
@@ -4232,7 +4255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>321</v>
       </c>
@@ -4249,7 +4272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>323</v>
       </c>
@@ -4266,7 +4289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>325</v>
       </c>
@@ -4283,7 +4306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>327</v>
       </c>
@@ -4300,7 +4323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>329</v>
       </c>
@@ -4317,7 +4340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>331</v>
       </c>
@@ -4334,7 +4357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>333</v>
       </c>
@@ -4351,228 +4374,213 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C181" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B174" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C174" s="10" t="s">
+      <c r="D181" s="5"/>
+      <c r="E181" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B182" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B175" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="3" t="s">
+      <c r="C182" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B176" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="3" t="s">
+      <c r="D182" s="5"/>
+      <c r="E182" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B177" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="3" t="s">
+      <c r="B183" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C183" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B178" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="3" t="s">
+      <c r="D183" s="5"/>
+      <c r="E183" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="3" t="s">
+      <c r="B184" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B180" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="3" t="s">
+      <c r="D184" s="5"/>
+      <c r="E184" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B181" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="3" t="s">
+      <c r="B185" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C185" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B182" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D182" s="10"/>
-      <c r="E182" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="3" t="s">
+      <c r="D185" s="5"/>
+      <c r="E185" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B183" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="3" t="s">
+      <c r="B186" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B184" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="3" t="s">
+      <c r="D186" s="5"/>
+      <c r="E186" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B185" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="3" t="s">
+      <c r="B187" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C187" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B186" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B187" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C188" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10" t="s">
+      <c r="D187" s="5"/>
+      <c r="E187" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my workspace\GithubLocalTestBranch\LaborPro.Automation\resources\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my workspace\GithubLocal\LaborPro.Automation\resources\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F303AB-5B1D-49C6-B62E-815A30F4246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4B4DC9-8971-46C8-8441-86465F9F1BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="361">
   <si>
     <t>ID</t>
   </si>
@@ -48,54 +48,30 @@
     <t>Verify Allowances Module</t>
   </si>
   <si>
-    <t>verify_add_allowance_name_empty_tag</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>TC_002</t>
   </si>
   <si>
-    <t>verify_add_allowance_name_already_exist</t>
-  </si>
-  <si>
     <t>TC_003</t>
   </si>
   <si>
-    <t>verify_add_allowance_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
     <t>TC_004</t>
   </si>
   <si>
-    <t>verify_add_allowance_paid_time_empty</t>
-  </si>
-  <si>
     <t>TC_005</t>
   </si>
   <si>
-    <t>verify_add_allowance_paid_time_range_200_and_720</t>
-  </si>
-  <si>
     <t>TC_006</t>
   </si>
   <si>
-    <t>verify_add_allowance_paid_time_value_getting_added_when_value_is_supplied_in_range</t>
-  </si>
-  <si>
     <t>TC_007</t>
   </si>
   <si>
-    <t>verify_add_allowance_Incentive_Opportunity_Allowance_Percent</t>
-  </si>
-  <si>
     <t>TC_008</t>
   </si>
   <si>
-    <t>verify_Add_allowance_Minor_Unavoidable_delay_percent_and_Additional_Percent_range_value_less_than_100</t>
-  </si>
-  <si>
     <t>TC_009</t>
   </si>
   <si>
@@ -636,9 +612,32 @@
     <t>Verify Activity_ViewOnly Module</t>
   </si>
   <si>
+    <t>Verify add button is not available</t>
+  </si>
+  <si>
     <t>TC_095</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Verify delete button and edit option is not </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cascadia Mono"/>
+      </rPr>
+      <t>available</t>
+    </r>
+  </si>
+  <si>
     <t>TC_096</t>
   </si>
   <si>
@@ -963,15 +962,9 @@
     <t>TC_163</t>
   </si>
   <si>
-    <t>Verify_user_is_able_to_download_allowance_report</t>
-  </si>
-  <si>
     <t>TC_164</t>
   </si>
   <si>
-    <t>Verify_copy_option_is_not_available</t>
-  </si>
-  <si>
     <t>TC_165</t>
   </si>
   <si>
@@ -1101,35 +1094,44 @@
     <t>verify checkboxes are available</t>
   </si>
   <si>
-    <t>TC_185</t>
-  </si>
-  <si>
     <t>verify bulk edit option is available</t>
   </si>
   <si>
-    <t>TC_186</t>
-  </si>
-  <si>
     <t>verify edit location options are available</t>
   </si>
   <si>
-    <t>TC_187</t>
-  </si>
-  <si>
     <t>verify edit location sidebar is available</t>
   </si>
   <si>
-    <t>Verify add button is not available</t>
-  </si>
-  <si>
-    <t>Verify delete button and edit option is not avaiable</t>
+    <t>Verify paid time required validation message</t>
+  </si>
+  <si>
+    <t>Verify validation message paid time must be between 200 and 720</t>
+  </si>
+  <si>
+    <t>Verify create new allowance by providing paid time in range and incentive opportunity allowance percent in range</t>
+  </si>
+  <si>
+    <t>Verify duplicate message name already exists</t>
+  </si>
+  <si>
+    <t>Verify validation message calculate allowance percent must be less than hundred percent</t>
+  </si>
+  <si>
+    <t>TC_058</t>
+  </si>
+  <si>
+    <t>Verify user is able to download allowance report</t>
+  </si>
+  <si>
+    <t>Verify copy option is not available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1165,6 +1167,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Cascadia Mono"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
@@ -1176,6 +1183,12 @@
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1243,10 +1256,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1631,13 +1644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ187"/>
+  <dimension ref="A1:AMJ185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.109375" style="1" customWidth="1"/>
@@ -1672,2919 +1685,2886 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>353</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>355</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>364</v>
+        <v>167</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>365</v>
+        <v>184</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>177</v>
+        <v>257</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>179</v>
+        <v>257</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>194</v>
+        <v>282</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>268</v>
+        <v>283</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>194</v>
+        <v>295</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>267</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>175</v>
+        <v>292</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>273</v>
+        <v>294</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>273</v>
+        <v>296</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>196</v>
+        <v>297</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>179</v>
+        <v>359</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>175</v>
+        <v>360</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D164" s="5"/>
+        <v>312</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E164" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D165" s="5"/>
+        <v>314</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E165" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="D172" s="5"/>
       <c r="E172" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="D173" s="5"/>
       <c r="E173" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D181" s="5"/>
       <c r="E181" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,640 +1,634 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="LaborPro" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="376">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FeatureFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScenarioName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmokeTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegressionTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Allowances Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_name_empty_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_name_already_exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_paid_time_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_paid_time_range_200_and_720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_paid_time_value_getting_added_when_value_is_supplied_in_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_Incentive_Opportunity_Allowance_Percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_Add_allowance_Minor_Unavoidable_delay_percent_and_Additional_Percent_range_value_less_than_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Locations Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_location_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_location_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_location_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_edit_location_blank_Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_edit_location_existing_Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_edit_location_correct_Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_delete_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Standards Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_standards_name_is_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_standards_Department_is_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_standards_name_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_select_standard_element_pop_up_is_open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_name_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_unit_of_measure_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_frequency_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_Units_of_measure_dropdown_showing_available_Units_of_measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_time_must_be_greater_than_or_equal_to_zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_by_adding_correct_record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Attribute Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_new_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_attribute_name_is_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_attribute_name_already_exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_attribute_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Departments Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Department_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Department_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Department_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify UnitOfMeasure Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Units_Of_Measure_name_empty_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Units_Of_Measure_By_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_units_of_measure_By_selecting_the_respective_Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Units_Of_Measure_name_already_exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Characteristics Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_created_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDrivers Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_when_if_Department_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_if_Name_already_exist_for_respective_department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverMapping Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_new_created_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_Name_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LocationMapping Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_create_Department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_Location_record_shows_Mapping.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Respective_Volume_Driver_Mapping_Set_&amp;_Characteristic_Set_are_available_in_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Respective_records_is_deleted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborDrivers Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_LaborDrivers_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_LaborDrivers_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify TaskGroups Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_TaskGroups_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_TaskGroups_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_TaskGroups_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Tasks Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Tasks_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Tasks_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Tasks_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Respective_TaskGroup_is_available_in_Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborPeriods Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_click_on_New_Labor_Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Name_Labor_Period_Type_Traffic_Pattern_Labor_Destribution_are_empty_and_click_on_Save_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation_and_without_selection_any_value_for_Day_click_on_Save_Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_provide_all_valid_data_select_Labor_Period_Type_as_Hours_of_Operation_select_any_value_for_Day_Sunday_click_on_Save_Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_Labor_Period_Name_already_exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify UnitOfMeasure_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_add_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_options_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_delete_button_and_edit_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriver_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Department_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Characteristic_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_options_are_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_delete_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Classifications_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_delete_button_and_edit_option_is_not_avaiable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Activity_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify add button is not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_095</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="384">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FeatureFileName</t>
+  </si>
+  <si>
+    <t>ScenarioName</t>
+  </si>
+  <si>
+    <t>SmokeTest</t>
+  </si>
+  <si>
+    <t>RegressionTest</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>Verify Allowances Module</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_name_empty_tag</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_name_already_exist</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_paid_time_empty</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_paid_time_range_200_and_720</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_paid_time_value_getting_added_when_value_is_supplied_in_range</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_Incentive_Opportunity_Allowance_Percent</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>verify_Add_allowance_Minor_Unavoidable_delay_percent_and_Additional_Percent_range_value_less_than_100</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>Verify Locations Module</t>
+  </si>
+  <si>
+    <t>verify_add_location_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>verify_add_location_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>verify_add_location_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>verify_edit_location_blank_Details</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>verify_edit_location_existing_Details</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>verify_edit_location_correct_Details</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>verify_delete_location</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>Verify Standards Module</t>
+  </si>
+  <si>
+    <t>verify_add_new_standards_name_is_required</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>verify_add_new_standards_Department_is_required</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>verify_add_new_standards_name_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_select_standard_element_pop_up_is_open</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_name_is_empty</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_unit_of_measure_is_empty</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_frequency_is_empty</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_Units_of_measure_dropdown_showing_available_Units_of_measure</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_time_must_be_greater_than_or_equal_to_zero</t>
+  </si>
+  <si>
+    <t>TC_025</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_by_adding_correct_record</t>
+  </si>
+  <si>
+    <t>TC_026</t>
+  </si>
+  <si>
+    <t>Verify Attribute Module</t>
+  </si>
+  <si>
+    <t>verify_that_new_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>TC_027</t>
+  </si>
+  <si>
+    <t>verify_add_new_attribute_name_is_required</t>
+  </si>
+  <si>
+    <t>TC_028</t>
+  </si>
+  <si>
+    <t>verify_add_new_attribute_name_already_exist</t>
+  </si>
+  <si>
+    <t>TC_029</t>
+  </si>
+  <si>
+    <t>verify_add_new_attribute_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_030</t>
+  </si>
+  <si>
+    <t>Verify Departments Module</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_031</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_032</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_033</t>
+  </si>
+  <si>
+    <t>Verify UnitOfMeasure Module</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_name_empty_tag</t>
+  </si>
+  <si>
+    <t>TC_034</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_By_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_035</t>
+  </si>
+  <si>
+    <t>verify_add_units_of_measure_By_selecting_the_respective_Department</t>
+  </si>
+  <si>
+    <t>TC_036</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_name_already_exists</t>
+  </si>
+  <si>
+    <t>TC_037</t>
+  </si>
+  <si>
+    <t>Verify Characteristics Module</t>
+  </si>
+  <si>
+    <t>verify_that_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>TC_038</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_039</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_040</t>
+  </si>
+  <si>
+    <t>verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
+  </si>
+  <si>
+    <t>TC_041</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_042</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_043</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_044</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_045</t>
+  </si>
+  <si>
+    <t>Verify VolumeDrivers Module</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_046</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_if_Department_is_empty</t>
+  </si>
+  <si>
+    <t>TC_047</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_048</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_if_Name_already_exist_for_respective_department</t>
+  </si>
+  <si>
+    <t>TC_049</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverMapping Module</t>
+  </si>
+  <si>
+    <t>verify_that_new_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>TC_050</t>
+  </si>
+  <si>
+    <t>Verify_that_if_Name_is_empty</t>
+  </si>
+  <si>
+    <t>TC_051</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_052</t>
+  </si>
+  <si>
+    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown</t>
+  </si>
+  <si>
+    <t>TC_053</t>
+  </si>
+  <si>
+    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
+  </si>
+  <si>
+    <t>TC_054</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping Module</t>
+  </si>
+  <si>
+    <t>verify_that_create_Department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>TC_055</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_Location_record_shows_Mapping.</t>
+  </si>
+  <si>
+    <t>TC_056</t>
+  </si>
+  <si>
+    <t>Verify_that_Respective_Volume_Driver_Mapping_Set_&amp;_Characteristic_Set_are_available_in_dropdown</t>
+  </si>
+  <si>
+    <t>TC_057</t>
+  </si>
+  <si>
+    <t>Verify_that_Respective_records_is_deleted.</t>
+  </si>
+  <si>
+    <t>TC_059</t>
+  </si>
+  <si>
+    <t>Verify LaborDrivers Module</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t>TC_060</t>
+  </si>
+  <si>
+    <t>verify_add_LaborDrivers_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_061</t>
+  </si>
+  <si>
+    <t>Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
+  </si>
+  <si>
+    <t>TC_062</t>
+  </si>
+  <si>
+    <t>verify_add_LaborDrivers_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_063</t>
+  </si>
+  <si>
+    <t>Verify TaskGroups Module</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t>TC_064</t>
+  </si>
+  <si>
+    <t>verify_add_TaskGroups_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_065</t>
+  </si>
+  <si>
+    <t>verify_add_TaskGroups_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_066</t>
+  </si>
+  <si>
+    <t>verify_add_TaskGroups_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_067</t>
+  </si>
+  <si>
+    <t>TC_068</t>
+  </si>
+  <si>
+    <t>Verify Tasks Module</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t>TC_069</t>
+  </si>
+  <si>
+    <t>verify_add_Tasks_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_070</t>
+  </si>
+  <si>
+    <t>verify_add_Tasks_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_071</t>
+  </si>
+  <si>
+    <t>verify_add_Tasks_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_072</t>
+  </si>
+  <si>
+    <t>Verify_that_Respective_TaskGroup_is_available_in_Task</t>
+  </si>
+  <si>
+    <t>TC_073</t>
+  </si>
+  <si>
+    <t>Verify LaborPeriods Module</t>
+  </si>
+  <si>
+    <t>Verify_that_click_on_New_Labor_Period</t>
+  </si>
+  <si>
+    <t>TC_074</t>
+  </si>
+  <si>
+    <t>Verify_that_Name_Labor_Period_Type_Traffic_Pattern_Labor_Destribution_are_empty_and_click_on_Save_button</t>
+  </si>
+  <si>
+    <t>TC_075</t>
+  </si>
+  <si>
+    <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation</t>
+  </si>
+  <si>
+    <t>TC_076</t>
+  </si>
+  <si>
+    <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation_and_without_selection_any_value_for_Day_click_on_Save_Button</t>
+  </si>
+  <si>
+    <t>TC_077</t>
+  </si>
+  <si>
+    <t>Verify_that_if_provide_all_valid_data_select_Labor_Period_Type_as_Hours_of_Operation_select_any_value_for_Day_Sunday_click_on_Save_Button</t>
+  </si>
+  <si>
+    <t>TC_078</t>
+  </si>
+  <si>
+    <t>Verify_that_if_Labor_Period_Name_already_exist</t>
+  </si>
+  <si>
+    <t>TC_079</t>
+  </si>
+  <si>
+    <t>Verify UnitOfMeasure_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_080</t>
+  </si>
+  <si>
+    <t>Verify_export_options_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_081</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_082</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriver_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_083</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_084</t>
+  </si>
+  <si>
+    <t>TC_085</t>
+  </si>
+  <si>
+    <t>Verify Department_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_086</t>
+  </si>
+  <si>
+    <t>TC_087</t>
+  </si>
+  <si>
+    <t>TC_088</t>
+  </si>
+  <si>
+    <t>Verify Characteristic_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_089</t>
+  </si>
+  <si>
+    <t>Verify_export_options_are_available</t>
+  </si>
+  <si>
+    <t>TC_090</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_091</t>
+  </si>
+  <si>
+    <t>Verify_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_092</t>
+  </si>
+  <si>
+    <t>Verify Classifications_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_093</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_and_edit_option_is_not_avaiable</t>
+  </si>
+  <si>
+    <t>TC_094</t>
+  </si>
+  <si>
+    <t>Verify Activity_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify add button is not available</t>
+  </si>
+  <si>
+    <t>TC_095</t>
   </si>
   <si>
     <r>
@@ -652,531 +646,551 @@
         <sz val="9.5"/>
         <color rgb="FF000000"/>
         <rFont val="Cascadia Mono"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">available</t>
+      <t>available</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">TC_096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Attribute_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_dialog_box_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_attribute_import_template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify ElementsUoM_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Elements_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_select_checkboxes_are_not_available_for_multi_select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_options_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_element_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_select_multiple_elements_checkbox_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_element_details_page_is_not_editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_more_options_menu_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_simo_toggle_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_element_step_details_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborDrivers_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Tasks_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify TaskGroups_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborPeriods_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify JobClasses_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborCategories_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LocationMapping_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_save_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_details_are_not_editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Standard_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_download_report_option_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_add_button_is_not_available_for_standard_element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_add_option_is_not_available_for_standard_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_tick_option_in_existing_standard_element_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverMapping_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Locations_ViewOnly module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_is_available_for_location_profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_mapping_option_between_location_and_department_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverValue_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborStandard_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Rest_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Allowance_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_allowance_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_copy_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Downloads Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_wim_file_exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverValueSet Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify popup when click on new volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify create new volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify name input required validation message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Volume Driver Value file is required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify duplicate message name already exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify delete volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify delete button disabled for default volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify volume driver values export option is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Location_AdminOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify add button is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify add button options are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify new locations add popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify added location is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify new locations profile add popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify import locations popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify import locations profile popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify added location profile is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify location profile listing is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify location profile edit options are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify checkboxes are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify bulk edit option is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify edit location options are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify edit location sidebar is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Attribute_AdminOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify add button is not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify attribute listing is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify edit button is not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify checkboxes are disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_192</t>
+    <t>TC_096</t>
+  </si>
+  <si>
+    <t>Verify Attribute_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_097</t>
+  </si>
+  <si>
+    <t>TC_098</t>
+  </si>
+  <si>
+    <t>Verify_dialog_box_is_available</t>
+  </si>
+  <si>
+    <t>TC_099</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_attribute_import_template</t>
+  </si>
+  <si>
+    <t>TC_100</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
+  </si>
+  <si>
+    <t>TC_101</t>
+  </si>
+  <si>
+    <t>Verify_edit_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>Verify ElementsUoM_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_103</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>Verify Elements_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>Verify_select_checkboxes_are_not_available_for_multi_select</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>Verify_export_options_is_available</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_element_report</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>Verify_select_multiple_elements_checkbox_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>Verify_edit_element_details_page_is_not_editable</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>Verify_more_options_menu_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>Verify_simo_toggle_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>Verify_edit_element_step_details_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>Verify LaborDrivers_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>Verify Tasks_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>Verify TaskGroups_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>Verify LaborPeriods_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>Verify JobClasses_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>Verify LaborCategories_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>Verify_save_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>Verify_details_are_not_editable</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>Verify Standard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available_for_standard_element</t>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <t>Verify_add_option_is_not_available_for_standard_group</t>
+  </si>
+  <si>
+    <t>TC_143</t>
+  </si>
+  <si>
+    <t>Verify_tick_option_in_existing_standard_element_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_144</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_145</t>
+  </si>
+  <si>
+    <t>Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_146</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_147</t>
+  </si>
+  <si>
+    <t>TC_148</t>
+  </si>
+  <si>
+    <t>TC_149</t>
+  </si>
+  <si>
+    <t>TC_150</t>
+  </si>
+  <si>
+    <t>Verify Locations_ViewOnly module</t>
+  </si>
+  <si>
+    <t>TC_151</t>
+  </si>
+  <si>
+    <t>TC_152</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
+    <t>TC_153</t>
+  </si>
+  <si>
+    <t>TC_154</t>
+  </si>
+  <si>
+    <t>TC_155</t>
+  </si>
+  <si>
+    <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_156</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverValue_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_157</t>
+  </si>
+  <si>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>Verify LaborStandard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_159</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t>Verify Rest_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_161</t>
+  </si>
+  <si>
+    <t>TC_162</t>
+  </si>
+  <si>
+    <t>Verify Allowance_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_163</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_allowance_report</t>
+  </si>
+  <si>
+    <t>TC_164</t>
+  </si>
+  <si>
+    <t>Verify_copy_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_165</t>
+  </si>
+  <si>
+    <t>Verify Downloads Module</t>
+  </si>
+  <si>
+    <t>Verify_wim_file_exists</t>
+  </si>
+  <si>
+    <t>TC_166</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverValueSet Module</t>
+  </si>
+  <si>
+    <t>Verify popup when click on new volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_167</t>
+  </si>
+  <si>
+    <t>Verify create new volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_168</t>
+  </si>
+  <si>
+    <t>Verify name input required validation message</t>
+  </si>
+  <si>
+    <t>TC_169</t>
+  </si>
+  <si>
+    <t>Verify Volume Driver Value file is required</t>
+  </si>
+  <si>
+    <t>TC_170</t>
+  </si>
+  <si>
+    <t>Verify duplicate message name already exist</t>
+  </si>
+  <si>
+    <t>TC_171</t>
+  </si>
+  <si>
+    <t>Verify delete volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_172</t>
+  </si>
+  <si>
+    <t>Verify delete button disabled for default volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_173</t>
+  </si>
+  <si>
+    <t>Verify volume driver values export option is available</t>
+  </si>
+  <si>
+    <t>TC_174</t>
+  </si>
+  <si>
+    <t>Verify Location_AdminOnly Module</t>
+  </si>
+  <si>
+    <t>verify add button is available</t>
+  </si>
+  <si>
+    <t>TC_175</t>
+  </si>
+  <si>
+    <t>verify add button options are available</t>
+  </si>
+  <si>
+    <t>TC_176</t>
+  </si>
+  <si>
+    <t>verify new locations add popup</t>
+  </si>
+  <si>
+    <t>TC_177</t>
+  </si>
+  <si>
+    <t>verify added location is available</t>
+  </si>
+  <si>
+    <t>TC_178</t>
+  </si>
+  <si>
+    <t>verify new locations profile add popup</t>
+  </si>
+  <si>
+    <t>TC_179</t>
+  </si>
+  <si>
+    <t>verify import locations popup</t>
+  </si>
+  <si>
+    <t>TC_180</t>
+  </si>
+  <si>
+    <t>verify import locations profile popup</t>
+  </si>
+  <si>
+    <t>TC_181</t>
+  </si>
+  <si>
+    <t>verify added location profile is available</t>
+  </si>
+  <si>
+    <t>TC_182</t>
+  </si>
+  <si>
+    <t>verify location profile listing is available</t>
+  </si>
+  <si>
+    <t>TC_183</t>
+  </si>
+  <si>
+    <t>verify location profile edit options are available</t>
+  </si>
+  <si>
+    <t>TC_184</t>
+  </si>
+  <si>
+    <t>verify checkboxes are available</t>
+  </si>
+  <si>
+    <t>TC_185</t>
+  </si>
+  <si>
+    <t>verify bulk edit option is available</t>
+  </si>
+  <si>
+    <t>TC_186</t>
+  </si>
+  <si>
+    <t>verify edit location options are available</t>
+  </si>
+  <si>
+    <t>TC_187</t>
+  </si>
+  <si>
+    <t>verify edit location sidebar is available</t>
+  </si>
+  <si>
+    <t>TC_188</t>
+  </si>
+  <si>
+    <t>Verify Attribute_AdminOnly Module</t>
+  </si>
+  <si>
+    <t>verify add button is not available</t>
+  </si>
+  <si>
+    <t>TC_189</t>
+  </si>
+  <si>
+    <t>verify attribute listing is available</t>
+  </si>
+  <si>
+    <t>TC_190</t>
+  </si>
+  <si>
+    <t>verify edit button is not available</t>
+  </si>
+  <si>
+    <t>TC_191</t>
+  </si>
+  <si>
+    <t>verify checkboxes are disabled</t>
+  </si>
+  <si>
+    <t>TC_192</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping_AdminOnly Module</t>
+  </si>
+  <si>
+    <t>verify edit locationmapping sidebar is available</t>
+  </si>
+  <si>
+    <t>verify edit detail options are not available</t>
+  </si>
+  <si>
+    <t>verify save button is not available</t>
+  </si>
+  <si>
+    <t>TC_193</t>
+  </si>
+  <si>
+    <t>TC_194</t>
+  </si>
+  <si>
+    <t>TC_195</t>
+  </si>
+  <si>
+    <t>TC_196</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1185,22 +1199,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1218,7 +1217,6 @@
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1257,96 +1255,73 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1405,33 +1380,321 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF263238"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ196"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E188" activeCellId="0" sqref="E188"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192:A196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="88.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.72"/>
+    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1465,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1533,7 +1796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1550,7 +1813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1567,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1584,7 +1847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1601,7 +1864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1635,7 +1898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1652,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1669,7 +1932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1686,7 +1949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1703,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1720,7 +1983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1737,7 +2000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1754,7 +2017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1771,7 +2034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1788,7 +2051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1805,7 +2068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1822,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" ht="25">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -1839,7 +2102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -1856,7 +2119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -1873,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -1890,7 +2153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -1907,7 +2170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -1924,7 +2187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -1941,7 +2204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -1958,7 +2221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -1975,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -1992,7 +2255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -2009,7 +2272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2026,7 +2289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -2043,7 +2306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2060,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2077,7 +2340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2094,7 +2357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2111,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2128,7 +2391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2145,7 +2408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2162,7 +2425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2179,7 +2442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2196,7 +2459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2213,7 +2476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2230,7 +2493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2247,7 +2510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2264,7 +2527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2281,7 +2544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2298,7 +2561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2315,7 +2578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2332,7 +2595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2349,7 +2612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2366,7 +2629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2383,7 +2646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" ht="29">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2400,7 +2663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2417,7 +2680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2432,7 +2695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2447,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -2462,7 +2725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
@@ -2477,7 +2740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -2492,7 +2755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
@@ -2507,7 +2770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>144</v>
       </c>
@@ -2522,7 +2785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>146</v>
       </c>
@@ -2537,7 +2800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>148</v>
       </c>
@@ -2552,7 +2815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
@@ -2567,7 +2830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
@@ -2582,7 +2845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>154</v>
       </c>
@@ -2597,7 +2860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>156</v>
       </c>
@@ -2612,7 +2875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
         <v>158</v>
       </c>
@@ -2627,7 +2890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>160</v>
       </c>
@@ -2642,7 +2905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:5" ht="29">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
@@ -2657,7 +2920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
         <v>165</v>
       </c>
@@ -2672,7 +2935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:5" ht="29">
       <c r="A76" s="3" t="s">
         <v>167</v>
       </c>
@@ -2687,7 +2950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:5" ht="29">
       <c r="A77" s="3" t="s">
         <v>169</v>
       </c>
@@ -2702,7 +2965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -2717,7 +2980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
@@ -2732,7 +2995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -2747,7 +3010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
         <v>178</v>
       </c>
@@ -2762,7 +3025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
         <v>180</v>
       </c>
@@ -2777,7 +3040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
         <v>182</v>
       </c>
@@ -2792,7 +3055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
         <v>184</v>
       </c>
@@ -2807,7 +3070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
         <v>185</v>
       </c>
@@ -2822,7 +3085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
         <v>187</v>
       </c>
@@ -2837,7 +3100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
         <v>188</v>
       </c>
@@ -2852,7 +3115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
         <v>189</v>
       </c>
@@ -2867,7 +3130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
         <v>191</v>
       </c>
@@ -2882,7 +3145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
         <v>193</v>
       </c>
@@ -2897,7 +3160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:5">
       <c r="A91" s="3" t="s">
         <v>195</v>
       </c>
@@ -2912,7 +3175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
         <v>197</v>
       </c>
@@ -2927,7 +3190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:5">
       <c r="A93" s="3" t="s">
         <v>199</v>
       </c>
@@ -2942,7 +3205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
         <v>201</v>
       </c>
@@ -2957,7 +3220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
         <v>204</v>
       </c>
@@ -2972,7 +3235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:5">
       <c r="A96" s="3" t="s">
         <v>206</v>
       </c>
@@ -2987,7 +3250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
         <v>208</v>
       </c>
@@ -3002,7 +3265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:5">
       <c r="A98" s="3" t="s">
         <v>209</v>
       </c>
@@ -3017,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:5">
       <c r="A99" s="3" t="s">
         <v>211</v>
       </c>
@@ -3032,7 +3295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:5">
       <c r="A100" s="3" t="s">
         <v>213</v>
       </c>
@@ -3047,7 +3310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:5">
       <c r="A101" s="3" t="s">
         <v>215</v>
       </c>
@@ -3062,7 +3325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
         <v>217</v>
       </c>
@@ -3077,7 +3340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
         <v>219</v>
       </c>
@@ -3092,7 +3355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
         <v>220</v>
       </c>
@@ -3107,7 +3370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
         <v>222</v>
       </c>
@@ -3122,7 +3385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
         <v>224</v>
       </c>
@@ -3137,7 +3400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:5">
       <c r="A107" s="3" t="s">
         <v>226</v>
       </c>
@@ -3152,7 +3415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:5">
       <c r="A108" s="3" t="s">
         <v>228</v>
       </c>
@@ -3167,7 +3430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
         <v>230</v>
       </c>
@@ -3182,7 +3445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
         <v>232</v>
       </c>
@@ -3197,7 +3460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
         <v>234</v>
       </c>
@@ -3212,7 +3475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
         <v>236</v>
       </c>
@@ -3227,7 +3490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
         <v>238</v>
       </c>
@@ -3242,7 +3505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
         <v>239</v>
       </c>
@@ -3257,7 +3520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:5">
       <c r="A115" s="3" t="s">
         <v>240</v>
       </c>
@@ -3272,7 +3535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:5">
       <c r="A116" s="3" t="s">
         <v>242</v>
       </c>
@@ -3287,7 +3550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:5">
       <c r="A117" s="3" t="s">
         <v>243</v>
       </c>
@@ -3302,7 +3565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:5">
       <c r="A118" s="3" t="s">
         <v>244</v>
       </c>
@@ -3317,7 +3580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:5">
       <c r="A119" s="3" t="s">
         <v>246</v>
       </c>
@@ -3332,7 +3595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:5">
       <c r="A120" s="3" t="s">
         <v>247</v>
       </c>
@@ -3347,7 +3610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:5">
       <c r="A121" s="3" t="s">
         <v>248</v>
       </c>
@@ -3362,7 +3625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:5">
       <c r="A122" s="3" t="s">
         <v>250</v>
       </c>
@@ -3377,7 +3640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:5">
       <c r="A123" s="3" t="s">
         <v>251</v>
       </c>
@@ -3392,7 +3655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
         <v>252</v>
       </c>
@@ -3407,7 +3670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:5">
       <c r="A125" s="3" t="s">
         <v>254</v>
       </c>
@@ -3422,7 +3685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:5">
       <c r="A126" s="3" t="s">
         <v>255</v>
       </c>
@@ -3437,7 +3700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:5">
       <c r="A127" s="3" t="s">
         <v>256</v>
       </c>
@@ -3452,7 +3715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:5">
       <c r="A128" s="3" t="s">
         <v>258</v>
       </c>
@@ -3467,7 +3730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:5">
       <c r="A129" s="3" t="s">
         <v>259</v>
       </c>
@@ -3482,7 +3745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:5">
       <c r="A130" s="3" t="s">
         <v>260</v>
       </c>
@@ -3497,7 +3760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:5">
       <c r="A131" s="3" t="s">
         <v>262</v>
       </c>
@@ -3512,7 +3775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:5">
       <c r="A132" s="3" t="s">
         <v>263</v>
       </c>
@@ -3527,7 +3790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:5">
       <c r="A133" s="3" t="s">
         <v>264</v>
       </c>
@@ -3542,7 +3805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:5">
       <c r="A134" s="3" t="s">
         <v>266</v>
       </c>
@@ -3557,7 +3820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:5">
       <c r="A135" s="3" t="s">
         <v>267</v>
       </c>
@@ -3572,7 +3835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:5">
       <c r="A136" s="3" t="s">
         <v>269</v>
       </c>
@@ -3587,7 +3850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:5">
       <c r="A137" s="3" t="s">
         <v>271</v>
       </c>
@@ -3602,7 +3865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:5">
       <c r="A138" s="3" t="s">
         <v>273</v>
       </c>
@@ -3617,7 +3880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:5">
       <c r="A139" s="3" t="s">
         <v>274</v>
       </c>
@@ -3632,7 +3895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:5">
       <c r="A140" s="3" t="s">
         <v>276</v>
       </c>
@@ -3647,7 +3910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:5">
       <c r="A141" s="3" t="s">
         <v>278</v>
       </c>
@@ -3662,7 +3925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:5">
       <c r="A142" s="3" t="s">
         <v>280</v>
       </c>
@@ -3677,7 +3940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:5">
       <c r="A143" s="3" t="s">
         <v>282</v>
       </c>
@@ -3692,7 +3955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:5">
       <c r="A144" s="3" t="s">
         <v>284</v>
       </c>
@@ -3707,7 +3970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:5">
       <c r="A145" s="3" t="s">
         <v>286</v>
       </c>
@@ -3722,7 +3985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:5">
       <c r="A146" s="3" t="s">
         <v>288</v>
       </c>
@@ -3737,7 +4000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:5">
       <c r="A147" s="3" t="s">
         <v>290</v>
       </c>
@@ -3752,7 +4015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:5">
       <c r="A148" s="3" t="s">
         <v>291</v>
       </c>
@@ -3767,7 +4030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:5">
       <c r="A149" s="3" t="s">
         <v>292</v>
       </c>
@@ -3782,7 +4045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:5" ht="15">
       <c r="A150" s="3" t="s">
         <v>293</v>
       </c>
@@ -3797,7 +4060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:5" ht="15">
       <c r="A151" s="3" t="s">
         <v>295</v>
       </c>
@@ -3812,7 +4075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:5" ht="15">
       <c r="A152" s="3" t="s">
         <v>296</v>
       </c>
@@ -3827,7 +4090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:5" ht="15">
       <c r="A153" s="3" t="s">
         <v>298</v>
       </c>
@@ -3842,7 +4105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:5" ht="15">
       <c r="A154" s="3" t="s">
         <v>299</v>
       </c>
@@ -3857,7 +4120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:5" ht="15">
       <c r="A155" s="3" t="s">
         <v>300</v>
       </c>
@@ -3872,7 +4135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:5" ht="16">
       <c r="A156" s="3" t="s">
         <v>302</v>
       </c>
@@ -3887,7 +4150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:5" ht="16">
       <c r="A157" s="3" t="s">
         <v>304</v>
       </c>
@@ -3902,7 +4165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:5">
       <c r="A158" s="3" t="s">
         <v>305</v>
       </c>
@@ -3917,7 +4180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:5">
       <c r="A159" s="3" t="s">
         <v>307</v>
       </c>
@@ -3932,7 +4195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:5">
       <c r="A160" s="3" t="s">
         <v>308</v>
       </c>
@@ -3947,7 +4210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:5">
       <c r="A161" s="3" t="s">
         <v>310</v>
       </c>
@@ -3962,7 +4225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:5">
       <c r="A162" s="3" t="s">
         <v>311</v>
       </c>
@@ -3977,7 +4240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:5">
       <c r="A163" s="3" t="s">
         <v>313</v>
       </c>
@@ -3992,7 +4255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:5">
       <c r="A164" s="3" t="s">
         <v>315</v>
       </c>
@@ -4007,7 +4270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:5">
       <c r="A165" s="3" t="s">
         <v>317</v>
       </c>
@@ -4022,7 +4285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:5">
       <c r="A166" s="3" t="s">
         <v>320</v>
       </c>
@@ -4039,7 +4302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:5">
       <c r="A167" s="3" t="s">
         <v>323</v>
       </c>
@@ -4056,7 +4319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:5">
       <c r="A168" s="3" t="s">
         <v>325</v>
       </c>
@@ -4073,7 +4336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:5">
       <c r="A169" s="3" t="s">
         <v>327</v>
       </c>
@@ -4090,7 +4353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:5">
       <c r="A170" s="3" t="s">
         <v>329</v>
       </c>
@@ -4107,7 +4370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:5">
       <c r="A171" s="3" t="s">
         <v>331</v>
       </c>
@@ -4124,7 +4387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:5">
       <c r="A172" s="3" t="s">
         <v>333</v>
       </c>
@@ -4141,7 +4404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:5">
       <c r="A173" s="3" t="s">
         <v>335</v>
       </c>
@@ -4158,7 +4421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:5">
       <c r="A174" s="3" t="s">
         <v>337</v>
       </c>
@@ -4173,7 +4436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:5">
       <c r="A175" s="3" t="s">
         <v>340</v>
       </c>
@@ -4188,7 +4451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:5">
       <c r="A176" s="3" t="s">
         <v>342</v>
       </c>
@@ -4203,7 +4466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:5">
       <c r="A177" s="3" t="s">
         <v>344</v>
       </c>
@@ -4218,7 +4481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:5">
       <c r="A178" s="3" t="s">
         <v>346</v>
       </c>
@@ -4233,7 +4496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:5">
       <c r="A179" s="3" t="s">
         <v>348</v>
       </c>
@@ -4248,7 +4511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:5">
       <c r="A180" s="3" t="s">
         <v>350</v>
       </c>
@@ -4263,7 +4526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:5">
       <c r="A181" s="3" t="s">
         <v>352</v>
       </c>
@@ -4278,7 +4541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:5">
       <c r="A182" s="3" t="s">
         <v>354</v>
       </c>
@@ -4293,7 +4556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:5">
       <c r="A183" s="3" t="s">
         <v>356</v>
       </c>
@@ -4308,7 +4571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:5">
       <c r="A184" s="3" t="s">
         <v>358</v>
       </c>
@@ -4323,7 +4586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:5">
       <c r="A185" s="3" t="s">
         <v>360</v>
       </c>
@@ -4338,7 +4601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:5">
       <c r="A186" s="3" t="s">
         <v>362</v>
       </c>
@@ -4353,7 +4616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:5">
       <c r="A187" s="3" t="s">
         <v>364</v>
       </c>
@@ -4368,7 +4631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:5">
       <c r="A188" s="3" t="s">
         <v>366</v>
       </c>
@@ -4383,7 +4646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:5">
       <c r="A189" s="3" t="s">
         <v>369</v>
       </c>
@@ -4398,7 +4661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:5">
       <c r="A190" s="3" t="s">
         <v>371</v>
       </c>
@@ -4413,7 +4676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:5">
       <c r="A191" s="3" t="s">
         <v>373</v>
       </c>
@@ -4428,7 +4691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:5">
       <c r="A192" s="3" t="s">
         <v>375</v>
       </c>
@@ -4443,11 +4706,70 @@
         <v>8</v>
       </c>
     </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,634 +1,640 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
+    <sheet name="LaborPro" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="384">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>FeatureFileName</t>
-  </si>
-  <si>
-    <t>ScenarioName</t>
-  </si>
-  <si>
-    <t>SmokeTest</t>
-  </si>
-  <si>
-    <t>RegressionTest</t>
-  </si>
-  <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>Verify Allowances Module</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_name_empty_tag</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_name_already_exist</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_paid_time_empty</t>
-  </si>
-  <si>
-    <t>TC_005</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_paid_time_range_200_and_720</t>
-  </si>
-  <si>
-    <t>TC_006</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_paid_time_value_getting_added_when_value_is_supplied_in_range</t>
-  </si>
-  <si>
-    <t>TC_007</t>
-  </si>
-  <si>
-    <t>verify_add_allowance_Incentive_Opportunity_Allowance_Percent</t>
-  </si>
-  <si>
-    <t>TC_008</t>
-  </si>
-  <si>
-    <t>verify_Add_allowance_Minor_Unavoidable_delay_percent_and_Additional_Percent_range_value_less_than_100</t>
-  </si>
-  <si>
-    <t>TC_009</t>
-  </si>
-  <si>
-    <t>Verify Locations Module</t>
-  </si>
-  <si>
-    <t>verify_add_location_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_010</t>
-  </si>
-  <si>
-    <t>verify_add_location_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>verify_add_location_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_012</t>
-  </si>
-  <si>
-    <t>verify_edit_location_blank_Details</t>
-  </si>
-  <si>
-    <t>TC_013</t>
-  </si>
-  <si>
-    <t>verify_edit_location_existing_Details</t>
-  </si>
-  <si>
-    <t>TC_014</t>
-  </si>
-  <si>
-    <t>verify_edit_location_correct_Details</t>
-  </si>
-  <si>
-    <t>TC_015</t>
-  </si>
-  <si>
-    <t>verify_delete_location</t>
-  </si>
-  <si>
-    <t>TC_016</t>
-  </si>
-  <si>
-    <t>Verify Standards Module</t>
-  </si>
-  <si>
-    <t>verify_add_new_standards_name_is_required</t>
-  </si>
-  <si>
-    <t>TC_017</t>
-  </si>
-  <si>
-    <t>verify_add_new_standards_Department_is_required</t>
-  </si>
-  <si>
-    <t>TC_018</t>
-  </si>
-  <si>
-    <t>verify_add_new_standards_name_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t>TC_019</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_select_standard_element_pop_up_is_open</t>
-  </si>
-  <si>
-    <t>TC_020</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_name_is_empty</t>
-  </si>
-  <si>
-    <t>TC_021</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_unit_of_measure_is_empty</t>
-  </si>
-  <si>
-    <t>TC_022</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_frequency_is_empty</t>
-  </si>
-  <si>
-    <t>TC_023</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_Units_of_measure_dropdown_showing_available_Units_of_measure</t>
-  </si>
-  <si>
-    <t>TC_024</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_time_must_be_greater_than_or_equal_to_zero</t>
-  </si>
-  <si>
-    <t>TC_025</t>
-  </si>
-  <si>
-    <t>verify_add_new_element_to_created_standard_by_adding_correct_record</t>
-  </si>
-  <si>
-    <t>TC_026</t>
-  </si>
-  <si>
-    <t>Verify Attribute Module</t>
-  </si>
-  <si>
-    <t>verify_that_new_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t>TC_027</t>
-  </si>
-  <si>
-    <t>verify_add_new_attribute_name_is_required</t>
-  </si>
-  <si>
-    <t>TC_028</t>
-  </si>
-  <si>
-    <t>verify_add_new_attribute_name_already_exist</t>
-  </si>
-  <si>
-    <t>TC_029</t>
-  </si>
-  <si>
-    <t>verify_add_new_attribute_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t>TC_030</t>
-  </si>
-  <si>
-    <t>Verify Departments Module</t>
-  </si>
-  <si>
-    <t>verify_add_Department_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_031</t>
-  </si>
-  <si>
-    <t>verify_add_Department_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_032</t>
-  </si>
-  <si>
-    <t>verify_add_Department_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_033</t>
-  </si>
-  <si>
-    <t>Verify UnitOfMeasure Module</t>
-  </si>
-  <si>
-    <t>verify_add_Units_Of_Measure_name_empty_tag</t>
-  </si>
-  <si>
-    <t>TC_034</t>
-  </si>
-  <si>
-    <t>verify_add_Units_Of_Measure_By_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t>TC_035</t>
-  </si>
-  <si>
-    <t>verify_add_units_of_measure_By_selecting_the_respective_Department</t>
-  </si>
-  <si>
-    <t>TC_036</t>
-  </si>
-  <si>
-    <t>verify_add_Units_Of_Measure_name_already_exists</t>
-  </si>
-  <si>
-    <t>TC_037</t>
-  </si>
-  <si>
-    <t>Verify Characteristics Module</t>
-  </si>
-  <si>
-    <t>verify_that_created_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t>TC_038</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_039</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_040</t>
-  </si>
-  <si>
-    <t>verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
-  </si>
-  <si>
-    <t>TC_041</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_042</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_set_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_043</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_set_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_044</t>
-  </si>
-  <si>
-    <t>verify_add_Characteristic_set_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_045</t>
-  </si>
-  <si>
-    <t>Verify VolumeDrivers Module</t>
-  </si>
-  <si>
-    <t>verify_add_VolumeDriver_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_046</t>
-  </si>
-  <si>
-    <t>verify_add_VolumeDriver_when_if_Department_is_empty</t>
-  </si>
-  <si>
-    <t>TC_047</t>
-  </si>
-  <si>
-    <t>verify_add_VolumeDriver_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_048</t>
-  </si>
-  <si>
-    <t>verify_add_VolumeDriver_if_Name_already_exist_for_respective_department</t>
-  </si>
-  <si>
-    <t>TC_049</t>
-  </si>
-  <si>
-    <t>Verify VolumeDriverMapping Module</t>
-  </si>
-  <si>
-    <t>verify_that_new_created_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t>TC_050</t>
-  </si>
-  <si>
-    <t>Verify_that_if_Name_is_empty</t>
-  </si>
-  <si>
-    <t>TC_051</t>
-  </si>
-  <si>
-    <t>verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_052</t>
-  </si>
-  <si>
-    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown</t>
-  </si>
-  <si>
-    <t>TC_053</t>
-  </si>
-  <si>
-    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
-  </si>
-  <si>
-    <t>TC_054</t>
-  </si>
-  <si>
-    <t>Verify LocationMapping Module</t>
-  </si>
-  <si>
-    <t>verify_that_create_Department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t>TC_055</t>
-  </si>
-  <si>
-    <t>Verify_that_Click_on_Location_record_shows_Mapping.</t>
-  </si>
-  <si>
-    <t>TC_056</t>
-  </si>
-  <si>
-    <t>Verify_that_Respective_Volume_Driver_Mapping_Set_&amp;_Characteristic_Set_are_available_in_dropdown</t>
-  </si>
-  <si>
-    <t>TC_057</t>
-  </si>
-  <si>
-    <t>Verify_that_Respective_records_is_deleted.</t>
-  </si>
-  <si>
-    <t>TC_059</t>
-  </si>
-  <si>
-    <t>Verify LaborDrivers Module</t>
-  </si>
-  <si>
-    <t>Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t>TC_060</t>
-  </si>
-  <si>
-    <t>verify_add_LaborDrivers_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_061</t>
-  </si>
-  <si>
-    <t>Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
-  </si>
-  <si>
-    <t>TC_062</t>
-  </si>
-  <si>
-    <t>verify_add_LaborDrivers_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_063</t>
-  </si>
-  <si>
-    <t>Verify TaskGroups Module</t>
-  </si>
-  <si>
-    <t>Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t>TC_064</t>
-  </si>
-  <si>
-    <t>verify_add_TaskGroups_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_065</t>
-  </si>
-  <si>
-    <t>verify_add_TaskGroups_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_066</t>
-  </si>
-  <si>
-    <t>verify_add_TaskGroups_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_067</t>
-  </si>
-  <si>
-    <t>TC_068</t>
-  </si>
-  <si>
-    <t>Verify Tasks Module</t>
-  </si>
-  <si>
-    <t>Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t>TC_069</t>
-  </si>
-  <si>
-    <t>verify_add_Tasks_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t>TC_070</t>
-  </si>
-  <si>
-    <t>verify_add_Tasks_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t>TC_071</t>
-  </si>
-  <si>
-    <t>verify_add_Tasks_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t>TC_072</t>
-  </si>
-  <si>
-    <t>Verify_that_Respective_TaskGroup_is_available_in_Task</t>
-  </si>
-  <si>
-    <t>TC_073</t>
-  </si>
-  <si>
-    <t>Verify LaborPeriods Module</t>
-  </si>
-  <si>
-    <t>Verify_that_click_on_New_Labor_Period</t>
-  </si>
-  <si>
-    <t>TC_074</t>
-  </si>
-  <si>
-    <t>Verify_that_Name_Labor_Period_Type_Traffic_Pattern_Labor_Destribution_are_empty_and_click_on_Save_button</t>
-  </si>
-  <si>
-    <t>TC_075</t>
-  </si>
-  <si>
-    <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation</t>
-  </si>
-  <si>
-    <t>TC_076</t>
-  </si>
-  <si>
-    <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation_and_without_selection_any_value_for_Day_click_on_Save_Button</t>
-  </si>
-  <si>
-    <t>TC_077</t>
-  </si>
-  <si>
-    <t>Verify_that_if_provide_all_valid_data_select_Labor_Period_Type_as_Hours_of_Operation_select_any_value_for_Day_Sunday_click_on_Save_Button</t>
-  </si>
-  <si>
-    <t>TC_078</t>
-  </si>
-  <si>
-    <t>Verify_that_if_Labor_Period_Name_already_exist</t>
-  </si>
-  <si>
-    <t>TC_079</t>
-  </si>
-  <si>
-    <t>Verify UnitOfMeasure_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>Verify_add_button_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_080</t>
-  </si>
-  <si>
-    <t>Verify_export_options_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_081</t>
-  </si>
-  <si>
-    <t>Verify_delete_button_and_edit_option_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_082</t>
-  </si>
-  <si>
-    <t>Verify VolumeDriver_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_083</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_084</t>
-  </si>
-  <si>
-    <t>TC_085</t>
-  </si>
-  <si>
-    <t>Verify Department_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_086</t>
-  </si>
-  <si>
-    <t>TC_087</t>
-  </si>
-  <si>
-    <t>TC_088</t>
-  </si>
-  <si>
-    <t>Verify Characteristic_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_089</t>
-  </si>
-  <si>
-    <t>Verify_export_options_are_available</t>
-  </si>
-  <si>
-    <t>TC_090</t>
-  </si>
-  <si>
-    <t>Verify_delete_button_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_091</t>
-  </si>
-  <si>
-    <t>Verify_edit_option_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_092</t>
-  </si>
-  <si>
-    <t>Verify Classifications_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_093</t>
-  </si>
-  <si>
-    <t>Verify_delete_button_and_edit_option_is_not_avaiable</t>
-  </si>
-  <si>
-    <t>TC_094</t>
-  </si>
-  <si>
-    <t>Verify Activity_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>Verify add button is not available</t>
-  </si>
-  <si>
-    <t>TC_095</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="376">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FeatureFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ScenarioName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmokeTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RegressionTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Allowances Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_name_empty_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_name_already_exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_paid_time_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_paid_time_range_200_and_720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_paid_time_value_getting_added_when_value_is_supplied_in_range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_allowance_Incentive_Opportunity_Allowance_Percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_Add_allowance_Minor_Unavoidable_delay_percent_and_Additional_Percent_range_value_less_than_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Locations Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_location_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_location_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_location_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_edit_location_blank_Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_edit_location_existing_Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_edit_location_correct_Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_delete_location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Standards Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_standards_name_is_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_standards_Department_is_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_standards_name_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_select_standard_element_pop_up_is_open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_name_is_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_unit_of_measure_is_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_frequency_is_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_Units_of_measure_dropdown_showing_available_Units_of_measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_time_must_be_greater_than_or_equal_to_zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_element_to_created_standard_by_adding_correct_record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Attribute Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_that_new_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_attribute_name_is_required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_attribute_name_already_exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_new_attribute_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Departments Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Department_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Department_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Department_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify UnitOfMeasure Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Units_Of_Measure_name_empty_tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Units_Of_Measure_By_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_units_of_measure_By_selecting_the_respective_Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Units_Of_Measure_name_already_exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Characteristics Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_that_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDrivers Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_VolumeDriver_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_VolumeDriver_when_if_Department_is_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_VolumeDriver_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_VolumeDriver_if_Name_already_exist_for_respective_department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDriverMapping Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_that_new_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_Name_is_empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LocationMapping Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_that_create_Department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Click_on_Location_record_shows_Mapping.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Respective_Volume_Driver_Mapping_Set_&amp;_Characteristic_Set_are_available_in_dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Respective_records_is_deleted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborDrivers Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_LaborDrivers_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_LaborDrivers_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify TaskGroups Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_TaskGroups_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_TaskGroups_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_TaskGroups_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Tasks Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Tasks_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Tasks_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify_add_Tasks_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Respective_TaskGroup_is_available_in_Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborPeriods Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_click_on_New_Labor_Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_Name_Labor_Period_Type_Traffic_Pattern_Labor_Destribution_are_empty_and_click_on_Save_button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation_and_without_selection_any_value_for_Day_click_on_Save_Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_provide_all_valid_data_select_Labor_Period_Type_as_Hours_of_Operation_select_any_value_for_Day_Sunday_click_on_Save_Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_that_if_Labor_Period_Name_already_exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify UnitOfMeasure_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_add_button_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_options_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDriver_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_option_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Department_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Characteristic_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_options_are_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_delete_button_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Classifications_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_delete_button_and_edit_option_is_not_avaiable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Activity_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify add button is not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_095</t>
   </si>
   <si>
     <r>
@@ -646,551 +652,531 @@
         <sz val="9.5"/>
         <color rgb="FF000000"/>
         <rFont val="Cascadia Mono"/>
+        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t>available</t>
+      <t xml:space="preserve">available</t>
     </r>
   </si>
   <si>
-    <t>TC_096</t>
-  </si>
-  <si>
-    <t>Verify Attribute_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_097</t>
-  </si>
-  <si>
-    <t>TC_098</t>
-  </si>
-  <si>
-    <t>Verify_dialog_box_is_available</t>
-  </si>
-  <si>
-    <t>TC_099</t>
-  </si>
-  <si>
-    <t>Verify_user_is_able_to_download_attribute_import_template</t>
-  </si>
-  <si>
-    <t>TC_100</t>
-  </si>
-  <si>
-    <t>Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
-  </si>
-  <si>
-    <t>TC_101</t>
-  </si>
-  <si>
-    <t>Verify_edit_button_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_102</t>
-  </si>
-  <si>
-    <t>Verify ElementsUoM_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_103</t>
-  </si>
-  <si>
-    <t>TC_104</t>
-  </si>
-  <si>
-    <t>Verify Elements_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_105</t>
-  </si>
-  <si>
-    <t>Verify_select_checkboxes_are_not_available_for_multi_select</t>
-  </si>
-  <si>
-    <t>TC_106</t>
-  </si>
-  <si>
-    <t>Verify_export_options_is_available</t>
-  </si>
-  <si>
-    <t>TC_107</t>
-  </si>
-  <si>
-    <t>Verify_user_is_able_to_download_element_report</t>
-  </si>
-  <si>
-    <t>TC_108</t>
-  </si>
-  <si>
-    <t>Verify_select_multiple_elements_checkbox_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_109</t>
-  </si>
-  <si>
-    <t>Verify_edit_element_details_page_is_not_editable</t>
-  </si>
-  <si>
-    <t>TC_110</t>
-  </si>
-  <si>
-    <t>Verify_more_options_menu_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_111</t>
-  </si>
-  <si>
-    <t>Verify_simo_toggle_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_112</t>
-  </si>
-  <si>
-    <t>Verify_edit_element_step_details_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_113</t>
-  </si>
-  <si>
-    <t>TC_114</t>
-  </si>
-  <si>
-    <t>TC_115</t>
-  </si>
-  <si>
-    <t>Verify LaborDrivers_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_116</t>
-  </si>
-  <si>
-    <t>TC_117</t>
-  </si>
-  <si>
-    <t>TC_118</t>
-  </si>
-  <si>
-    <t>Verify Tasks_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_119</t>
-  </si>
-  <si>
-    <t>TC_120</t>
-  </si>
-  <si>
-    <t>TC_121</t>
-  </si>
-  <si>
-    <t>Verify TaskGroups_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_122</t>
-  </si>
-  <si>
-    <t>TC_123</t>
-  </si>
-  <si>
-    <t>TC_124</t>
-  </si>
-  <si>
-    <t>Verify LaborPeriods_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_125</t>
-  </si>
-  <si>
-    <t>TC_126</t>
-  </si>
-  <si>
-    <t>TC_127</t>
-  </si>
-  <si>
-    <t>Verify JobClasses_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_128</t>
-  </si>
-  <si>
-    <t>TC_129</t>
-  </si>
-  <si>
-    <t>TC_130</t>
-  </si>
-  <si>
-    <t>Verify LaborCategories_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_131</t>
-  </si>
-  <si>
-    <t>TC_132</t>
-  </si>
-  <si>
-    <t>TC_133</t>
-  </si>
-  <si>
-    <t>Verify LocationMapping_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_134</t>
-  </si>
-  <si>
-    <t>TC_135</t>
-  </si>
-  <si>
-    <t>Verify_save_button_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_136</t>
-  </si>
-  <si>
-    <t>Verify_details_are_not_editable</t>
-  </si>
-  <si>
-    <t>TC_137</t>
-  </si>
-  <si>
-    <t>Verify Standard_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_138</t>
-  </si>
-  <si>
-    <t>TC_139</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_available</t>
-  </si>
-  <si>
-    <t>TC_140</t>
-  </si>
-  <si>
-    <t>Verify_download_report_option_is_available</t>
-  </si>
-  <si>
-    <t>TC_141</t>
-  </si>
-  <si>
-    <t>Verify_add_button_is_not_available_for_standard_element</t>
-  </si>
-  <si>
-    <t>TC_142</t>
-  </si>
-  <si>
-    <t>Verify_add_option_is_not_available_for_standard_group</t>
-  </si>
-  <si>
-    <t>TC_143</t>
-  </si>
-  <si>
-    <t>Verify_tick_option_in_existing_standard_element_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_144</t>
-  </si>
-  <si>
-    <t>Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
-  </si>
-  <si>
-    <t>TC_145</t>
-  </si>
-  <si>
-    <t>Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
-  </si>
-  <si>
-    <t>TC_146</t>
-  </si>
-  <si>
-    <t>Verify VolumeDriverMapping_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_147</t>
-  </si>
-  <si>
-    <t>TC_148</t>
-  </si>
-  <si>
-    <t>TC_149</t>
-  </si>
-  <si>
-    <t>TC_150</t>
-  </si>
-  <si>
-    <t>Verify Locations_ViewOnly module</t>
-  </si>
-  <si>
-    <t>TC_151</t>
-  </si>
-  <si>
-    <t>TC_152</t>
-  </si>
-  <si>
-    <t>Verify_export_option_is_available_for_location_profile</t>
-  </si>
-  <si>
-    <t>TC_153</t>
-  </si>
-  <si>
-    <t>TC_154</t>
-  </si>
-  <si>
-    <t>TC_155</t>
-  </si>
-  <si>
-    <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_156</t>
-  </si>
-  <si>
-    <t>Verify VolumeDriverValue_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_157</t>
-  </si>
-  <si>
-    <t>TC_158</t>
-  </si>
-  <si>
-    <t>Verify LaborStandard_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_159</t>
-  </si>
-  <si>
-    <t>TC_160</t>
-  </si>
-  <si>
-    <t>Verify Rest_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_161</t>
-  </si>
-  <si>
-    <t>TC_162</t>
-  </si>
-  <si>
-    <t>Verify Allowance_ViewOnly Module</t>
-  </si>
-  <si>
-    <t>TC_163</t>
-  </si>
-  <si>
-    <t>Verify_user_is_able_to_download_allowance_report</t>
-  </si>
-  <si>
-    <t>TC_164</t>
-  </si>
-  <si>
-    <t>Verify_copy_option_is_not_available</t>
-  </si>
-  <si>
-    <t>TC_165</t>
-  </si>
-  <si>
-    <t>Verify Downloads Module</t>
-  </si>
-  <si>
-    <t>Verify_wim_file_exists</t>
-  </si>
-  <si>
-    <t>TC_166</t>
-  </si>
-  <si>
-    <t>Verify VolumeDriverValueSet Module</t>
-  </si>
-  <si>
-    <t>Verify popup when click on new volume driver value set</t>
-  </si>
-  <si>
-    <t>TC_167</t>
-  </si>
-  <si>
-    <t>Verify create new volume driver value set</t>
-  </si>
-  <si>
-    <t>TC_168</t>
-  </si>
-  <si>
-    <t>Verify name input required validation message</t>
-  </si>
-  <si>
-    <t>TC_169</t>
-  </si>
-  <si>
-    <t>Verify Volume Driver Value file is required</t>
-  </si>
-  <si>
-    <t>TC_170</t>
-  </si>
-  <si>
-    <t>Verify duplicate message name already exist</t>
-  </si>
-  <si>
-    <t>TC_171</t>
-  </si>
-  <si>
-    <t>Verify delete volume driver value set</t>
-  </si>
-  <si>
-    <t>TC_172</t>
-  </si>
-  <si>
-    <t>Verify delete button disabled for default volume driver value set</t>
-  </si>
-  <si>
-    <t>TC_173</t>
-  </si>
-  <si>
-    <t>Verify volume driver values export option is available</t>
-  </si>
-  <si>
-    <t>TC_174</t>
-  </si>
-  <si>
-    <t>Verify Location_AdminOnly Module</t>
-  </si>
-  <si>
-    <t>verify add button is available</t>
-  </si>
-  <si>
-    <t>TC_175</t>
-  </si>
-  <si>
-    <t>verify add button options are available</t>
-  </si>
-  <si>
-    <t>TC_176</t>
-  </si>
-  <si>
-    <t>verify new locations add popup</t>
-  </si>
-  <si>
-    <t>TC_177</t>
-  </si>
-  <si>
-    <t>verify added location is available</t>
-  </si>
-  <si>
-    <t>TC_178</t>
-  </si>
-  <si>
-    <t>verify new locations profile add popup</t>
-  </si>
-  <si>
-    <t>TC_179</t>
-  </si>
-  <si>
-    <t>verify import locations popup</t>
-  </si>
-  <si>
-    <t>TC_180</t>
-  </si>
-  <si>
-    <t>verify import locations profile popup</t>
-  </si>
-  <si>
-    <t>TC_181</t>
-  </si>
-  <si>
-    <t>verify added location profile is available</t>
-  </si>
-  <si>
-    <t>TC_182</t>
-  </si>
-  <si>
-    <t>verify location profile listing is available</t>
-  </si>
-  <si>
-    <t>TC_183</t>
-  </si>
-  <si>
-    <t>verify location profile edit options are available</t>
-  </si>
-  <si>
-    <t>TC_184</t>
-  </si>
-  <si>
-    <t>verify checkboxes are available</t>
-  </si>
-  <si>
-    <t>TC_185</t>
-  </si>
-  <si>
-    <t>verify bulk edit option is available</t>
-  </si>
-  <si>
-    <t>TC_186</t>
-  </si>
-  <si>
-    <t>verify edit location options are available</t>
-  </si>
-  <si>
-    <t>TC_187</t>
-  </si>
-  <si>
-    <t>verify edit location sidebar is available</t>
-  </si>
-  <si>
-    <t>TC_188</t>
-  </si>
-  <si>
-    <t>Verify Attribute_AdminOnly Module</t>
-  </si>
-  <si>
-    <t>verify add button is not available</t>
-  </si>
-  <si>
-    <t>TC_189</t>
-  </si>
-  <si>
-    <t>verify attribute listing is available</t>
-  </si>
-  <si>
-    <t>TC_190</t>
-  </si>
-  <si>
-    <t>verify edit button is not available</t>
-  </si>
-  <si>
-    <t>TC_191</t>
-  </si>
-  <si>
-    <t>verify checkboxes are disabled</t>
-  </si>
-  <si>
-    <t>TC_192</t>
-  </si>
-  <si>
-    <t>Verify LocationMapping_AdminOnly Module</t>
-  </si>
-  <si>
-    <t>verify edit locationmapping sidebar is available</t>
-  </si>
-  <si>
-    <t>verify edit detail options are not available</t>
-  </si>
-  <si>
-    <t>verify save button is not available</t>
-  </si>
-  <si>
-    <t>TC_193</t>
-  </si>
-  <si>
-    <t>TC_194</t>
-  </si>
-  <si>
-    <t>TC_195</t>
-  </si>
-  <si>
-    <t>TC_196</t>
+    <t xml:space="preserve">TC_096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Attribute_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_dialog_box_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_user_is_able_to_download_attribute_import_template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_edit_button_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify ElementsUoM_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Elements_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_select_checkboxes_are_not_available_for_multi_select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_options_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_user_is_able_to_download_element_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_select_multiple_elements_checkbox_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_edit_element_details_page_is_not_editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_more_options_menu_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_simo_toggle_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_edit_element_step_details_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborDrivers_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Tasks_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify TaskGroups_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborPeriods_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify JobClasses_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborCategories_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LocationMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_save_button_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_details_are_not_editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Standard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_option_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_download_report_option_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_add_button_is_not_available_for_standard_element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_add_option_is_not_available_for_standard_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_tick_option_in_existing_standard_element_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDriverMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Locations_ViewOnly module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_mapping_option_between_location_and_department_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDriverValue_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify LaborStandard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Rest_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Allowance_ViewOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_user_is_able_to_download_allowance_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_copy_option_is_not_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Downloads Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify_wim_file_exists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify VolumeDriverValueSet Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify popup when click on new volume driver value set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify create new volume driver value set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify name input required validation message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Volume Driver Value file is required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify duplicate message name already exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify delete volume driver value set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify delete button disabled for default volume driver value set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify volume driver values export option is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Location_AdminOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify add button is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify add button options are available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify new locations add popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify added location is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify new locations profile add popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify import locations popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify import locations profile popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify added location profile is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify location profile listing is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify location profile edit options are available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify checkboxes are available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify bulk edit option is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify edit location options are available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify edit location sidebar is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Attribute_AdminOnly Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify add button is not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify attribute listing is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify edit button is not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify checkboxes are disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_192</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1199,7 +1185,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1217,6 +1218,7 @@
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1255,73 +1257,96 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1380,321 +1405,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF263238"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ196"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192:A196"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E188" activeCellId="0" sqref="E188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="8.7265625" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="88.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1728,7 +1465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1745,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1779,7 +1516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1796,7 +1533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1813,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1830,7 +1567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1847,7 +1584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1864,7 +1601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1881,7 +1618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1898,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1915,7 +1652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1932,7 +1669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1949,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1966,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1983,7 +1720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -2000,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -2017,7 +1754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -2034,7 +1771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -2051,7 +1788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -2085,7 +1822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -2102,7 +1839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -2119,7 +1856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -2136,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -2153,7 +1890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -2170,7 +1907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -2187,7 +1924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2204,7 +1941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2221,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -2238,7 +1975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2255,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -2272,7 +2009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2289,7 +2026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -2306,7 +2043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2323,7 +2060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2340,7 +2077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2357,7 +2094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2374,7 +2111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2391,7 +2128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2408,7 +2145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2425,7 +2162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2442,7 +2179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2459,7 +2196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2476,7 +2213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2493,7 +2230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2510,7 +2247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2527,7 +2264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2544,7 +2281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2561,7 +2298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2578,7 +2315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2595,7 +2332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2612,7 +2349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2629,7 +2366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
         <v>124</v>
       </c>
@@ -2646,7 +2383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="29">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
         <v>126</v>
       </c>
@@ -2663,7 +2400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
         <v>128</v>
       </c>
@@ -2680,7 +2417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
@@ -2695,7 +2432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
         <v>133</v>
       </c>
@@ -2710,7 +2447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -2725,7 +2462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
         <v>137</v>
       </c>
@@ -2740,7 +2477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>139</v>
       </c>
@@ -2755,7 +2492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
         <v>142</v>
       </c>
@@ -2770,7 +2507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
         <v>144</v>
       </c>
@@ -2785,7 +2522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
         <v>146</v>
       </c>
@@ -2800,7 +2537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
         <v>148</v>
       </c>
@@ -2815,7 +2552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
         <v>149</v>
       </c>
@@ -2830,7 +2567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
         <v>152</v>
       </c>
@@ -2845,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
         <v>154</v>
       </c>
@@ -2860,7 +2597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
         <v>156</v>
       </c>
@@ -2875,7 +2612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>158</v>
       </c>
@@ -2890,7 +2627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
         <v>160</v>
       </c>
@@ -2905,7 +2642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="29">
+    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
         <v>163</v>
       </c>
@@ -2920,7 +2657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
         <v>165</v>
       </c>
@@ -2935,7 +2672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="29">
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
         <v>167</v>
       </c>
@@ -2950,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="29">
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
         <v>169</v>
       </c>
@@ -2965,7 +2702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
         <v>171</v>
       </c>
@@ -2980,7 +2717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
@@ -2995,7 +2732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -3010,7 +2747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
         <v>178</v>
       </c>
@@ -3025,7 +2762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
         <v>180</v>
       </c>
@@ -3040,7 +2777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
         <v>182</v>
       </c>
@@ -3055,7 +2792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
         <v>184</v>
       </c>
@@ -3070,7 +2807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
         <v>185</v>
       </c>
@@ -3085,7 +2822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
         <v>187</v>
       </c>
@@ -3100,7 +2837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>188</v>
       </c>
@@ -3115,7 +2852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
         <v>189</v>
       </c>
@@ -3130,7 +2867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
         <v>191</v>
       </c>
@@ -3145,7 +2882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
         <v>193</v>
       </c>
@@ -3160,7 +2897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
         <v>195</v>
       </c>
@@ -3175,7 +2912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
         <v>197</v>
       </c>
@@ -3190,7 +2927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
         <v>199</v>
       </c>
@@ -3205,7 +2942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
         <v>201</v>
       </c>
@@ -3220,7 +2957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
         <v>204</v>
       </c>
@@ -3235,7 +2972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
         <v>206</v>
       </c>
@@ -3250,7 +2987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
         <v>208</v>
       </c>
@@ -3265,7 +3002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
         <v>209</v>
       </c>
@@ -3280,7 +3017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
         <v>211</v>
       </c>
@@ -3295,7 +3032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
         <v>213</v>
       </c>
@@ -3310,7 +3047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
         <v>215</v>
       </c>
@@ -3325,7 +3062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
         <v>217</v>
       </c>
@@ -3340,7 +3077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
         <v>219</v>
       </c>
@@ -3355,7 +3092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
         <v>220</v>
       </c>
@@ -3370,7 +3107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
         <v>222</v>
       </c>
@@ -3385,7 +3122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
         <v>224</v>
       </c>
@@ -3400,7 +3137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
         <v>226</v>
       </c>
@@ -3415,7 +3152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
         <v>228</v>
       </c>
@@ -3430,7 +3167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
         <v>230</v>
       </c>
@@ -3445,7 +3182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
         <v>232</v>
       </c>
@@ -3460,7 +3197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
         <v>234</v>
       </c>
@@ -3475,7 +3212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
         <v>236</v>
       </c>
@@ -3490,7 +3227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
         <v>238</v>
       </c>
@@ -3505,7 +3242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
         <v>239</v>
       </c>
@@ -3520,7 +3257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
         <v>240</v>
       </c>
@@ -3535,7 +3272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
         <v>242</v>
       </c>
@@ -3550,7 +3287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
         <v>243</v>
       </c>
@@ -3565,7 +3302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
         <v>244</v>
       </c>
@@ -3580,7 +3317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
         <v>246</v>
       </c>
@@ -3595,7 +3332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
         <v>247</v>
       </c>
@@ -3610,7 +3347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
         <v>248</v>
       </c>
@@ -3625,7 +3362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
         <v>250</v>
       </c>
@@ -3640,7 +3377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
         <v>251</v>
       </c>
@@ -3655,7 +3392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
         <v>252</v>
       </c>
@@ -3670,7 +3407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
         <v>254</v>
       </c>
@@ -3685,7 +3422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
         <v>255</v>
       </c>
@@ -3700,7 +3437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
         <v>256</v>
       </c>
@@ -3715,7 +3452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
         <v>258</v>
       </c>
@@ -3730,7 +3467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
         <v>259</v>
       </c>
@@ -3745,7 +3482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
         <v>260</v>
       </c>
@@ -3760,7 +3497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
         <v>262</v>
       </c>
@@ -3775,7 +3512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
         <v>263</v>
       </c>
@@ -3790,7 +3527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
         <v>264</v>
       </c>
@@ -3805,7 +3542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
         <v>266</v>
       </c>
@@ -3820,7 +3557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
         <v>267</v>
       </c>
@@ -3835,7 +3572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
         <v>269</v>
       </c>
@@ -3850,7 +3587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
         <v>271</v>
       </c>
@@ -3865,7 +3602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
         <v>273</v>
       </c>
@@ -3880,7 +3617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
         <v>274</v>
       </c>
@@ -3895,7 +3632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
         <v>276</v>
       </c>
@@ -3910,7 +3647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
         <v>278</v>
       </c>
@@ -3925,7 +3662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
         <v>280</v>
       </c>
@@ -3940,7 +3677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
         <v>282</v>
       </c>
@@ -3955,7 +3692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
         <v>284</v>
       </c>
@@ -3970,7 +3707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
         <v>286</v>
       </c>
@@ -3985,7 +3722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
         <v>288</v>
       </c>
@@ -4000,7 +3737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
         <v>290</v>
       </c>
@@ -4015,7 +3752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
         <v>291</v>
       </c>
@@ -4030,7 +3767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
         <v>292</v>
       </c>
@@ -4045,7 +3782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
         <v>293</v>
       </c>
@@ -4060,7 +3797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
         <v>295</v>
       </c>
@@ -4075,7 +3812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
         <v>296</v>
       </c>
@@ -4090,7 +3827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
         <v>298</v>
       </c>
@@ -4105,7 +3842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
         <v>299</v>
       </c>
@@ -4120,7 +3857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
         <v>300</v>
       </c>
@@ -4135,7 +3872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16">
+    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
         <v>302</v>
       </c>
@@ -4150,7 +3887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16">
+    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
         <v>304</v>
       </c>
@@ -4165,7 +3902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
         <v>305</v>
       </c>
@@ -4180,7 +3917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
         <v>307</v>
       </c>
@@ -4195,7 +3932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
         <v>308</v>
       </c>
@@ -4210,7 +3947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
         <v>310</v>
       </c>
@@ -4225,7 +3962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
         <v>311</v>
       </c>
@@ -4240,7 +3977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
         <v>313</v>
       </c>
@@ -4255,7 +3992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
         <v>315</v>
       </c>
@@ -4270,7 +4007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
         <v>317</v>
       </c>
@@ -4285,7 +4022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
         <v>320</v>
       </c>
@@ -4302,7 +4039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
         <v>323</v>
       </c>
@@ -4319,7 +4056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
         <v>325</v>
       </c>
@@ -4336,7 +4073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
         <v>327</v>
       </c>
@@ -4353,7 +4090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
         <v>329</v>
       </c>
@@ -4370,7 +4107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="3" t="s">
         <v>331</v>
       </c>
@@ -4387,7 +4124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="3" t="s">
         <v>333</v>
       </c>
@@ -4404,7 +4141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="s">
         <v>335</v>
       </c>
@@ -4421,7 +4158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="3" t="s">
         <v>337</v>
       </c>
@@ -4436,7 +4173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="3" t="s">
         <v>340</v>
       </c>
@@ -4451,7 +4188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="3" t="s">
         <v>342</v>
       </c>
@@ -4466,7 +4203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="3" t="s">
         <v>344</v>
       </c>
@@ -4481,7 +4218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
         <v>346</v>
       </c>
@@ -4496,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="3" t="s">
         <v>348</v>
       </c>
@@ -4511,7 +4248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="3" t="s">
         <v>350</v>
       </c>
@@ -4526,7 +4263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="3" t="s">
         <v>352</v>
       </c>
@@ -4541,7 +4278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="3" t="s">
         <v>354</v>
       </c>
@@ -4556,7 +4293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="3" t="s">
         <v>356</v>
       </c>
@@ -4571,7 +4308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="3" t="s">
         <v>358</v>
       </c>
@@ -4586,7 +4323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="3" t="s">
         <v>360</v>
       </c>
@@ -4601,7 +4338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="3" t="s">
         <v>362</v>
       </c>
@@ -4616,7 +4353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="s">
         <v>364</v>
       </c>
@@ -4631,7 +4368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="3" t="s">
         <v>366</v>
       </c>
@@ -4646,7 +4383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
         <v>369</v>
       </c>
@@ -4661,7 +4398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="3" t="s">
         <v>371</v>
       </c>
@@ -4676,7 +4413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="3" t="s">
         <v>373</v>
       </c>
@@ -4691,7 +4428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="3" t="s">
         <v>375</v>
       </c>
@@ -4706,70 +4443,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B193" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C193" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="D193" s="11"/>
-      <c r="E193" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C194" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C195" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D195" s="11"/>
-      <c r="E195" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C196" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/resources/test-data/TestData.xlsx
+++ b/resources/test-data/TestData.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my workspace\LocationMappingRefactor\LaborPro.Automation\resources\test-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D921E4F-E64F-4C14-8CED-1B4C4E95576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LaborPro" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="LaborPro" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,621 +25,606 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="376">
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FeatureFileName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ScenarioName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmokeTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RegressionTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Allowances Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_name_empty_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_name_already_exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_paid_time_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_paid_time_range_200_and_720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_paid_time_value_getting_added_when_value_is_supplied_in_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_allowance_Incentive_Opportunity_Allowance_Percent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_Add_allowance_Minor_Unavoidable_delay_percent_and_Additional_Percent_range_value_less_than_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Locations Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_location_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_location_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_location_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_edit_location_blank_Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_edit_location_existing_Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_edit_location_correct_Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_delete_location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Standards Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_standards_name_is_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_standards_Department_is_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_standards_name_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_select_standard_element_pop_up_is_open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_name_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_unit_of_measure_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_frequency_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_Units_of_measure_dropdown_showing_available_Units_of_measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_time_must_be_greater_than_or_equal_to_zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_element_to_created_standard_by_adding_correct_record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Attribute Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_new_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_attribute_name_is_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_attribute_name_already_exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_new_attribute_by_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Departments Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Department_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Department_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Department_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify UnitOfMeasure Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Units_Of_Measure_name_empty_tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Units_Of_Measure_By_adding_correct_record_of_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_units_of_measure_By_selecting_the_respective_Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Units_Of_Measure_name_already_exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Characteristics Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_created_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Characteristic_set_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDrivers Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_when_if_Department_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriver_if_Name_already_exist_for_respective_department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverMapping Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_new_created_department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_Name_is_empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LocationMapping Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_that_create_Department_is_available_in_department_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_Location_record_shows_Mapping.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Respective_Volume_Driver_Mapping_Set_&amp;_Characteristic_Set_are_available_in_dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Respective_records_is_deleted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborDrivers Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_LaborDrivers_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_LaborDrivers_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify TaskGroups Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_TaskGroups_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_TaskGroups_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_TaskGroups_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Tasks Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Tasks_when_enter_blank_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Tasks_when_enter_correct_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify_add_Tasks_when_enter_existing_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Respective_TaskGroup_is_available_in_Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborPeriods Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_click_on_New_Labor_Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_Name_Labor_Period_Type_Traffic_Pattern_Labor_Destribution_are_empty_and_click_on_Save_button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation_and_without_selection_any_value_for_Day_click_on_Save_Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_provide_all_valid_data_select_Labor_Period_Type_as_Hours_of_Operation_select_any_value_for_Day_Sunday_click_on_Save_Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_that_if_Labor_Period_Name_already_exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify UnitOfMeasure_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_add_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_options_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_delete_button_and_edit_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriver_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Department_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Characteristic_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_options_are_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_delete_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Classifications_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_delete_button_and_edit_option_is_not_avaiable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Activity_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify add button is not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_095</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="384">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FeatureFileName</t>
+  </si>
+  <si>
+    <t>ScenarioName</t>
+  </si>
+  <si>
+    <t>SmokeTest</t>
+  </si>
+  <si>
+    <t>RegressionTest</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>Verify Allowances Module</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_name_empty_tag</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_name_already_exist</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_paid_time_empty</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_paid_time_range_200_and_720</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_paid_time_value_getting_added_when_value_is_supplied_in_range</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>verify_add_allowance_Incentive_Opportunity_Allowance_Percent</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>verify_Add_allowance_Minor_Unavoidable_delay_percent_and_Additional_Percent_range_value_less_than_100</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>Verify Locations Module</t>
+  </si>
+  <si>
+    <t>verify_add_location_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>verify_add_location_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>verify_add_location_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>verify_edit_location_blank_Details</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>verify_edit_location_existing_Details</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>verify_edit_location_correct_Details</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>verify_delete_location</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>Verify Standards Module</t>
+  </si>
+  <si>
+    <t>verify_add_new_standards_name_is_required</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>verify_add_new_standards_Department_is_required</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>verify_add_new_standards_name_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_select_standard_element_pop_up_is_open</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_name_is_empty</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_unit_of_measure_is_empty</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_frequency_is_empty</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_Units_of_measure_dropdown_showing_available_Units_of_measure</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_time_must_be_greater_than_or_equal_to_zero</t>
+  </si>
+  <si>
+    <t>TC_025</t>
+  </si>
+  <si>
+    <t>verify_add_new_element_to_created_standard_by_adding_correct_record</t>
+  </si>
+  <si>
+    <t>TC_026</t>
+  </si>
+  <si>
+    <t>Verify Attribute Module</t>
+  </si>
+  <si>
+    <t>verify_that_new_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>TC_027</t>
+  </si>
+  <si>
+    <t>verify_add_new_attribute_name_is_required</t>
+  </si>
+  <si>
+    <t>TC_028</t>
+  </si>
+  <si>
+    <t>verify_add_new_attribute_name_already_exist</t>
+  </si>
+  <si>
+    <t>TC_029</t>
+  </si>
+  <si>
+    <t>verify_add_new_attribute_by_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_030</t>
+  </si>
+  <si>
+    <t>Verify Departments Module</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_031</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_032</t>
+  </si>
+  <si>
+    <t>verify_add_Department_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_033</t>
+  </si>
+  <si>
+    <t>Verify UnitOfMeasure Module</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_name_empty_tag</t>
+  </si>
+  <si>
+    <t>TC_034</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_By_adding_correct_record_of_name</t>
+  </si>
+  <si>
+    <t>TC_035</t>
+  </si>
+  <si>
+    <t>verify_add_units_of_measure_By_selecting_the_respective_Department</t>
+  </si>
+  <si>
+    <t>TC_036</t>
+  </si>
+  <si>
+    <t>verify_add_Units_Of_Measure_name_already_exists</t>
+  </si>
+  <si>
+    <t>TC_037</t>
+  </si>
+  <si>
+    <t>Verify Characteristics Module</t>
+  </si>
+  <si>
+    <t>verify_that_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>TC_038</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_039</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_040</t>
+  </si>
+  <si>
+    <t>verify_that_Characteristic_may_only_contain_letters_numbers_underscores</t>
+  </si>
+  <si>
+    <t>TC_041</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_042</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_043</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_044</t>
+  </si>
+  <si>
+    <t>verify_add_Characteristic_set_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_045</t>
+  </si>
+  <si>
+    <t>Verify VolumeDrivers Module</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_046</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_if_Department_is_empty</t>
+  </si>
+  <si>
+    <t>TC_047</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_048</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriver_if_Name_already_exist_for_respective_department</t>
+  </si>
+  <si>
+    <t>TC_049</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverMapping Module</t>
+  </si>
+  <si>
+    <t>verify_that_new_created_department_is_available_in_department_dropdown</t>
+  </si>
+  <si>
+    <t>TC_050</t>
+  </si>
+  <si>
+    <t>Verify_that_if_Name_is_empty</t>
+  </si>
+  <si>
+    <t>TC_051</t>
+  </si>
+  <si>
+    <t>verify_add_VolumeDriverMappingset_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_052</t>
+  </si>
+  <si>
+    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown</t>
+  </si>
+  <si>
+    <t>TC_053</t>
+  </si>
+  <si>
+    <t>Verify_that_respective_VolumeDriver_&amp;_UOM_available_in_dropdown_is_deleted</t>
+  </si>
+  <si>
+    <t>TC_054</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping Module</t>
+  </si>
+  <si>
+    <t>TC_055</t>
+  </si>
+  <si>
+    <t>TC_056</t>
+  </si>
+  <si>
+    <t>TC_059</t>
+  </si>
+  <si>
+    <t>Verify LaborDrivers Module</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_New_Labor_Driver_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t>TC_060</t>
+  </si>
+  <si>
+    <t>verify_add_LaborDrivers_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_061</t>
+  </si>
+  <si>
+    <t>Verify_that_if_VolumeDriver_is_selected_fields_get_populated</t>
+  </si>
+  <si>
+    <t>TC_062</t>
+  </si>
+  <si>
+    <t>verify_add_LaborDrivers_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_063</t>
+  </si>
+  <si>
+    <t>Verify TaskGroups Module</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_New_Task_Groups_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t>TC_064</t>
+  </si>
+  <si>
+    <t>verify_add_TaskGroups_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_065</t>
+  </si>
+  <si>
+    <t>verify_add_TaskGroups_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_066</t>
+  </si>
+  <si>
+    <t>verify_add_TaskGroups_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_067</t>
+  </si>
+  <si>
+    <t>TC_068</t>
+  </si>
+  <si>
+    <t>Verify Tasks Module</t>
+  </si>
+  <si>
+    <t>Verify_that_Click_on_New_Task_Opens_Add_popup.</t>
+  </si>
+  <si>
+    <t>TC_069</t>
+  </si>
+  <si>
+    <t>verify_add_Tasks_when_enter_blank_details</t>
+  </si>
+  <si>
+    <t>TC_070</t>
+  </si>
+  <si>
+    <t>verify_add_Tasks_when_enter_correct_details</t>
+  </si>
+  <si>
+    <t>TC_071</t>
+  </si>
+  <si>
+    <t>verify_add_Tasks_when_enter_existing_details</t>
+  </si>
+  <si>
+    <t>TC_072</t>
+  </si>
+  <si>
+    <t>Verify_that_Respective_TaskGroup_is_available_in_Task</t>
+  </si>
+  <si>
+    <t>TC_073</t>
+  </si>
+  <si>
+    <t>Verify LaborPeriods Module</t>
+  </si>
+  <si>
+    <t>Verify_that_click_on_New_Labor_Period</t>
+  </si>
+  <si>
+    <t>TC_074</t>
+  </si>
+  <si>
+    <t>Verify_that_Name_Labor_Period_Type_Traffic_Pattern_Labor_Destribution_are_empty_and_click_on_Save_button</t>
+  </si>
+  <si>
+    <t>TC_075</t>
+  </si>
+  <si>
+    <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation</t>
+  </si>
+  <si>
+    <t>TC_076</t>
+  </si>
+  <si>
+    <t>Verify_that_if_we_select_Labor_Period_Type_as_Hours_of_Operation_and_without_selection_any_value_for_Day_click_on_Save_Button</t>
+  </si>
+  <si>
+    <t>TC_077</t>
+  </si>
+  <si>
+    <t>Verify_that_if_provide_all_valid_data_select_Labor_Period_Type_as_Hours_of_Operation_select_any_value_for_Day_Sunday_click_on_Save_Button</t>
+  </si>
+  <si>
+    <t>TC_078</t>
+  </si>
+  <si>
+    <t>Verify_that_if_Labor_Period_Name_already_exist</t>
+  </si>
+  <si>
+    <t>TC_079</t>
+  </si>
+  <si>
+    <t>Verify UnitOfMeasure_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_080</t>
+  </si>
+  <si>
+    <t>Verify_export_options_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_081</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_and_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_082</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriver_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_083</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_084</t>
+  </si>
+  <si>
+    <t>TC_085</t>
+  </si>
+  <si>
+    <t>Verify Department_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_086</t>
+  </si>
+  <si>
+    <t>TC_087</t>
+  </si>
+  <si>
+    <t>TC_088</t>
+  </si>
+  <si>
+    <t>Verify Characteristic_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_089</t>
+  </si>
+  <si>
+    <t>Verify_export_options_are_available</t>
+  </si>
+  <si>
+    <t>TC_090</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_091</t>
+  </si>
+  <si>
+    <t>Verify_edit_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_092</t>
+  </si>
+  <si>
+    <t>Verify Classifications_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_093</t>
+  </si>
+  <si>
+    <t>Verify_delete_button_and_edit_option_is_not_avaiable</t>
+  </si>
+  <si>
+    <t>TC_094</t>
+  </si>
+  <si>
+    <t>Verify Activity_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>Verify add button is not available</t>
+  </si>
+  <si>
+    <t>TC_095</t>
   </si>
   <si>
     <r>
@@ -652,531 +642,566 @@
         <sz val="9.5"/>
         <color rgb="FF000000"/>
         <rFont val="Cascadia Mono"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">available</t>
+      <t>available</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">TC_096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Attribute_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_dialog_box_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_attribute_import_template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify ElementsUoM_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Elements_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_select_checkboxes_are_not_available_for_multi_select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_options_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_element_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_select_multiple_elements_checkbox_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_element_details_page_is_not_editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_more_options_menu_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_simo_toggle_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_edit_element_step_details_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborDrivers_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Tasks_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify TaskGroups_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborPeriods_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify JobClasses_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborCategories_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LocationMapping_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_save_button_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_details_are_not_editable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Standard_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_download_report_option_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_add_button_is_not_available_for_standard_element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_add_option_is_not_available_for_standard_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_tick_option_in_existing_standard_element_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverMapping_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Locations_ViewOnly module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_export_option_is_available_for_location_profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_mapping_option_between_location_and_department_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverValue_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify LaborStandard_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Rest_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Allowance_ViewOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_user_is_able_to_download_allowance_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_copy_option_is_not_available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Downloads Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify_wim_file_exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify VolumeDriverValueSet Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify popup when click on new volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify create new volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify name input required validation message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Volume Driver Value file is required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify duplicate message name already exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify delete volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify delete button disabled for default volume driver value set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify volume driver values export option is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Location_AdminOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify add button is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify add button options are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify new locations add popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify added location is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify new locations profile add popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify import locations popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify import locations profile popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify added location profile is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify location profile listing is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify location profile edit options are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify checkboxes are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify bulk edit option is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify edit location options are available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify edit location sidebar is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Attribute_AdminOnly Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify add button is not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify attribute listing is available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify edit button is not available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify checkboxes are disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_192</t>
+    <t>TC_096</t>
+  </si>
+  <si>
+    <t>Verify Attribute_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_097</t>
+  </si>
+  <si>
+    <t>TC_098</t>
+  </si>
+  <si>
+    <t>Verify_dialog_box_is_available</t>
+  </si>
+  <si>
+    <t>TC_099</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_attribute_import_template</t>
+  </si>
+  <si>
+    <t>TC_100</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_all_locations_attribute_import_template</t>
+  </si>
+  <si>
+    <t>TC_101</t>
+  </si>
+  <si>
+    <t>Verify_edit_button_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>Verify ElementsUoM_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_103</t>
+  </si>
+  <si>
+    <t>TC_104</t>
+  </si>
+  <si>
+    <t>Verify Elements_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_105</t>
+  </si>
+  <si>
+    <t>Verify_select_checkboxes_are_not_available_for_multi_select</t>
+  </si>
+  <si>
+    <t>TC_106</t>
+  </si>
+  <si>
+    <t>Verify_export_options_is_available</t>
+  </si>
+  <si>
+    <t>TC_107</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_element_report</t>
+  </si>
+  <si>
+    <t>TC_108</t>
+  </si>
+  <si>
+    <t>Verify_select_multiple_elements_checkbox_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_109</t>
+  </si>
+  <si>
+    <t>Verify_edit_element_details_page_is_not_editable</t>
+  </si>
+  <si>
+    <t>TC_110</t>
+  </si>
+  <si>
+    <t>Verify_more_options_menu_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_111</t>
+  </si>
+  <si>
+    <t>Verify_simo_toggle_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_112</t>
+  </si>
+  <si>
+    <t>Verify_edit_element_step_details_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_113</t>
+  </si>
+  <si>
+    <t>TC_114</t>
+  </si>
+  <si>
+    <t>TC_115</t>
+  </si>
+  <si>
+    <t>Verify LaborDrivers_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_116</t>
+  </si>
+  <si>
+    <t>TC_117</t>
+  </si>
+  <si>
+    <t>TC_118</t>
+  </si>
+  <si>
+    <t>Verify Tasks_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_119</t>
+  </si>
+  <si>
+    <t>TC_120</t>
+  </si>
+  <si>
+    <t>TC_121</t>
+  </si>
+  <si>
+    <t>Verify TaskGroups_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_122</t>
+  </si>
+  <si>
+    <t>TC_123</t>
+  </si>
+  <si>
+    <t>TC_124</t>
+  </si>
+  <si>
+    <t>Verify LaborPeriods_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_125</t>
+  </si>
+  <si>
+    <t>TC_126</t>
+  </si>
+  <si>
+    <t>TC_127</t>
+  </si>
+  <si>
+    <t>Verify JobClasses_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_128</t>
+  </si>
+  <si>
+    <t>TC_129</t>
+  </si>
+  <si>
+    <t>TC_130</t>
+  </si>
+  <si>
+    <t>Verify LaborCategories_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_131</t>
+  </si>
+  <si>
+    <t>TC_132</t>
+  </si>
+  <si>
+    <t>TC_133</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_134</t>
+  </si>
+  <si>
+    <t>TC_135</t>
+  </si>
+  <si>
+    <t>TC_136</t>
+  </si>
+  <si>
+    <t>Verify_details_are_not_editable</t>
+  </si>
+  <si>
+    <t>TC_137</t>
+  </si>
+  <si>
+    <t>Verify Standard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_138</t>
+  </si>
+  <si>
+    <t>TC_139</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_140</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_is_available</t>
+  </si>
+  <si>
+    <t>TC_141</t>
+  </si>
+  <si>
+    <t>Verify_add_button_is_not_available_for_standard_element</t>
+  </si>
+  <si>
+    <t>TC_142</t>
+  </si>
+  <si>
+    <t>Verify_add_option_is_not_available_for_standard_group</t>
+  </si>
+  <si>
+    <t>TC_143</t>
+  </si>
+  <si>
+    <t>Verify_tick_option_in_existing_standard_element_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_144</t>
+  </si>
+  <si>
+    <t>Verify_download_report_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_145</t>
+  </si>
+  <si>
+    <t>Verify_export_option_for_selected_standard_in_standard_listing_is_available</t>
+  </si>
+  <si>
+    <t>TC_146</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverMapping_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_147</t>
+  </si>
+  <si>
+    <t>TC_148</t>
+  </si>
+  <si>
+    <t>TC_149</t>
+  </si>
+  <si>
+    <t>TC_150</t>
+  </si>
+  <si>
+    <t>Verify Locations_ViewOnly module</t>
+  </si>
+  <si>
+    <t>TC_151</t>
+  </si>
+  <si>
+    <t>TC_152</t>
+  </si>
+  <si>
+    <t>Verify_export_option_is_available_for_location_profile</t>
+  </si>
+  <si>
+    <t>TC_153</t>
+  </si>
+  <si>
+    <t>TC_154</t>
+  </si>
+  <si>
+    <t>TC_155</t>
+  </si>
+  <si>
+    <t>Verify_mapping_option_between_location_and_department_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_156</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverValue_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_157</t>
+  </si>
+  <si>
+    <t>TC_158</t>
+  </si>
+  <si>
+    <t>Verify LaborStandard_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_159</t>
+  </si>
+  <si>
+    <t>TC_160</t>
+  </si>
+  <si>
+    <t>Verify Rest_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_161</t>
+  </si>
+  <si>
+    <t>TC_162</t>
+  </si>
+  <si>
+    <t>Verify Allowance_ViewOnly Module</t>
+  </si>
+  <si>
+    <t>TC_163</t>
+  </si>
+  <si>
+    <t>Verify_user_is_able_to_download_allowance_report</t>
+  </si>
+  <si>
+    <t>TC_164</t>
+  </si>
+  <si>
+    <t>Verify_copy_option_is_not_available</t>
+  </si>
+  <si>
+    <t>TC_165</t>
+  </si>
+  <si>
+    <t>Verify Downloads Module</t>
+  </si>
+  <si>
+    <t>Verify_wim_file_exists</t>
+  </si>
+  <si>
+    <t>TC_166</t>
+  </si>
+  <si>
+    <t>Verify VolumeDriverValueSet Module</t>
+  </si>
+  <si>
+    <t>Verify popup when click on new volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_167</t>
+  </si>
+  <si>
+    <t>Verify create new volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_168</t>
+  </si>
+  <si>
+    <t>Verify name input required validation message</t>
+  </si>
+  <si>
+    <t>TC_169</t>
+  </si>
+  <si>
+    <t>Verify Volume Driver Value file is required</t>
+  </si>
+  <si>
+    <t>TC_170</t>
+  </si>
+  <si>
+    <t>Verify duplicate message name already exist</t>
+  </si>
+  <si>
+    <t>TC_171</t>
+  </si>
+  <si>
+    <t>Verify delete volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_172</t>
+  </si>
+  <si>
+    <t>Verify delete button disabled for default volume driver value set</t>
+  </si>
+  <si>
+    <t>TC_173</t>
+  </si>
+  <si>
+    <t>Verify volume driver values export option is available</t>
+  </si>
+  <si>
+    <t>TC_174</t>
+  </si>
+  <si>
+    <t>Verify Location_AdminOnly Module</t>
+  </si>
+  <si>
+    <t>verify add button is available</t>
+  </si>
+  <si>
+    <t>TC_175</t>
+  </si>
+  <si>
+    <t>verify add button options are available</t>
+  </si>
+  <si>
+    <t>TC_176</t>
+  </si>
+  <si>
+    <t>verify new locations add popup</t>
+  </si>
+  <si>
+    <t>TC_177</t>
+  </si>
+  <si>
+    <t>verify added location is available</t>
+  </si>
+  <si>
+    <t>TC_178</t>
+  </si>
+  <si>
+    <t>verify new locations profile add popup</t>
+  </si>
+  <si>
+    <t>TC_179</t>
+  </si>
+  <si>
+    <t>verify import locations popup</t>
+  </si>
+  <si>
+    <t>TC_180</t>
+  </si>
+  <si>
+    <t>verify import locations profile popup</t>
+  </si>
+  <si>
+    <t>TC_181</t>
+  </si>
+  <si>
+    <t>verify added location profile is available</t>
+  </si>
+  <si>
+    <t>TC_182</t>
+  </si>
+  <si>
+    <t>verify location profile listing is available</t>
+  </si>
+  <si>
+    <t>TC_183</t>
+  </si>
+  <si>
+    <t>verify location profile edit options are available</t>
+  </si>
+  <si>
+    <t>TC_184</t>
+  </si>
+  <si>
+    <t>verify checkboxes are available</t>
+  </si>
+  <si>
+    <t>TC_185</t>
+  </si>
+  <si>
+    <t>verify bulk edit option is available</t>
+  </si>
+  <si>
+    <t>TC_186</t>
+  </si>
+  <si>
+    <t>verify edit location options are available</t>
+  </si>
+  <si>
+    <t>TC_187</t>
+  </si>
+  <si>
+    <t>verify edit location sidebar is available</t>
+  </si>
+  <si>
+    <t>TC_188</t>
+  </si>
+  <si>
+    <t>Verify Attribute_AdminOnly Module</t>
+  </si>
+  <si>
+    <t>verify add button is not available</t>
+  </si>
+  <si>
+    <t>TC_189</t>
+  </si>
+  <si>
+    <t>verify attribute listing is available</t>
+  </si>
+  <si>
+    <t>TC_190</t>
+  </si>
+  <si>
+    <t>verify edit button is not available</t>
+  </si>
+  <si>
+    <t>TC_191</t>
+  </si>
+  <si>
+    <t>verify checkboxes are disabled</t>
+  </si>
+  <si>
+    <t>TC_192</t>
+  </si>
+  <si>
+    <t>Verify LocationMapping_AdminOnly Module</t>
+  </si>
+  <si>
+    <t>verify edit locationmapping sidebar is available</t>
+  </si>
+  <si>
+    <t>verify edit detail options are not available</t>
+  </si>
+  <si>
+    <t>verify save button is not available</t>
+  </si>
+  <si>
+    <t>TC_193</t>
+  </si>
+  <si>
+    <t>TC_194</t>
+  </si>
+  <si>
+    <t>TC_195</t>
+  </si>
+  <si>
+    <t>TC_196</t>
+  </si>
+  <si>
+    <t>Verify created department is available in dropdown</t>
+  </si>
+  <si>
+    <t>Verify mapping of department with location</t>
+  </si>
+  <si>
+    <t>Verify created volume driver mapping set and characterstics set are available in dropdown</t>
+  </si>
+  <si>
+    <t>Verify export options is available</t>
+  </si>
+  <si>
+    <t>Verify save button is not available</t>
+  </si>
+  <si>
+    <t>Verify details are not editable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1185,22 +1210,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1218,7 +1228,6 @@
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Cascadia Mono"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1257,96 +1266,70 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1405,33 +1388,365 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF263238"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E192"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ195"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E188" activeCellId="0" sqref="E188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G137" sqref="G137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="88.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.72"/>
+    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="88.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="1024" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1465,7 +1780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1482,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1516,7 +1831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1533,7 +1848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1550,7 +1865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1567,7 +1882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1584,7 +1899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1601,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1635,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1652,7 +1967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1669,7 +1984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1686,7 +2001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1703,7 +2018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1720,7 +2035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1737,7 +2052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
@@ -1754,7 +2069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1771,7 +2086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1788,7 +2103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
@@ -1805,7 +2120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1822,7 +2137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>53</v>
       </c>
@@ -1839,7 +2154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -1856,7 +2171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
@@ -1873,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>59</v>
       </c>
@@ -1890,7 +2205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -1907,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -1924,7 +2239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -1941,7 +2256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -1958,7 +2273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
@@ -1975,7 +2290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -1992,7 +2307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -2009,7 +2324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>78</v>
       </c>
@@ -2026,7 +2341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -2043,7 +2358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>82</v>
       </c>
@@ -2060,7 +2375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>84</v>
       </c>
@@ -2077,7 +2392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>87</v>
       </c>
@@ -2094,7 +2409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -2111,7 +2426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -2128,7 +2443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>93</v>
       </c>
@@ -2145,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
@@ -2162,7 +2477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>97</v>
       </c>
@@ -2179,7 +2494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>99</v>
       </c>
@@ -2196,7 +2511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>101</v>
       </c>
@@ -2213,7 +2528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>104</v>
       </c>
@@ -2230,7 +2545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>106</v>
       </c>
@@ -2247,7 +2562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>108</v>
       </c>
@@ -2264,7 +2579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>110</v>
       </c>
@@ -2281,7 +2596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>113</v>
       </c>
@@ -2298,7 +2613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
@@ -2315,7 +2630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
@@ -2332,7 +2647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>119</v>
       </c>
@@ -2349,7 +2664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>121</v>
       </c>
@@ -2357,24 +2672,24 @@
         <v>122</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>125</v>
+        <v>379</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>8</v>
@@ -2383,2071 +2698,2113 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B59" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>179</v>
+        <v>260</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="D132" s=